--- a/resultados_v2.xlsx
+++ b/resultados_v2.xlsx
@@ -40631,772 +40631,772 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>645</v>
+      </c>
+      <c r="C53" t="n">
+        <v>686</v>
+      </c>
+      <c r="D53" t="n">
+        <v>730</v>
+      </c>
+      <c r="E53" t="n">
+        <v>730</v>
+      </c>
+      <c r="F53" t="n">
+        <v>789</v>
+      </c>
+      <c r="G53" t="n">
+        <v>812</v>
+      </c>
+      <c r="H53" t="n">
+        <v>787</v>
+      </c>
+      <c r="I53" t="n">
+        <v>832</v>
+      </c>
+      <c r="J53" t="n">
         <v>839</v>
       </c>
-      <c r="C53" t="n">
+      <c r="K53" t="n">
         <v>775</v>
       </c>
-      <c r="D53" t="n">
+      <c r="L53" t="n">
         <v>762</v>
       </c>
-      <c r="E53" t="n">
+      <c r="M53" t="n">
         <v>762</v>
       </c>
-      <c r="F53" t="n">
+      <c r="N53" t="n">
         <v>753</v>
       </c>
-      <c r="G53" t="n">
+      <c r="O53" t="n">
         <v>759</v>
       </c>
-      <c r="H53" t="n">
+      <c r="P53" t="n">
         <v>701</v>
       </c>
-      <c r="I53" t="n">
+      <c r="Q53" t="n">
         <v>713</v>
-      </c>
-      <c r="J53" t="n">
-        <v>737</v>
-      </c>
-      <c r="K53" t="n">
-        <v>782</v>
-      </c>
-      <c r="L53" t="n">
-        <v>766</v>
-      </c>
-      <c r="M53" t="n">
-        <v>729</v>
-      </c>
-      <c r="N53" t="n">
-        <v>688</v>
-      </c>
-      <c r="O53" t="n">
-        <v>660</v>
-      </c>
-      <c r="P53" t="n">
-        <v>664</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>679</v>
       </c>
       <c r="R53" t="n">
         <v>737</v>
       </c>
       <c r="S53" t="n">
+        <v>782</v>
+      </c>
+      <c r="T53" t="n">
+        <v>766</v>
+      </c>
+      <c r="U53" t="n">
+        <v>729</v>
+      </c>
+      <c r="V53" t="n">
+        <v>688</v>
+      </c>
+      <c r="W53" t="n">
+        <v>660</v>
+      </c>
+      <c r="X53" t="n">
+        <v>664</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>679</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>737</v>
+      </c>
+      <c r="AA53" t="n">
         <v>730</v>
       </c>
-      <c r="T53" t="n">
+      <c r="AB53" t="n">
         <v>664</v>
       </c>
-      <c r="U53" t="n">
+      <c r="AC53" t="n">
         <v>653</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AD53" t="n">
         <v>649</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AE53" t="n">
         <v>659</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AF53" t="n">
         <v>690</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AG53" t="n">
         <v>720</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AH53" t="n">
         <v>708</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AI53" t="n">
         <v>734</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AJ53" t="n">
         <v>758</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AK53" t="n">
         <v>780</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AL53" t="n">
         <v>763</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AM53" t="n">
         <v>782</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AN53" t="n">
         <v>830</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AO53" t="n">
         <v>793</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AP53" t="n">
         <v>811</v>
       </c>
-      <c r="AI53" t="n">
+      <c r="AQ53" t="n">
         <v>807</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AR53" t="n">
         <v>801</v>
       </c>
-      <c r="AK53" t="n">
+      <c r="AS53" t="n">
         <v>800</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AT53" t="n">
         <v>798</v>
       </c>
-      <c r="AM53" t="n">
+      <c r="AU53" t="n">
         <v>818</v>
       </c>
-      <c r="AN53" t="n">
+      <c r="AV53" t="n">
         <v>739</v>
       </c>
-      <c r="AO53" t="n">
+      <c r="AW53" t="n">
         <v>705</v>
       </c>
-      <c r="AP53" t="n">
+      <c r="AX53" t="n">
         <v>720</v>
       </c>
-      <c r="AQ53" t="n">
+      <c r="AY53" t="n">
         <v>735</v>
       </c>
-      <c r="AR53" t="n">
+      <c r="AZ53" t="n">
         <v>789</v>
       </c>
-      <c r="AS53" t="n">
+      <c r="BA53" t="n">
         <v>770</v>
       </c>
-      <c r="AT53" t="n">
+      <c r="BB53" t="n">
         <v>794</v>
       </c>
-      <c r="AU53" t="n">
+      <c r="BC53" t="n">
         <v>808</v>
       </c>
-      <c r="AV53" t="n">
+      <c r="BD53" t="n">
         <v>808</v>
       </c>
-      <c r="AW53" t="n">
+      <c r="BE53" t="n">
         <v>732</v>
       </c>
-      <c r="AX53" t="n">
+      <c r="BF53" t="n">
         <v>712</v>
       </c>
-      <c r="AY53" t="n">
+      <c r="BG53" t="n">
         <v>687</v>
       </c>
-      <c r="AZ53" t="n">
+      <c r="BH53" t="n">
         <v>679</v>
       </c>
-      <c r="BA53" t="n">
+      <c r="BI53" t="n">
         <v>687</v>
       </c>
-      <c r="BB53" t="n">
+      <c r="BJ53" t="n">
         <v>682</v>
       </c>
-      <c r="BC53" t="n">
+      <c r="BK53" t="n">
         <v>667</v>
       </c>
-      <c r="BD53" t="n">
+      <c r="BL53" t="n">
         <v>713</v>
       </c>
-      <c r="BE53" t="n">
+      <c r="BM53" t="n">
         <v>789</v>
       </c>
-      <c r="BF53" t="n">
+      <c r="BN53" t="n">
         <v>813</v>
       </c>
-      <c r="BG53" t="n">
+      <c r="BO53" t="n">
         <v>770</v>
       </c>
-      <c r="BH53" t="n">
+      <c r="BP53" t="n">
         <v>789</v>
       </c>
-      <c r="BI53" t="n">
+      <c r="BQ53" t="n">
         <v>804</v>
       </c>
-      <c r="BJ53" t="n">
+      <c r="BR53" t="n">
         <v>828</v>
       </c>
-      <c r="BK53" t="n">
+      <c r="BS53" t="n">
         <v>789</v>
       </c>
-      <c r="BL53" t="n">
+      <c r="BT53" t="n">
         <v>717</v>
       </c>
-      <c r="BM53" t="n">
+      <c r="BU53" t="n">
         <v>714</v>
       </c>
-      <c r="BN53" t="n">
+      <c r="BV53" t="n">
         <v>709</v>
       </c>
-      <c r="BO53" t="n">
+      <c r="BW53" t="n">
         <v>718</v>
       </c>
-      <c r="BP53" t="n">
+      <c r="BX53" t="n">
         <v>674</v>
       </c>
-      <c r="BQ53" t="n">
+      <c r="BY53" t="n">
         <v>703</v>
       </c>
-      <c r="BR53" t="n">
+      <c r="BZ53" t="n">
         <v>711</v>
       </c>
-      <c r="BS53" t="n">
+      <c r="CA53" t="n">
         <v>736</v>
       </c>
-      <c r="BT53" t="n">
+      <c r="CB53" t="n">
         <v>719</v>
       </c>
-      <c r="BU53" t="n">
+      <c r="CC53" t="n">
         <v>716</v>
       </c>
-      <c r="BV53" t="n">
+      <c r="CD53" t="n">
         <v>735</v>
       </c>
-      <c r="BW53" t="n">
+      <c r="CE53" t="n">
         <v>760</v>
       </c>
-      <c r="BX53" t="n">
+      <c r="CF53" t="n">
         <v>781</v>
       </c>
-      <c r="BY53" t="n">
+      <c r="CG53" t="n">
         <v>784</v>
       </c>
-      <c r="BZ53" t="n">
+      <c r="CH53" t="n">
         <v>737</v>
       </c>
-      <c r="CA53" t="n">
+      <c r="CI53" t="n">
         <v>732</v>
       </c>
-      <c r="CB53" t="n">
+      <c r="CJ53" t="n">
         <v>730</v>
       </c>
-      <c r="CC53" t="n">
+      <c r="CK53" t="n">
         <v>735</v>
       </c>
-      <c r="CD53" t="n">
+      <c r="CL53" t="n">
         <v>699</v>
       </c>
-      <c r="CE53" t="n">
+      <c r="CM53" t="n">
         <v>676</v>
       </c>
-      <c r="CF53" t="n">
+      <c r="CN53" t="n">
         <v>676</v>
       </c>
-      <c r="CG53" t="n">
+      <c r="CO53" t="n">
         <v>692</v>
       </c>
-      <c r="CH53" t="n">
+      <c r="CP53" t="n">
         <v>663</v>
       </c>
-      <c r="CI53" t="n">
+      <c r="CQ53" t="n">
         <v>685</v>
       </c>
-      <c r="CJ53" t="n">
+      <c r="CR53" t="n">
         <v>711</v>
       </c>
-      <c r="CK53" t="n">
+      <c r="CS53" t="n">
         <v>776</v>
       </c>
-      <c r="CL53" t="n">
+      <c r="CT53" t="n">
         <v>792</v>
       </c>
-      <c r="CM53" t="n">
+      <c r="CU53" t="n">
         <v>864</v>
       </c>
-      <c r="CN53" t="n">
+      <c r="CV53" t="n">
         <v>792</v>
       </c>
-      <c r="CO53" t="n">
+      <c r="CW53" t="n">
         <v>793</v>
       </c>
-      <c r="CP53" t="n">
+      <c r="CX53" t="n">
         <v>783</v>
       </c>
-      <c r="CQ53" t="n">
+      <c r="CY53" t="n">
         <v>764</v>
       </c>
-      <c r="CR53" t="n">
+      <c r="CZ53" t="n">
         <v>763</v>
       </c>
-      <c r="CS53" t="n">
+      <c r="DA53" t="n">
         <v>759</v>
       </c>
-      <c r="CT53" t="n">
+      <c r="DB53" t="n">
         <v>766</v>
       </c>
-      <c r="CU53" t="n">
+      <c r="DC53" t="n">
         <v>759</v>
       </c>
-      <c r="CV53" t="n">
+      <c r="DD53" t="n">
         <v>758</v>
       </c>
-      <c r="CW53" t="n">
+      <c r="DE53" t="n">
         <v>711</v>
       </c>
-      <c r="CX53" t="n">
+      <c r="DF53" t="n">
         <v>682</v>
       </c>
-      <c r="CY53" t="n">
+      <c r="DG53" t="n">
         <v>679</v>
       </c>
-      <c r="CZ53" t="n">
+      <c r="DH53" t="n">
         <v>680</v>
       </c>
-      <c r="DA53" t="n">
+      <c r="DI53" t="n">
         <v>692</v>
       </c>
-      <c r="DB53" t="n">
+      <c r="DJ53" t="n">
         <v>705</v>
       </c>
-      <c r="DC53" t="n">
+      <c r="DK53" t="n">
         <v>765</v>
       </c>
-      <c r="DD53" t="n">
+      <c r="DL53" t="n">
         <v>793</v>
       </c>
-      <c r="DE53" t="n">
+      <c r="DM53" t="n">
         <v>816</v>
       </c>
-      <c r="DF53" t="n">
+      <c r="DN53" t="n">
         <v>801</v>
       </c>
-      <c r="DG53" t="n">
+      <c r="DO53" t="n">
         <v>755</v>
       </c>
-      <c r="DH53" t="n">
+      <c r="DP53" t="n">
         <v>739</v>
       </c>
-      <c r="DI53" t="n">
+      <c r="DQ53" t="n">
         <v>730</v>
       </c>
-      <c r="DJ53" t="n">
+      <c r="DR53" t="n">
         <v>728</v>
       </c>
-      <c r="DK53" t="n">
+      <c r="DS53" t="n">
         <v>719</v>
       </c>
-      <c r="DL53" t="n">
+      <c r="DT53" t="n">
         <v>711</v>
       </c>
-      <c r="DM53" t="n">
+      <c r="DU53" t="n">
         <v>705</v>
       </c>
-      <c r="DN53" t="n">
+      <c r="DV53" t="n">
         <v>675</v>
       </c>
-      <c r="DO53" t="n">
+      <c r="DW53" t="n">
         <v>646</v>
       </c>
-      <c r="DP53" t="n">
+      <c r="DX53" t="n">
         <v>641</v>
       </c>
-      <c r="DQ53" t="n">
+      <c r="DY53" t="n">
         <v>649</v>
       </c>
-      <c r="DR53" t="n">
+      <c r="DZ53" t="n">
         <v>689</v>
       </c>
-      <c r="DS53" t="n">
+      <c r="EA53" t="n">
         <v>766</v>
       </c>
-      <c r="DT53" t="n">
+      <c r="EB53" t="n">
         <v>758</v>
       </c>
-      <c r="DU53" t="n">
+      <c r="EC53" t="n">
         <v>752</v>
       </c>
-      <c r="DV53" t="n">
+      <c r="ED53" t="n">
         <v>784</v>
       </c>
-      <c r="DW53" t="n">
+      <c r="EE53" t="n">
         <v>739</v>
       </c>
-      <c r="DX53" t="n">
+      <c r="EF53" t="n">
         <v>732</v>
       </c>
-      <c r="DY53" t="n">
+      <c r="EG53" t="n">
         <v>724</v>
       </c>
-      <c r="DZ53" t="n">
+      <c r="EH53" t="n">
         <v>726</v>
       </c>
-      <c r="EA53" t="n">
+      <c r="EI53" t="n">
         <v>736</v>
       </c>
-      <c r="EB53" t="n">
+      <c r="EJ53" t="n">
         <v>728</v>
       </c>
-      <c r="EC53" t="n">
+      <c r="EK53" t="n">
         <v>701</v>
       </c>
-      <c r="ED53" t="n">
+      <c r="EL53" t="n">
         <v>658</v>
       </c>
-      <c r="EE53" t="n">
+      <c r="EM53" t="n">
         <v>659</v>
       </c>
-      <c r="EF53" t="n">
+      <c r="EN53" t="n">
         <v>667</v>
       </c>
-      <c r="EG53" t="n">
+      <c r="EO53" t="n">
         <v>705</v>
       </c>
-      <c r="EH53" t="n">
+      <c r="EP53" t="n">
         <v>784</v>
       </c>
-      <c r="EI53" t="n">
+      <c r="EQ53" t="n">
         <v>831</v>
       </c>
-      <c r="EJ53" t="n">
+      <c r="ER53" t="n">
         <v>701</v>
       </c>
-      <c r="EK53" t="n">
+      <c r="ES53" t="n">
         <v>643</v>
       </c>
-      <c r="EL53" t="n">
+      <c r="ET53" t="n">
         <v>634</v>
       </c>
-      <c r="EM53" t="n">
+      <c r="EU53" t="n">
         <v>656</v>
       </c>
-      <c r="EN53" t="n">
+      <c r="EV53" t="n">
         <v>737</v>
       </c>
-      <c r="EO53" t="n">
+      <c r="EW53" t="n">
         <v>822</v>
       </c>
-      <c r="EP53" t="n">
+      <c r="EX53" t="n">
         <v>859</v>
       </c>
-      <c r="EQ53" t="n">
+      <c r="EY53" t="n">
         <v>846</v>
       </c>
-      <c r="ER53" t="n">
+      <c r="EZ53" t="n">
         <v>787</v>
       </c>
-      <c r="ES53" t="n">
+      <c r="FA53" t="n">
         <v>780</v>
       </c>
-      <c r="ET53" t="n">
+      <c r="FB53" t="n">
         <v>785</v>
       </c>
-      <c r="EU53" t="n">
+      <c r="FC53" t="n">
         <v>789</v>
       </c>
-      <c r="EV53" t="n">
+      <c r="FD53" t="n">
         <v>714</v>
       </c>
-      <c r="EW53" t="n">
+      <c r="FE53" t="n">
         <v>677</v>
       </c>
-      <c r="EX53" t="n">
+      <c r="FF53" t="n">
         <v>652</v>
       </c>
-      <c r="EY53" t="n">
+      <c r="FG53" t="n">
         <v>636</v>
       </c>
-      <c r="EZ53" t="n">
+      <c r="FH53" t="n">
         <v>630</v>
       </c>
-      <c r="FA53" t="n">
+      <c r="FI53" t="n">
         <v>644</v>
       </c>
-      <c r="FB53" t="n">
+      <c r="FJ53" t="n">
         <v>645</v>
       </c>
-      <c r="FC53" t="n">
+      <c r="FK53" t="n">
         <v>663</v>
       </c>
-      <c r="FD53" t="n">
+      <c r="FL53" t="n">
         <v>671</v>
       </c>
-      <c r="FE53" t="n">
+      <c r="FM53" t="n">
         <v>622</v>
       </c>
-      <c r="FF53" t="n">
+      <c r="FN53" t="n">
         <v>619</v>
       </c>
-      <c r="FG53" t="n">
+      <c r="FO53" t="n">
         <v>610</v>
       </c>
-      <c r="FH53" t="n">
+      <c r="FP53" t="n">
         <v>612</v>
       </c>
-      <c r="FI53" t="n">
+      <c r="FQ53" t="n">
         <v>627</v>
       </c>
-      <c r="FJ53" t="n">
+      <c r="FR53" t="n">
         <v>681</v>
       </c>
-      <c r="FK53" t="n">
+      <c r="FS53" t="n">
         <v>767</v>
       </c>
-      <c r="FL53" t="n">
+      <c r="FT53" t="n">
         <v>797</v>
       </c>
-      <c r="FM53" t="n">
+      <c r="FU53" t="n">
         <v>789</v>
       </c>
-      <c r="FN53" t="n">
+      <c r="FV53" t="n">
         <v>820</v>
       </c>
-      <c r="FO53" t="n">
+      <c r="FW53" t="n">
         <v>789</v>
       </c>
-      <c r="FP53" t="n">
+      <c r="FX53" t="n">
         <v>762</v>
       </c>
-      <c r="FQ53" t="n">
+      <c r="FY53" t="n">
         <v>709</v>
       </c>
-      <c r="FR53" t="n">
+      <c r="FZ53" t="n">
         <v>730</v>
       </c>
-      <c r="FS53" t="n">
+      <c r="GA53" t="n">
         <v>724</v>
       </c>
-      <c r="FT53" t="n">
+      <c r="GB53" t="n">
         <v>660</v>
       </c>
-      <c r="FU53" t="n">
+      <c r="GC53" t="n">
         <v>659</v>
       </c>
-      <c r="FV53" t="n">
+      <c r="GD53" t="n">
         <v>653</v>
       </c>
-      <c r="FW53" t="n">
+      <c r="GE53" t="n">
         <v>672</v>
       </c>
-      <c r="FX53" t="n">
+      <c r="GF53" t="n">
         <v>693</v>
       </c>
-      <c r="FY53" t="n">
+      <c r="GG53" t="n">
         <v>658</v>
       </c>
-      <c r="FZ53" t="n">
+      <c r="GH53" t="n">
         <v>658</v>
       </c>
-      <c r="GA53" t="n">
+      <c r="GI53" t="n">
         <v>669</v>
       </c>
-      <c r="GB53" t="n">
+      <c r="GJ53" t="n">
         <v>701</v>
       </c>
-      <c r="GC53" t="n">
+      <c r="GK53" t="n">
         <v>757</v>
       </c>
-      <c r="GD53" t="n">
+      <c r="GL53" t="n">
         <v>790</v>
       </c>
-      <c r="GE53" t="n">
+      <c r="GM53" t="n">
         <v>795</v>
       </c>
-      <c r="GF53" t="n">
+      <c r="GN53" t="n">
         <v>801</v>
       </c>
-      <c r="GG53" t="n">
+      <c r="GO53" t="n">
         <v>786</v>
       </c>
-      <c r="GH53" t="n">
+      <c r="GP53" t="n">
         <v>711</v>
       </c>
-      <c r="GI53" t="n">
+      <c r="GQ53" t="n">
         <v>675</v>
       </c>
-      <c r="GJ53" t="n">
+      <c r="GR53" t="n">
         <v>655</v>
       </c>
-      <c r="GK53" t="n">
+      <c r="GS53" t="n">
         <v>671</v>
       </c>
-      <c r="GL53" t="n">
+      <c r="GT53" t="n">
         <v>660</v>
       </c>
-      <c r="GM53" t="n">
+      <c r="GU53" t="n">
         <v>685</v>
       </c>
-      <c r="GN53" t="n">
+      <c r="GV53" t="n">
         <v>750</v>
       </c>
-      <c r="GO53" t="n">
+      <c r="GW53" t="n">
         <v>827</v>
       </c>
-      <c r="GP53" t="n">
+      <c r="GX53" t="n">
         <v>698</v>
       </c>
-      <c r="GQ53" t="n">
+      <c r="GY53" t="n">
         <v>691</v>
       </c>
-      <c r="GR53" t="n">
+      <c r="GZ53" t="n">
         <v>689</v>
       </c>
-      <c r="GS53" t="n">
+      <c r="HA53" t="n">
         <v>689</v>
       </c>
-      <c r="GT53" t="n">
+      <c r="HB53" t="n">
         <v>690</v>
       </c>
-      <c r="GU53" t="n">
+      <c r="HC53" t="n">
         <v>881</v>
       </c>
-      <c r="GV53" t="n">
+      <c r="HD53" t="n">
         <v>857</v>
       </c>
-      <c r="GW53" t="n">
+      <c r="HE53" t="n">
         <v>834</v>
       </c>
-      <c r="GX53" t="n">
+      <c r="HF53" t="n">
         <v>778</v>
       </c>
-      <c r="GY53" t="n">
+      <c r="HG53" t="n">
         <v>721</v>
       </c>
-      <c r="GZ53" t="n">
+      <c r="HH53" t="n">
         <v>692</v>
       </c>
-      <c r="HA53" t="n">
+      <c r="HI53" t="n">
         <v>691</v>
       </c>
-      <c r="HB53" t="n">
+      <c r="HJ53" t="n">
         <v>687</v>
       </c>
-      <c r="HC53" t="n">
+      <c r="HK53" t="n">
         <v>704</v>
       </c>
-      <c r="HD53" t="n">
+      <c r="HL53" t="n">
         <v>742</v>
       </c>
-      <c r="HE53" t="n">
+      <c r="HM53" t="n">
         <v>739</v>
       </c>
-      <c r="HF53" t="n">
+      <c r="HN53" t="n">
         <v>713</v>
       </c>
-      <c r="HG53" t="n">
+      <c r="HO53" t="n">
         <v>750</v>
       </c>
-      <c r="HH53" t="n">
+      <c r="HP53" t="n">
         <v>763</v>
       </c>
-      <c r="HI53" t="n">
+      <c r="HQ53" t="n">
         <v>733</v>
       </c>
-      <c r="HJ53" t="n">
+      <c r="HR53" t="n">
         <v>756</v>
       </c>
-      <c r="HK53" t="n">
+      <c r="HS53" t="n">
         <v>775</v>
       </c>
-      <c r="HL53" t="n">
+      <c r="HT53" t="n">
         <v>794</v>
       </c>
-      <c r="HM53" t="n">
+      <c r="HU53" t="n">
         <v>801</v>
       </c>
-      <c r="HN53" t="n">
+      <c r="HV53" t="n">
         <v>784</v>
       </c>
-      <c r="HO53" t="n">
+      <c r="HW53" t="n">
         <v>755</v>
       </c>
-      <c r="HP53" t="n">
+      <c r="HX53" t="n">
         <v>732</v>
       </c>
-      <c r="HQ53" t="n">
+      <c r="HY53" t="n">
         <v>695</v>
       </c>
-      <c r="HR53" t="n">
+      <c r="HZ53" t="n">
         <v>688</v>
       </c>
-      <c r="HS53" t="n">
+      <c r="IA53" t="n">
         <v>691</v>
       </c>
-      <c r="HT53" t="n">
+      <c r="IB53" t="n">
         <v>719</v>
       </c>
-      <c r="HU53" t="n">
+      <c r="IC53" t="n">
         <v>773</v>
       </c>
-      <c r="HV53" t="n">
+      <c r="ID53" t="n">
         <v>781</v>
       </c>
-      <c r="HW53" t="n">
+      <c r="IE53" t="n">
         <v>810</v>
       </c>
-      <c r="HX53" t="n">
+      <c r="IF53" t="n">
         <v>868</v>
       </c>
-      <c r="HY53" t="n">
+      <c r="IG53" t="n">
         <v>906</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="IH53" t="n">
         <v>923</v>
       </c>
-      <c r="IA53" t="n">
+      <c r="II53" t="n">
         <v>887</v>
       </c>
-      <c r="IB53" t="n">
+      <c r="IJ53" t="n">
         <v>796</v>
       </c>
-      <c r="IC53" t="n">
+      <c r="IK53" t="n">
         <v>734</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="IL53" t="n">
         <v>706</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IM53" t="n">
         <v>702</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IN53" t="n">
         <v>741</v>
       </c>
-      <c r="IG53" t="n">
+      <c r="IO53" t="n">
         <v>789</v>
       </c>
-      <c r="IH53" t="n">
+      <c r="IP53" t="n">
         <v>841</v>
       </c>
-      <c r="II53" t="n">
+      <c r="IQ53" t="n">
         <v>794</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IR53" t="n">
         <v>800</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IS53" t="n">
         <v>821</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IT53" t="n">
         <v>840</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IU53" t="n">
         <v>814</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IV53" t="n">
         <v>824</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IW53" t="n">
         <v>778</v>
-      </c>
-      <c r="IP53" t="n">
-        <v>747</v>
-      </c>
-      <c r="IQ53" t="n">
-        <v>756</v>
-      </c>
-      <c r="IR53" t="n">
-        <v>769</v>
-      </c>
-      <c r="IS53" t="n">
-        <v>788</v>
-      </c>
-      <c r="IT53" t="n">
-        <v>725</v>
-      </c>
-      <c r="IU53" t="n">
-        <v>706</v>
-      </c>
-      <c r="IV53" t="n">
-        <v>698</v>
-      </c>
-      <c r="IW53" t="n">
-        <v>704</v>
       </c>
     </row>
     <row r="54">
@@ -41404,772 +41404,772 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>747</v>
+      </c>
+      <c r="C54" t="n">
+        <v>756</v>
+      </c>
+      <c r="D54" t="n">
+        <v>769</v>
+      </c>
+      <c r="E54" t="n">
+        <v>788</v>
+      </c>
+      <c r="F54" t="n">
+        <v>725</v>
+      </c>
+      <c r="G54" t="n">
+        <v>706</v>
+      </c>
+      <c r="H54" t="n">
+        <v>698</v>
+      </c>
+      <c r="I54" t="n">
+        <v>704</v>
+      </c>
+      <c r="J54" t="n">
         <v>710</v>
       </c>
-      <c r="C54" t="n">
+      <c r="K54" t="n">
         <v>704</v>
       </c>
-      <c r="D54" t="n">
+      <c r="L54" t="n">
         <v>659</v>
       </c>
-      <c r="E54" t="n">
+      <c r="M54" t="n">
         <v>656</v>
       </c>
-      <c r="F54" t="n">
+      <c r="N54" t="n">
         <v>824</v>
       </c>
-      <c r="G54" t="n">
+      <c r="O54" t="n">
         <v>844</v>
       </c>
-      <c r="H54" t="n">
+      <c r="P54" t="n">
         <v>839</v>
       </c>
-      <c r="I54" t="n">
+      <c r="Q54" t="n">
         <v>804</v>
       </c>
-      <c r="J54" t="n">
+      <c r="R54" t="n">
         <v>799</v>
       </c>
-      <c r="K54" t="n">
+      <c r="S54" t="n">
         <v>780</v>
       </c>
-      <c r="L54" t="n">
+      <c r="T54" t="n">
         <v>720</v>
       </c>
-      <c r="M54" t="n">
+      <c r="U54" t="n">
         <v>680</v>
       </c>
-      <c r="N54" t="n">
+      <c r="V54" t="n">
         <v>660</v>
       </c>
-      <c r="O54" t="n">
+      <c r="W54" t="n">
         <v>652</v>
       </c>
-      <c r="P54" t="n">
+      <c r="X54" t="n">
         <v>668</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Y54" t="n">
         <v>710</v>
       </c>
-      <c r="R54" t="n">
+      <c r="Z54" t="n">
         <v>779</v>
       </c>
-      <c r="S54" t="n">
+      <c r="AA54" t="n">
         <v>811</v>
       </c>
-      <c r="T54" t="n">
+      <c r="AB54" t="n">
         <v>839</v>
       </c>
-      <c r="U54" t="n">
+      <c r="AC54" t="n">
         <v>838</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AD54" t="n">
         <v>804</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AE54" t="n">
         <v>719</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AF54" t="n">
         <v>687</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AG54" t="n">
         <v>671</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AH54" t="n">
         <v>675</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AI54" t="n">
         <v>674</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AJ54" t="n">
         <v>679</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AK54" t="n">
         <v>638</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AL54" t="n">
         <v>648</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AM54" t="n">
         <v>640</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AN54" t="n">
         <v>681</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AO54" t="n">
         <v>719</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AP54" t="n">
         <v>742</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AQ54" t="n">
         <v>755</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AR54" t="n">
         <v>762</v>
       </c>
-      <c r="AK54" t="n">
+      <c r="AS54" t="n">
         <v>701</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AT54" t="n">
         <v>702</v>
       </c>
-      <c r="AM54" t="n">
+      <c r="AU54" t="n">
         <v>692</v>
       </c>
-      <c r="AN54" t="n">
+      <c r="AV54" t="n">
         <v>703</v>
       </c>
-      <c r="AO54" t="n">
+      <c r="AW54" t="n">
         <v>685</v>
       </c>
-      <c r="AP54" t="n">
+      <c r="AX54" t="n">
         <v>693</v>
       </c>
-      <c r="AQ54" t="n">
+      <c r="AY54" t="n">
         <v>677</v>
       </c>
-      <c r="AR54" t="n">
+      <c r="AZ54" t="n">
         <v>667</v>
       </c>
-      <c r="AS54" t="n">
+      <c r="BA54" t="n">
         <v>632</v>
       </c>
-      <c r="AT54" t="n">
+      <c r="BB54" t="n">
         <v>616</v>
       </c>
-      <c r="AU54" t="n">
+      <c r="BC54" t="n">
         <v>613</v>
       </c>
-      <c r="AV54" t="n">
+      <c r="BD54" t="n">
         <v>614</v>
       </c>
-      <c r="AW54" t="n">
+      <c r="BE54" t="n">
         <v>626</v>
       </c>
-      <c r="AX54" t="n">
+      <c r="BF54" t="n">
         <v>664</v>
       </c>
-      <c r="AY54" t="n">
+      <c r="BG54" t="n">
         <v>694</v>
       </c>
-      <c r="AZ54" t="n">
+      <c r="BH54" t="n">
         <v>681</v>
       </c>
-      <c r="BA54" t="n">
+      <c r="BI54" t="n">
         <v>681</v>
       </c>
-      <c r="BB54" t="n">
+      <c r="BJ54" t="n">
         <v>627</v>
       </c>
-      <c r="BC54" t="n">
+      <c r="BK54" t="n">
         <v>601</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BL54" t="n">
         <v>591</v>
       </c>
-      <c r="BE54" t="n">
+      <c r="BM54" t="n">
         <v>594</v>
       </c>
-      <c r="BF54" t="n">
+      <c r="BN54" t="n">
         <v>624</v>
       </c>
-      <c r="BG54" t="n">
+      <c r="BO54" t="n">
         <v>691</v>
       </c>
-      <c r="BH54" t="n">
+      <c r="BP54" t="n">
         <v>769</v>
       </c>
-      <c r="BI54" t="n">
+      <c r="BQ54" t="n">
         <v>822</v>
       </c>
-      <c r="BJ54" t="n">
+      <c r="BR54" t="n">
         <v>746</v>
       </c>
-      <c r="BK54" t="n">
+      <c r="BS54" t="n">
         <v>742</v>
       </c>
-      <c r="BL54" t="n">
+      <c r="BT54" t="n">
         <v>738</v>
       </c>
-      <c r="BM54" t="n">
+      <c r="BU54" t="n">
         <v>746</v>
       </c>
-      <c r="BN54" t="n">
+      <c r="BV54" t="n">
         <v>776</v>
       </c>
-      <c r="BO54" t="n">
+      <c r="BW54" t="n">
         <v>747</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BX54" t="n">
         <v>718</v>
       </c>
-      <c r="BQ54" t="n">
+      <c r="BY54" t="n">
         <v>640</v>
       </c>
-      <c r="BR54" t="n">
+      <c r="BZ54" t="n">
         <v>624</v>
       </c>
-      <c r="BS54" t="n">
+      <c r="CA54" t="n">
         <v>607</v>
       </c>
-      <c r="BT54" t="n">
+      <c r="CB54" t="n">
         <v>592</v>
       </c>
-      <c r="BU54" t="n">
+      <c r="CC54" t="n">
         <v>589</v>
       </c>
-      <c r="BV54" t="n">
+      <c r="CD54" t="n">
         <v>585</v>
       </c>
-      <c r="BW54" t="n">
+      <c r="CE54" t="n">
         <v>588</v>
       </c>
-      <c r="BX54" t="n">
+      <c r="CF54" t="n">
         <v>597</v>
       </c>
-      <c r="BY54" t="n">
+      <c r="CG54" t="n">
         <v>609</v>
       </c>
-      <c r="BZ54" t="n">
+      <c r="CH54" t="n">
         <v>636</v>
       </c>
-      <c r="CA54" t="n">
+      <c r="CI54" t="n">
         <v>665</v>
       </c>
-      <c r="CB54" t="n">
+      <c r="CJ54" t="n">
         <v>688</v>
       </c>
-      <c r="CC54" t="n">
+      <c r="CK54" t="n">
         <v>716</v>
       </c>
-      <c r="CD54" t="n">
+      <c r="CL54" t="n">
         <v>684</v>
       </c>
-      <c r="CE54" t="n">
+      <c r="CM54" t="n">
         <v>641</v>
       </c>
-      <c r="CF54" t="n">
+      <c r="CN54" t="n">
         <v>634</v>
       </c>
-      <c r="CG54" t="n">
+      <c r="CO54" t="n">
         <v>632</v>
       </c>
-      <c r="CH54" t="n">
+      <c r="CP54" t="n">
         <v>647</v>
       </c>
-      <c r="CI54" t="n">
+      <c r="CQ54" t="n">
         <v>687</v>
       </c>
-      <c r="CJ54" t="n">
+      <c r="CR54" t="n">
         <v>731</v>
       </c>
-      <c r="CK54" t="n">
+      <c r="CS54" t="n">
         <v>728</v>
       </c>
-      <c r="CL54" t="n">
+      <c r="CT54" t="n">
         <v>791</v>
       </c>
-      <c r="CM54" t="n">
+      <c r="CU54" t="n">
         <v>813</v>
       </c>
-      <c r="CN54" t="n">
+      <c r="CV54" t="n">
         <v>787</v>
       </c>
-      <c r="CO54" t="n">
+      <c r="CW54" t="n">
         <v>830</v>
       </c>
-      <c r="CP54" t="n">
+      <c r="CX54" t="n">
         <v>837</v>
       </c>
-      <c r="CQ54" t="n">
+      <c r="CY54" t="n">
         <v>777</v>
       </c>
-      <c r="CR54" t="n">
+      <c r="CZ54" t="n">
         <v>760</v>
       </c>
-      <c r="CS54" t="n">
+      <c r="DA54" t="n">
         <v>763</v>
       </c>
-      <c r="CT54" t="n">
+      <c r="DB54" t="n">
         <v>752</v>
       </c>
-      <c r="CU54" t="n">
+      <c r="DC54" t="n">
         <v>759</v>
       </c>
-      <c r="CV54" t="n">
+      <c r="DD54" t="n">
         <v>701</v>
       </c>
-      <c r="CW54" t="n">
+      <c r="DE54" t="n">
         <v>713</v>
       </c>
-      <c r="CX54" t="n">
+      <c r="DF54" t="n">
         <v>737</v>
       </c>
-      <c r="CY54" t="n">
+      <c r="DG54" t="n">
         <v>780</v>
       </c>
-      <c r="CZ54" t="n">
+      <c r="DH54" t="n">
         <v>765</v>
       </c>
-      <c r="DA54" t="n">
+      <c r="DI54" t="n">
         <v>731</v>
       </c>
-      <c r="DB54" t="n">
+      <c r="DJ54" t="n">
         <v>687</v>
       </c>
-      <c r="DC54" t="n">
+      <c r="DK54" t="n">
         <v>660</v>
       </c>
-      <c r="DD54" t="n">
+      <c r="DL54" t="n">
         <v>662</v>
       </c>
-      <c r="DE54" t="n">
+      <c r="DM54" t="n">
         <v>679</v>
       </c>
-      <c r="DF54" t="n">
+      <c r="DN54" t="n">
         <v>736</v>
       </c>
-      <c r="DG54" t="n">
+      <c r="DO54" t="n">
         <v>729</v>
       </c>
-      <c r="DH54" t="n">
+      <c r="DP54" t="n">
         <v>663</v>
       </c>
-      <c r="DI54" t="n">
+      <c r="DQ54" t="n">
         <v>652</v>
       </c>
-      <c r="DJ54" t="n">
+      <c r="DR54" t="n">
         <v>647</v>
       </c>
-      <c r="DK54" t="n">
+      <c r="DS54" t="n">
         <v>659</v>
       </c>
-      <c r="DL54" t="n">
+      <c r="DT54" t="n">
         <v>690</v>
       </c>
-      <c r="DM54" t="n">
+      <c r="DU54" t="n">
         <v>722</v>
       </c>
-      <c r="DN54" t="n">
+      <c r="DV54" t="n">
         <v>709</v>
       </c>
-      <c r="DO54" t="n">
+      <c r="DW54" t="n">
         <v>734</v>
       </c>
-      <c r="DP54" t="n">
+      <c r="DX54" t="n">
         <v>759</v>
       </c>
-      <c r="DQ54" t="n">
+      <c r="DY54" t="n">
         <v>780</v>
       </c>
-      <c r="DR54" t="n">
+      <c r="DZ54" t="n">
         <v>763</v>
       </c>
-      <c r="DS54" t="n">
+      <c r="EA54" t="n">
         <v>784</v>
       </c>
-      <c r="DT54" t="n">
+      <c r="EB54" t="n">
         <v>829</v>
       </c>
-      <c r="DU54" t="n">
+      <c r="EC54" t="n">
         <v>792</v>
       </c>
-      <c r="DV54" t="n">
+      <c r="ED54" t="n">
         <v>809</v>
       </c>
-      <c r="DW54" t="n">
+      <c r="EE54" t="n">
         <v>807</v>
       </c>
-      <c r="DX54" t="n">
+      <c r="EF54" t="n">
         <v>801</v>
       </c>
-      <c r="DY54" t="n">
+      <c r="EG54" t="n">
         <v>800</v>
       </c>
-      <c r="DZ54" t="n">
+      <c r="EH54" t="n">
         <v>799</v>
       </c>
-      <c r="EA54" t="n">
+      <c r="EI54" t="n">
         <v>818</v>
       </c>
-      <c r="EB54" t="n">
+      <c r="EJ54" t="n">
         <v>740</v>
       </c>
-      <c r="EC54" t="n">
+      <c r="EK54" t="n">
         <v>705</v>
       </c>
-      <c r="ED54" t="n">
+      <c r="EL54" t="n">
         <v>720</v>
       </c>
-      <c r="EE54" t="n">
+      <c r="EM54" t="n">
         <v>737</v>
       </c>
-      <c r="EF54" t="n">
+      <c r="EN54" t="n">
         <v>787</v>
       </c>
-      <c r="EG54" t="n">
+      <c r="EO54" t="n">
         <v>768</v>
       </c>
-      <c r="EH54" t="n">
+      <c r="EP54" t="n">
         <v>794</v>
       </c>
-      <c r="EI54" t="n">
+      <c r="EQ54" t="n">
         <v>809</v>
       </c>
-      <c r="EJ54" t="n">
+      <c r="ER54" t="n">
         <v>806</v>
       </c>
-      <c r="EK54" t="n">
+      <c r="ES54" t="n">
         <v>731</v>
       </c>
-      <c r="EL54" t="n">
+      <c r="ET54" t="n">
         <v>713</v>
       </c>
-      <c r="EM54" t="n">
+      <c r="EU54" t="n">
         <v>687</v>
       </c>
-      <c r="EN54" t="n">
+      <c r="EV54" t="n">
         <v>679</v>
       </c>
-      <c r="EO54" t="n">
+      <c r="EW54" t="n">
         <v>687</v>
       </c>
-      <c r="EP54" t="n">
+      <c r="EX54" t="n">
         <v>682</v>
       </c>
-      <c r="EQ54" t="n">
+      <c r="EY54" t="n">
         <v>669</v>
       </c>
-      <c r="ER54" t="n">
+      <c r="EZ54" t="n">
         <v>712</v>
       </c>
-      <c r="ES54" t="n">
+      <c r="FA54" t="n">
         <v>789</v>
       </c>
-      <c r="ET54" t="n">
+      <c r="FB54" t="n">
         <v>813</v>
       </c>
-      <c r="EU54" t="n">
+      <c r="FC54" t="n">
         <v>772</v>
       </c>
-      <c r="EV54" t="n">
+      <c r="FD54" t="n">
         <v>789</v>
       </c>
-      <c r="EW54" t="n">
+      <c r="FE54" t="n">
         <v>803</v>
       </c>
-      <c r="EX54" t="n">
+      <c r="FF54" t="n">
         <v>829</v>
       </c>
-      <c r="EY54" t="n">
+      <c r="FG54" t="n">
         <v>789</v>
       </c>
-      <c r="EZ54" t="n">
+      <c r="FH54" t="n">
         <v>717</v>
-      </c>
-      <c r="FA54" t="n">
-        <v>715</v>
-      </c>
-      <c r="FB54" t="n">
-        <v>710</v>
-      </c>
-      <c r="FC54" t="n">
-        <v>718</v>
-      </c>
-      <c r="FD54" t="n">
-        <v>676</v>
-      </c>
-      <c r="FE54" t="n">
-        <v>703</v>
-      </c>
-      <c r="FF54" t="n">
-        <v>712</v>
-      </c>
-      <c r="FG54" t="n">
-        <v>736</v>
-      </c>
-      <c r="FH54" t="n">
-        <v>718</v>
       </c>
       <c r="FI54" t="n">
         <v>715</v>
       </c>
       <c r="FJ54" t="n">
+        <v>710</v>
+      </c>
+      <c r="FK54" t="n">
+        <v>718</v>
+      </c>
+      <c r="FL54" t="n">
+        <v>676</v>
+      </c>
+      <c r="FM54" t="n">
+        <v>703</v>
+      </c>
+      <c r="FN54" t="n">
+        <v>712</v>
+      </c>
+      <c r="FO54" t="n">
+        <v>736</v>
+      </c>
+      <c r="FP54" t="n">
+        <v>718</v>
+      </c>
+      <c r="FQ54" t="n">
+        <v>715</v>
+      </c>
+      <c r="FR54" t="n">
         <v>734</v>
       </c>
-      <c r="FK54" t="n">
+      <c r="FS54" t="n">
         <v>760</v>
       </c>
-      <c r="FL54" t="n">
+      <c r="FT54" t="n">
         <v>780</v>
       </c>
-      <c r="FM54" t="n">
+      <c r="FU54" t="n">
         <v>786</v>
       </c>
-      <c r="FN54" t="n">
+      <c r="FV54" t="n">
         <v>738</v>
       </c>
-      <c r="FO54" t="n">
+      <c r="FW54" t="n">
         <v>733</v>
       </c>
-      <c r="FP54" t="n">
+      <c r="FX54" t="n">
         <v>729</v>
       </c>
-      <c r="FQ54" t="n">
+      <c r="FY54" t="n">
         <v>734</v>
       </c>
-      <c r="FR54" t="n">
+      <c r="FZ54" t="n">
         <v>697</v>
       </c>
-      <c r="FS54" t="n">
+      <c r="GA54" t="n">
         <v>675</v>
       </c>
-      <c r="FT54" t="n">
+      <c r="GB54" t="n">
         <v>676</v>
       </c>
-      <c r="FU54" t="n">
+      <c r="GC54" t="n">
         <v>691</v>
       </c>
-      <c r="FV54" t="n">
+      <c r="GD54" t="n">
         <v>663</v>
       </c>
-      <c r="FW54" t="n">
+      <c r="GE54" t="n">
         <v>685</v>
       </c>
-      <c r="FX54" t="n">
+      <c r="GF54" t="n">
         <v>713</v>
       </c>
-      <c r="FY54" t="n">
+      <c r="GG54" t="n">
         <v>778</v>
       </c>
-      <c r="FZ54" t="n">
+      <c r="GH54" t="n">
         <v>792</v>
       </c>
-      <c r="GA54" t="n">
+      <c r="GI54" t="n">
         <v>864</v>
       </c>
-      <c r="GB54" t="n">
+      <c r="GJ54" t="n">
         <v>794</v>
       </c>
-      <c r="GC54" t="n">
+      <c r="GK54" t="n">
         <v>791</v>
       </c>
-      <c r="GD54" t="n">
+      <c r="GL54" t="n">
         <v>783</v>
       </c>
-      <c r="GE54" t="n">
+      <c r="GM54" t="n">
         <v>766</v>
       </c>
-      <c r="GF54" t="n">
+      <c r="GN54" t="n">
         <v>765</v>
       </c>
-      <c r="GG54" t="n">
+      <c r="GO54" t="n">
         <v>757</v>
       </c>
-      <c r="GH54" t="n">
+      <c r="GP54" t="n">
         <v>765</v>
       </c>
-      <c r="GI54" t="n">
+      <c r="GQ54" t="n">
         <v>761</v>
       </c>
-      <c r="GJ54" t="n">
+      <c r="GR54" t="n">
         <v>760</v>
       </c>
-      <c r="GK54" t="n">
+      <c r="GS54" t="n">
         <v>709</v>
       </c>
-      <c r="GL54" t="n">
+      <c r="GT54" t="n">
         <v>683</v>
       </c>
-      <c r="GM54" t="n">
+      <c r="GU54" t="n">
         <v>678</v>
       </c>
-      <c r="GN54" t="n">
+      <c r="GV54" t="n">
         <v>680</v>
       </c>
-      <c r="GO54" t="n">
+      <c r="GW54" t="n">
         <v>693</v>
       </c>
-      <c r="GP54" t="n">
+      <c r="GX54" t="n">
         <v>704</v>
       </c>
-      <c r="GQ54" t="n">
+      <c r="GY54" t="n">
         <v>766</v>
       </c>
-      <c r="GR54" t="n">
+      <c r="GZ54" t="n">
         <v>792</v>
       </c>
-      <c r="GS54" t="n">
+      <c r="HA54" t="n">
         <v>815</v>
       </c>
-      <c r="GT54" t="n">
+      <c r="HB54" t="n">
         <v>803</v>
       </c>
-      <c r="GU54" t="n">
+      <c r="HC54" t="n">
         <v>754</v>
       </c>
-      <c r="GV54" t="n">
+      <c r="HD54" t="n">
         <v>740</v>
       </c>
-      <c r="GW54" t="n">
+      <c r="HE54" t="n">
         <v>730</v>
       </c>
-      <c r="GX54" t="n">
+      <c r="HF54" t="n">
         <v>728</v>
       </c>
-      <c r="GY54" t="n">
+      <c r="HG54" t="n">
         <v>718</v>
       </c>
-      <c r="GZ54" t="n">
+      <c r="HH54" t="n">
         <v>713</v>
       </c>
-      <c r="HA54" t="n">
+      <c r="HI54" t="n">
         <v>705</v>
       </c>
-      <c r="HB54" t="n">
+      <c r="HJ54" t="n">
         <v>675</v>
       </c>
-      <c r="HC54" t="n">
+      <c r="HK54" t="n">
         <v>645</v>
       </c>
-      <c r="HD54" t="n">
+      <c r="HL54" t="n">
         <v>641</v>
       </c>
-      <c r="HE54" t="n">
+      <c r="HM54" t="n">
         <v>649</v>
       </c>
-      <c r="HF54" t="n">
+      <c r="HN54" t="n">
         <v>690</v>
       </c>
-      <c r="HG54" t="n">
+      <c r="HO54" t="n">
         <v>768</v>
       </c>
-      <c r="HH54" t="n">
+      <c r="HP54" t="n">
         <v>758</v>
       </c>
-      <c r="HI54" t="n">
+      <c r="HQ54" t="n">
         <v>753</v>
       </c>
-      <c r="HJ54" t="n">
+      <c r="HR54" t="n">
         <v>785</v>
       </c>
-      <c r="HK54" t="n">
+      <c r="HS54" t="n">
         <v>740</v>
       </c>
-      <c r="HL54" t="n">
+      <c r="HT54" t="n">
         <v>730</v>
       </c>
-      <c r="HM54" t="n">
+      <c r="HU54" t="n">
         <v>726</v>
       </c>
-      <c r="HN54" t="n">
+      <c r="HV54" t="n">
         <v>728</v>
       </c>
-      <c r="HO54" t="n">
+      <c r="HW54" t="n">
         <v>735</v>
       </c>
-      <c r="HP54" t="n">
+      <c r="HX54" t="n">
         <v>728</v>
       </c>
-      <c r="HQ54" t="n">
+      <c r="HY54" t="n">
         <v>701</v>
       </c>
-      <c r="HR54" t="n">
+      <c r="HZ54" t="n">
         <v>660</v>
       </c>
-      <c r="HS54" t="n">
+      <c r="IA54" t="n">
         <v>658</v>
       </c>
-      <c r="HT54" t="n">
+      <c r="IB54" t="n">
         <v>669</v>
       </c>
-      <c r="HU54" t="n">
+      <c r="IC54" t="n">
         <v>704</v>
       </c>
-      <c r="HV54" t="n">
+      <c r="ID54" t="n">
         <v>782</v>
       </c>
-      <c r="HW54" t="n">
+      <c r="IE54" t="n">
         <v>832</v>
       </c>
-      <c r="HX54" t="n">
+      <c r="IF54" t="n">
         <v>702</v>
       </c>
-      <c r="HY54" t="n">
+      <c r="IG54" t="n">
         <v>642</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="IH54" t="n">
         <v>634</v>
       </c>
-      <c r="IA54" t="n">
+      <c r="II54" t="n">
         <v>654</v>
       </c>
-      <c r="IB54" t="n">
+      <c r="IJ54" t="n">
         <v>735</v>
       </c>
-      <c r="IC54" t="n">
+      <c r="IK54" t="n">
         <v>821</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="IL54" t="n">
         <v>860</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IM54" t="n">
         <v>844</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IN54" t="n">
         <v>787</v>
       </c>
-      <c r="IG54" t="n">
+      <c r="IO54" t="n">
         <v>778</v>
       </c>
-      <c r="IH54" t="n">
+      <c r="IP54" t="n">
         <v>783</v>
       </c>
-      <c r="II54" t="n">
+      <c r="IQ54" t="n">
         <v>791</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IR54" t="n">
         <v>714</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IS54" t="n">
         <v>676</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IT54" t="n">
         <v>653</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IU54" t="n">
         <v>637</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IV54" t="n">
         <v>628</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IW54" t="n">
         <v>646</v>
-      </c>
-      <c r="IP54" t="n">
-        <v>646</v>
-      </c>
-      <c r="IQ54" t="n">
-        <v>663</v>
-      </c>
-      <c r="IR54" t="n">
-        <v>671</v>
-      </c>
-      <c r="IS54" t="n">
-        <v>624</v>
-      </c>
-      <c r="IT54" t="n">
-        <v>618</v>
-      </c>
-      <c r="IU54" t="n">
-        <v>610</v>
-      </c>
-      <c r="IV54" t="n">
-        <v>612</v>
-      </c>
-      <c r="IW54" t="n">
-        <v>627</v>
       </c>
     </row>
     <row r="55">
@@ -42950,772 +42950,772 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>982</v>
+      </c>
+      <c r="C56" t="n">
+        <v>881</v>
+      </c>
+      <c r="D56" t="n">
+        <v>883</v>
+      </c>
+      <c r="E56" t="n">
+        <v>842</v>
+      </c>
+      <c r="F56" t="n">
+        <v>813</v>
+      </c>
+      <c r="G56" t="n">
+        <v>805</v>
+      </c>
+      <c r="H56" t="n">
+        <v>823</v>
+      </c>
+      <c r="I56" t="n">
+        <v>904</v>
+      </c>
+      <c r="J56" t="n">
         <v>900</v>
       </c>
-      <c r="C56" t="n">
+      <c r="K56" t="n">
         <v>875</v>
       </c>
-      <c r="D56" t="n">
+      <c r="L56" t="n">
         <v>780</v>
       </c>
-      <c r="E56" t="n">
+      <c r="M56" t="n">
         <v>762</v>
       </c>
-      <c r="F56" t="n">
+      <c r="N56" t="n">
         <v>828</v>
       </c>
-      <c r="G56" t="n">
+      <c r="O56" t="n">
         <v>875</v>
       </c>
-      <c r="H56" t="n">
+      <c r="P56" t="n">
         <v>922</v>
       </c>
-      <c r="I56" t="n">
+      <c r="Q56" t="n">
         <v>993</v>
       </c>
-      <c r="J56" t="n">
+      <c r="R56" t="n">
         <v>912</v>
       </c>
-      <c r="K56" t="n">
+      <c r="S56" t="n">
         <v>886</v>
       </c>
-      <c r="L56" t="n">
+      <c r="T56" t="n">
         <v>967</v>
       </c>
-      <c r="M56" t="n">
+      <c r="U56" t="n">
         <v>978</v>
       </c>
-      <c r="N56" t="n">
+      <c r="V56" t="n">
         <v>958</v>
       </c>
-      <c r="O56" t="n">
+      <c r="W56" t="n">
         <v>858</v>
       </c>
-      <c r="P56" t="n">
+      <c r="X56" t="n">
         <v>795</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Y56" t="n">
         <v>833</v>
       </c>
-      <c r="R56" t="n">
+      <c r="Z56" t="n">
         <v>855</v>
       </c>
-      <c r="S56" t="n">
+      <c r="AA56" t="n">
         <v>913</v>
       </c>
-      <c r="T56" t="n">
+      <c r="AB56" t="n">
         <v>910</v>
       </c>
-      <c r="U56" t="n">
+      <c r="AC56" t="n">
         <v>794</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AD56" t="n">
         <v>754</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AE56" t="n">
         <v>741</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AF56" t="n">
         <v>748</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AG56" t="n">
         <v>735</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AH56" t="n">
         <v>717</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AI56" t="n">
         <v>718</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AJ56" t="n">
         <v>768</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AK56" t="n">
         <v>963</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AL56" t="n">
         <v>842</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AM56" t="n">
         <v>910</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AN56" t="n">
         <v>980</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AO56" t="n">
         <v>982</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AP56" t="n">
         <v>900</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AQ56" t="n">
         <v>833</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AR56" t="n">
         <v>906</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AS56" t="n">
         <v>948</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AT56" t="n">
         <v>954</v>
       </c>
-      <c r="AM56" t="n">
+      <c r="AU56" t="n">
         <v>919</v>
       </c>
-      <c r="AN56" t="n">
+      <c r="AV56" t="n">
         <v>926</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AW56" t="n">
         <v>888</v>
       </c>
-      <c r="AP56" t="n">
+      <c r="AX56" t="n">
         <v>846</v>
       </c>
-      <c r="AQ56" t="n">
+      <c r="AY56" t="n">
         <v>898</v>
       </c>
-      <c r="AR56" t="n">
+      <c r="AZ56" t="n">
         <v>962</v>
       </c>
-      <c r="AS56" t="n">
+      <c r="BA56" t="n">
         <v>1029</v>
       </c>
-      <c r="AT56" t="n">
+      <c r="BB56" t="n">
         <v>1004</v>
       </c>
-      <c r="AU56" t="n">
+      <c r="BC56" t="n">
         <v>912</v>
       </c>
-      <c r="AV56" t="n">
+      <c r="BD56" t="n">
         <v>928</v>
       </c>
-      <c r="AW56" t="n">
+      <c r="BE56" t="n">
         <v>924</v>
       </c>
-      <c r="AX56" t="n">
+      <c r="BF56" t="n">
         <v>923</v>
       </c>
-      <c r="AY56" t="n">
+      <c r="BG56" t="n">
         <v>892</v>
       </c>
-      <c r="AZ56" t="n">
+      <c r="BH56" t="n">
         <v>967</v>
       </c>
-      <c r="BA56" t="n">
+      <c r="BI56" t="n">
         <v>1000</v>
       </c>
-      <c r="BB56" t="n">
+      <c r="BJ56" t="n">
         <v>1016</v>
       </c>
-      <c r="BC56" t="n">
+      <c r="BK56" t="n">
         <v>1007</v>
       </c>
-      <c r="BD56" t="n">
+      <c r="BL56" t="n">
         <v>890</v>
       </c>
-      <c r="BE56" t="n">
+      <c r="BM56" t="n">
         <v>896</v>
       </c>
-      <c r="BF56" t="n">
+      <c r="BN56" t="n">
         <v>916</v>
       </c>
-      <c r="BG56" t="n">
+      <c r="BO56" t="n">
         <v>1040</v>
       </c>
-      <c r="BH56" t="n">
+      <c r="BP56" t="n">
         <v>973</v>
       </c>
-      <c r="BI56" t="n">
+      <c r="BQ56" t="n">
         <v>932</v>
       </c>
-      <c r="BJ56" t="n">
+      <c r="BR56" t="n">
         <v>990</v>
       </c>
-      <c r="BK56" t="n">
+      <c r="BS56" t="n">
         <v>1019</v>
       </c>
-      <c r="BL56" t="n">
+      <c r="BT56" t="n">
         <v>968</v>
       </c>
-      <c r="BM56" t="n">
+      <c r="BU56" t="n">
         <v>850</v>
       </c>
-      <c r="BN56" t="n">
+      <c r="BV56" t="n">
         <v>804</v>
       </c>
-      <c r="BO56" t="n">
+      <c r="BW56" t="n">
         <v>811</v>
       </c>
-      <c r="BP56" t="n">
+      <c r="BX56" t="n">
         <v>897</v>
       </c>
-      <c r="BQ56" t="n">
+      <c r="BY56" t="n">
         <v>901</v>
       </c>
-      <c r="BR56" t="n">
+      <c r="BZ56" t="n">
         <v>1054</v>
       </c>
-      <c r="BS56" t="n">
+      <c r="CA56" t="n">
         <v>1012</v>
       </c>
-      <c r="BT56" t="n">
+      <c r="CB56" t="n">
         <v>980</v>
       </c>
-      <c r="BU56" t="n">
+      <c r="CC56" t="n">
         <v>1031</v>
       </c>
-      <c r="BV56" t="n">
+      <c r="CD56" t="n">
         <v>1026</v>
       </c>
-      <c r="BW56" t="n">
+      <c r="CE56" t="n">
         <v>1016</v>
       </c>
-      <c r="BX56" t="n">
+      <c r="CF56" t="n">
         <v>966</v>
       </c>
-      <c r="BY56" t="n">
+      <c r="CG56" t="n">
         <v>880</v>
       </c>
-      <c r="BZ56" t="n">
+      <c r="CH56" t="n">
         <v>827</v>
       </c>
-      <c r="CA56" t="n">
+      <c r="CI56" t="n">
         <v>871</v>
       </c>
-      <c r="CB56" t="n">
+      <c r="CJ56" t="n">
         <v>843</v>
       </c>
-      <c r="CC56" t="n">
+      <c r="CK56" t="n">
         <v>820</v>
       </c>
-      <c r="CD56" t="n">
+      <c r="CL56" t="n">
         <v>783</v>
       </c>
-      <c r="CE56" t="n">
+      <c r="CM56" t="n">
         <v>793</v>
       </c>
-      <c r="CF56" t="n">
+      <c r="CN56" t="n">
         <v>791</v>
       </c>
-      <c r="CG56" t="n">
+      <c r="CO56" t="n">
         <v>762</v>
       </c>
-      <c r="CH56" t="n">
+      <c r="CP56" t="n">
         <v>766</v>
       </c>
-      <c r="CI56" t="n">
+      <c r="CQ56" t="n">
         <v>767</v>
       </c>
-      <c r="CJ56" t="n">
+      <c r="CR56" t="n">
         <v>778</v>
       </c>
-      <c r="CK56" t="n">
+      <c r="CS56" t="n">
         <v>754</v>
       </c>
-      <c r="CL56" t="n">
+      <c r="CT56" t="n">
         <v>737</v>
       </c>
-      <c r="CM56" t="n">
+      <c r="CU56" t="n">
         <v>733</v>
       </c>
-      <c r="CN56" t="n">
+      <c r="CV56" t="n">
         <v>749</v>
       </c>
-      <c r="CO56" t="n">
+      <c r="CW56" t="n">
         <v>756</v>
       </c>
-      <c r="CP56" t="n">
+      <c r="CX56" t="n">
         <v>790</v>
       </c>
-      <c r="CQ56" t="n">
+      <c r="CY56" t="n">
         <v>807</v>
       </c>
-      <c r="CR56" t="n">
+      <c r="CZ56" t="n">
         <v>789</v>
       </c>
-      <c r="CS56" t="n">
+      <c r="DA56" t="n">
         <v>764</v>
       </c>
-      <c r="CT56" t="n">
+      <c r="DB56" t="n">
         <v>751</v>
       </c>
-      <c r="CU56" t="n">
+      <c r="DC56" t="n">
         <v>730</v>
       </c>
-      <c r="CV56" t="n">
+      <c r="DD56" t="n">
         <v>753</v>
       </c>
-      <c r="CW56" t="n">
+      <c r="DE56" t="n">
         <v>793</v>
       </c>
-      <c r="CX56" t="n">
+      <c r="DF56" t="n">
         <v>871</v>
       </c>
-      <c r="CY56" t="n">
+      <c r="DG56" t="n">
         <v>916</v>
       </c>
-      <c r="CZ56" t="n">
+      <c r="DH56" t="n">
         <v>976</v>
       </c>
-      <c r="DA56" t="n">
+      <c r="DI56" t="n">
         <v>894</v>
       </c>
-      <c r="DB56" t="n">
+      <c r="DJ56" t="n">
         <v>939</v>
       </c>
-      <c r="DC56" t="n">
+      <c r="DK56" t="n">
         <v>908</v>
       </c>
-      <c r="DD56" t="n">
+      <c r="DL56" t="n">
         <v>880</v>
       </c>
-      <c r="DE56" t="n">
+      <c r="DM56" t="n">
         <v>844</v>
       </c>
-      <c r="DF56" t="n">
+      <c r="DN56" t="n">
         <v>919</v>
       </c>
-      <c r="DG56" t="n">
+      <c r="DO56" t="n">
         <v>931</v>
       </c>
-      <c r="DH56" t="n">
+      <c r="DP56" t="n">
         <v>951</v>
       </c>
-      <c r="DI56" t="n">
+      <c r="DQ56" t="n">
         <v>931</v>
       </c>
-      <c r="DJ56" t="n">
+      <c r="DR56" t="n">
         <v>894</v>
       </c>
-      <c r="DK56" t="n">
+      <c r="DS56" t="n">
         <v>838</v>
       </c>
-      <c r="DL56" t="n">
+      <c r="DT56" t="n">
         <v>805</v>
       </c>
-      <c r="DM56" t="n">
+      <c r="DU56" t="n">
         <v>797</v>
       </c>
-      <c r="DN56" t="n">
+      <c r="DV56" t="n">
         <v>926</v>
       </c>
-      <c r="DO56" t="n">
+      <c r="DW56" t="n">
         <v>991</v>
       </c>
-      <c r="DP56" t="n">
+      <c r="DX56" t="n">
         <v>1022</v>
       </c>
-      <c r="DQ56" t="n">
+      <c r="DY56" t="n">
         <v>986</v>
       </c>
-      <c r="DR56" t="n">
+      <c r="DZ56" t="n">
         <v>1042</v>
       </c>
-      <c r="DS56" t="n">
+      <c r="EA56" t="n">
         <v>988</v>
       </c>
-      <c r="DT56" t="n">
+      <c r="EB56" t="n">
         <v>1037</v>
       </c>
-      <c r="DU56" t="n">
+      <c r="EC56" t="n">
         <v>982</v>
       </c>
-      <c r="DV56" t="n">
+      <c r="ED56" t="n">
         <v>860</v>
       </c>
-      <c r="DW56" t="n">
+      <c r="EE56" t="n">
         <v>876</v>
       </c>
-      <c r="DX56" t="n">
+      <c r="EF56" t="n">
         <v>875</v>
       </c>
-      <c r="DY56" t="n">
+      <c r="EG56" t="n">
         <v>878</v>
       </c>
-      <c r="DZ56" t="n">
+      <c r="EH56" t="n">
         <v>808</v>
       </c>
-      <c r="EA56" t="n">
+      <c r="EI56" t="n">
         <v>789</v>
       </c>
-      <c r="EB56" t="n">
+      <c r="EJ56" t="n">
         <v>856</v>
       </c>
-      <c r="EC56" t="n">
+      <c r="EK56" t="n">
         <v>818</v>
       </c>
-      <c r="ED56" t="n">
+      <c r="EL56" t="n">
         <v>805</v>
       </c>
-      <c r="EE56" t="n">
+      <c r="EM56" t="n">
         <v>771</v>
       </c>
-      <c r="EF56" t="n">
+      <c r="EN56" t="n">
         <v>750</v>
       </c>
-      <c r="EG56" t="n">
+      <c r="EO56" t="n">
         <v>773</v>
       </c>
-      <c r="EH56" t="n">
+      <c r="EP56" t="n">
         <v>802</v>
       </c>
-      <c r="EI56" t="n">
+      <c r="EQ56" t="n">
         <v>851</v>
       </c>
-      <c r="EJ56" t="n">
+      <c r="ER56" t="n">
         <v>853</v>
       </c>
-      <c r="EK56" t="n">
+      <c r="ES56" t="n">
         <v>881</v>
       </c>
-      <c r="EL56" t="n">
+      <c r="ET56" t="n">
         <v>858</v>
       </c>
-      <c r="EM56" t="n">
+      <c r="EU56" t="n">
         <v>860</v>
       </c>
-      <c r="EN56" t="n">
+      <c r="EV56" t="n">
         <v>835</v>
       </c>
-      <c r="EO56" t="n">
+      <c r="EW56" t="n">
         <v>876</v>
       </c>
-      <c r="EP56" t="n">
+      <c r="EX56" t="n">
         <v>903</v>
       </c>
-      <c r="EQ56" t="n">
+      <c r="EY56" t="n">
         <v>929</v>
       </c>
-      <c r="ER56" t="n">
+      <c r="EZ56" t="n">
         <v>891</v>
       </c>
-      <c r="ES56" t="n">
+      <c r="FA56" t="n">
         <v>850</v>
       </c>
-      <c r="ET56" t="n">
+      <c r="FB56" t="n">
         <v>868</v>
       </c>
-      <c r="EU56" t="n">
+      <c r="FC56" t="n">
         <v>869</v>
       </c>
-      <c r="EV56" t="n">
+      <c r="FD56" t="n">
         <v>874</v>
       </c>
-      <c r="EW56" t="n">
+      <c r="FE56" t="n">
         <v>836</v>
       </c>
-      <c r="EX56" t="n">
+      <c r="FF56" t="n">
         <v>792</v>
       </c>
-      <c r="EY56" t="n">
+      <c r="FG56" t="n">
         <v>798</v>
       </c>
-      <c r="EZ56" t="n">
+      <c r="FH56" t="n">
         <v>813</v>
       </c>
-      <c r="FA56" t="n">
+      <c r="FI56" t="n">
         <v>820</v>
       </c>
-      <c r="FB56" t="n">
+      <c r="FJ56" t="n">
         <v>843</v>
       </c>
-      <c r="FC56" t="n">
+      <c r="FK56" t="n">
         <v>878</v>
       </c>
-      <c r="FD56" t="n">
+      <c r="FL56" t="n">
         <v>852</v>
       </c>
-      <c r="FE56" t="n">
+      <c r="FM56" t="n">
         <v>840</v>
       </c>
-      <c r="FF56" t="n">
+      <c r="FN56" t="n">
         <v>776</v>
       </c>
-      <c r="FG56" t="n">
+      <c r="FO56" t="n">
         <v>796</v>
       </c>
-      <c r="FH56" t="n">
+      <c r="FP56" t="n">
         <v>948</v>
       </c>
-      <c r="FI56" t="n">
+      <c r="FQ56" t="n">
         <v>983</v>
       </c>
-      <c r="FJ56" t="n">
+      <c r="FR56" t="n">
         <v>953</v>
       </c>
-      <c r="FK56" t="n">
+      <c r="FS56" t="n">
         <v>891</v>
       </c>
-      <c r="FL56" t="n">
+      <c r="FT56" t="n">
         <v>859</v>
       </c>
-      <c r="FM56" t="n">
+      <c r="FU56" t="n">
         <v>811</v>
       </c>
-      <c r="FN56" t="n">
+      <c r="FV56" t="n">
         <v>847</v>
       </c>
-      <c r="FO56" t="n">
+      <c r="FW56" t="n">
         <v>875</v>
       </c>
-      <c r="FP56" t="n">
+      <c r="FX56" t="n">
         <v>856</v>
       </c>
-      <c r="FQ56" t="n">
+      <c r="FY56" t="n">
         <v>898</v>
       </c>
-      <c r="FR56" t="n">
+      <c r="FZ56" t="n">
         <v>868</v>
       </c>
-      <c r="FS56" t="n">
+      <c r="GA56" t="n">
         <v>886</v>
       </c>
-      <c r="FT56" t="n">
+      <c r="GB56" t="n">
         <v>820</v>
       </c>
-      <c r="FU56" t="n">
+      <c r="GC56" t="n">
         <v>786</v>
       </c>
-      <c r="FV56" t="n">
+      <c r="GD56" t="n">
         <v>759</v>
       </c>
-      <c r="FW56" t="n">
+      <c r="GE56" t="n">
         <v>764</v>
       </c>
-      <c r="FX56" t="n">
+      <c r="GF56" t="n">
         <v>837</v>
       </c>
-      <c r="FY56" t="n">
+      <c r="GG56" t="n">
         <v>915</v>
       </c>
-      <c r="FZ56" t="n">
+      <c r="GH56" t="n">
         <v>840</v>
       </c>
-      <c r="GA56" t="n">
+      <c r="GI56" t="n">
         <v>834</v>
       </c>
-      <c r="GB56" t="n">
+      <c r="GJ56" t="n">
         <v>901</v>
       </c>
-      <c r="GC56" t="n">
+      <c r="GK56" t="n">
         <v>923</v>
       </c>
-      <c r="GD56" t="n">
+      <c r="GL56" t="n">
         <v>937</v>
       </c>
-      <c r="GE56" t="n">
+      <c r="GM56" t="n">
         <v>921</v>
       </c>
-      <c r="GF56" t="n">
+      <c r="GN56" t="n">
         <v>879</v>
       </c>
-      <c r="GG56" t="n">
+      <c r="GO56" t="n">
         <v>836</v>
       </c>
-      <c r="GH56" t="n">
+      <c r="GP56" t="n">
         <v>853</v>
       </c>
-      <c r="GI56" t="n">
+      <c r="GQ56" t="n">
         <v>915</v>
       </c>
-      <c r="GJ56" t="n">
+      <c r="GR56" t="n">
         <v>971</v>
       </c>
-      <c r="GK56" t="n">
+      <c r="GS56" t="n">
         <v>937</v>
       </c>
-      <c r="GL56" t="n">
+      <c r="GT56" t="n">
         <v>905</v>
       </c>
-      <c r="GM56" t="n">
+      <c r="GU56" t="n">
         <v>917</v>
       </c>
-      <c r="GN56" t="n">
+      <c r="GV56" t="n">
         <v>912</v>
       </c>
-      <c r="GO56" t="n">
+      <c r="GW56" t="n">
         <v>899</v>
       </c>
-      <c r="GP56" t="n">
+      <c r="GX56" t="n">
         <v>845</v>
       </c>
-      <c r="GQ56" t="n">
+      <c r="GY56" t="n">
         <v>800</v>
       </c>
-      <c r="GR56" t="n">
+      <c r="GZ56" t="n">
         <v>806</v>
       </c>
-      <c r="GS56" t="n">
+      <c r="HA56" t="n">
         <v>829</v>
       </c>
-      <c r="GT56" t="n">
+      <c r="HB56" t="n">
         <v>835</v>
       </c>
-      <c r="GU56" t="n">
+      <c r="HC56" t="n">
         <v>870</v>
       </c>
-      <c r="GV56" t="n">
+      <c r="HD56" t="n">
         <v>885</v>
       </c>
-      <c r="GW56" t="n">
+      <c r="HE56" t="n">
         <v>871</v>
       </c>
-      <c r="GX56" t="n">
+      <c r="HF56" t="n">
         <v>800</v>
       </c>
-      <c r="GY56" t="n">
+      <c r="HG56" t="n">
         <v>777</v>
       </c>
-      <c r="GZ56" t="n">
+      <c r="HH56" t="n">
         <v>831</v>
       </c>
-      <c r="HA56" t="n">
+      <c r="HI56" t="n">
         <v>970</v>
       </c>
-      <c r="HB56" t="n">
+      <c r="HJ56" t="n">
         <v>926</v>
       </c>
-      <c r="HC56" t="n">
+      <c r="HK56" t="n">
         <v>928</v>
       </c>
-      <c r="HD56" t="n">
+      <c r="HL56" t="n">
         <v>993</v>
       </c>
-      <c r="HE56" t="n">
+      <c r="HM56" t="n">
         <v>934</v>
       </c>
-      <c r="HF56" t="n">
+      <c r="HN56" t="n">
         <v>922</v>
       </c>
-      <c r="HG56" t="n">
+      <c r="HO56" t="n">
         <v>931</v>
       </c>
-      <c r="HH56" t="n">
+      <c r="HP56" t="n">
         <v>842</v>
       </c>
-      <c r="HI56" t="n">
+      <c r="HQ56" t="n">
         <v>792</v>
       </c>
-      <c r="HJ56" t="n">
+      <c r="HR56" t="n">
         <v>743</v>
       </c>
-      <c r="HK56" t="n">
+      <c r="HS56" t="n">
         <v>730</v>
       </c>
-      <c r="HL56" t="n">
+      <c r="HT56" t="n">
         <v>757</v>
       </c>
-      <c r="HM56" t="n">
+      <c r="HU56" t="n">
         <v>803</v>
       </c>
-      <c r="HN56" t="n">
+      <c r="HV56" t="n">
         <v>822</v>
       </c>
-      <c r="HO56" t="n">
+      <c r="HW56" t="n">
         <v>810</v>
       </c>
-      <c r="HP56" t="n">
+      <c r="HX56" t="n">
         <v>834</v>
       </c>
-      <c r="HQ56" t="n">
+      <c r="HY56" t="n">
         <v>805</v>
       </c>
-      <c r="HR56" t="n">
+      <c r="HZ56" t="n">
         <v>867</v>
       </c>
-      <c r="HS56" t="n">
+      <c r="IA56" t="n">
         <v>1003</v>
       </c>
-      <c r="HT56" t="n">
+      <c r="IB56" t="n">
         <v>909</v>
       </c>
-      <c r="HU56" t="n">
+      <c r="IC56" t="n">
         <v>1067</v>
       </c>
-      <c r="HV56" t="n">
+      <c r="ID56" t="n">
         <v>926</v>
       </c>
-      <c r="HW56" t="n">
+      <c r="IE56" t="n">
         <v>1019</v>
       </c>
-      <c r="HX56" t="n">
+      <c r="IF56" t="n">
         <v>943</v>
       </c>
-      <c r="HY56" t="n">
+      <c r="IG56" t="n">
         <v>875</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="IH56" t="n">
         <v>840</v>
       </c>
-      <c r="IA56" t="n">
+      <c r="II56" t="n">
         <v>798</v>
       </c>
-      <c r="IB56" t="n">
+      <c r="IJ56" t="n">
         <v>803</v>
       </c>
-      <c r="IC56" t="n">
+      <c r="IK56" t="n">
         <v>797</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="IL56" t="n">
         <v>812</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IM56" t="n">
         <v>846</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IN56" t="n">
         <v>897</v>
       </c>
-      <c r="IG56" t="n">
+      <c r="IO56" t="n">
         <v>877</v>
       </c>
-      <c r="IH56" t="n">
+      <c r="IP56" t="n">
         <v>898</v>
       </c>
-      <c r="II56" t="n">
+      <c r="IQ56" t="n">
         <v>922</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IR56" t="n">
         <v>929</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IS56" t="n">
         <v>941</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IT56" t="n">
         <v>821</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IU56" t="n">
         <v>783</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IV56" t="n">
         <v>865</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IW56" t="n">
         <v>879</v>
-      </c>
-      <c r="IP56" t="n">
-        <v>951</v>
-      </c>
-      <c r="IQ56" t="n">
-        <v>921</v>
-      </c>
-      <c r="IR56" t="n">
-        <v>846</v>
-      </c>
-      <c r="IS56" t="n">
-        <v>833</v>
-      </c>
-      <c r="IT56" t="n">
-        <v>781</v>
-      </c>
-      <c r="IU56" t="n">
-        <v>804</v>
-      </c>
-      <c r="IV56" t="n">
-        <v>821</v>
-      </c>
-      <c r="IW56" t="n">
-        <v>762</v>
       </c>
     </row>
     <row r="57">
@@ -43723,772 +43723,772 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>951</v>
+      </c>
+      <c r="C57" t="n">
+        <v>921</v>
+      </c>
+      <c r="D57" t="n">
+        <v>846</v>
+      </c>
+      <c r="E57" t="n">
+        <v>833</v>
+      </c>
+      <c r="F57" t="n">
+        <v>781</v>
+      </c>
+      <c r="G57" t="n">
+        <v>804</v>
+      </c>
+      <c r="H57" t="n">
+        <v>821</v>
+      </c>
+      <c r="I57" t="n">
+        <v>762</v>
+      </c>
+      <c r="J57" t="n">
+        <v>758</v>
+      </c>
+      <c r="K57" t="n">
+        <v>787</v>
+      </c>
+      <c r="L57" t="n">
+        <v>860</v>
+      </c>
+      <c r="M57" t="n">
+        <v>949</v>
+      </c>
+      <c r="N57" t="n">
+        <v>957</v>
+      </c>
+      <c r="O57" t="n">
+        <v>994</v>
+      </c>
+      <c r="P57" t="n">
+        <v>995</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>881</v>
+      </c>
+      <c r="R57" t="n">
         <v>803</v>
       </c>
-      <c r="C57" t="n">
+      <c r="S57" t="n">
         <v>757</v>
       </c>
-      <c r="D57" t="n">
+      <c r="T57" t="n">
         <v>760</v>
       </c>
-      <c r="E57" t="n">
+      <c r="U57" t="n">
         <v>875</v>
       </c>
-      <c r="F57" t="n">
+      <c r="V57" t="n">
         <v>974</v>
       </c>
-      <c r="G57" t="n">
+      <c r="W57" t="n">
         <v>996</v>
       </c>
-      <c r="H57" t="n">
+      <c r="X57" t="n">
         <v>955</v>
       </c>
-      <c r="I57" t="n">
+      <c r="Y57" t="n">
         <v>878</v>
       </c>
-      <c r="J57" t="n">
+      <c r="Z57" t="n">
         <v>817</v>
       </c>
-      <c r="K57" t="n">
+      <c r="AA57" t="n">
         <v>750</v>
       </c>
-      <c r="L57" t="n">
+      <c r="AB57" t="n">
         <v>763</v>
       </c>
-      <c r="M57" t="n">
+      <c r="AC57" t="n">
         <v>770</v>
       </c>
-      <c r="N57" t="n">
+      <c r="AD57" t="n">
         <v>899</v>
       </c>
-      <c r="O57" t="n">
+      <c r="AE57" t="n">
         <v>911</v>
       </c>
-      <c r="P57" t="n">
+      <c r="AF57" t="n">
         <v>962</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="AG57" t="n">
         <v>922</v>
       </c>
-      <c r="R57" t="n">
+      <c r="AH57" t="n">
         <v>844</v>
       </c>
-      <c r="S57" t="n">
+      <c r="AI57" t="n">
         <v>849</v>
       </c>
-      <c r="T57" t="n">
+      <c r="AJ57" t="n">
         <v>847</v>
       </c>
-      <c r="U57" t="n">
+      <c r="AK57" t="n">
         <v>877</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AL57" t="n">
         <v>852</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AM57" t="n">
         <v>848</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AN57" t="n">
         <v>851</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AO57" t="n">
         <v>830</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AP57" t="n">
         <v>791</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AQ57" t="n">
         <v>800</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AR57" t="n">
         <v>836</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AS57" t="n">
         <v>862</v>
       </c>
-      <c r="AD57" t="n">
+      <c r="AT57" t="n">
         <v>820</v>
       </c>
-      <c r="AE57" t="n">
+      <c r="AU57" t="n">
         <v>820</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AV57" t="n">
         <v>872</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AW57" t="n">
         <v>920</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AX57" t="n">
         <v>879</v>
       </c>
-      <c r="AI57" t="n">
+      <c r="AY57" t="n">
         <v>855</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AZ57" t="n">
         <v>845</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="BA57" t="n">
         <v>909</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="BB57" t="n">
         <v>916</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="BC57" t="n">
         <v>927</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="BD57" t="n">
         <v>957</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="BE57" t="n">
         <v>939</v>
       </c>
-      <c r="AP57" t="n">
+      <c r="BF57" t="n">
         <v>915</v>
       </c>
-      <c r="AQ57" t="n">
+      <c r="BG57" t="n">
         <v>845</v>
       </c>
-      <c r="AR57" t="n">
+      <c r="BH57" t="n">
         <v>832</v>
       </c>
-      <c r="AS57" t="n">
+      <c r="BI57" t="n">
         <v>844</v>
       </c>
-      <c r="AT57" t="n">
+      <c r="BJ57" t="n">
         <v>836</v>
       </c>
-      <c r="AU57" t="n">
+      <c r="BK57" t="n">
         <v>831</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>848</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>881</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>875</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>884</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>891</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>937</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>938</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>891</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>818</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>816</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>848</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>883</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>910</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>908</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>944</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>890</v>
       </c>
       <c r="BL57" t="n">
         <v>848</v>
       </c>
       <c r="BM57" t="n">
+        <v>881</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>875</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>884</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>891</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>937</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>938</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>891</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>818</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>816</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>848</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>883</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>910</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>908</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>944</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>890</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>848</v>
+      </c>
+      <c r="CC57" t="n">
         <v>838</v>
       </c>
-      <c r="BN57" t="n">
+      <c r="CD57" t="n">
         <v>849</v>
       </c>
-      <c r="BO57" t="n">
+      <c r="CE57" t="n">
         <v>821</v>
       </c>
-      <c r="BP57" t="n">
+      <c r="CF57" t="n">
         <v>851</v>
       </c>
-      <c r="BQ57" t="n">
+      <c r="CG57" t="n">
         <v>874</v>
       </c>
-      <c r="BR57" t="n">
+      <c r="CH57" t="n">
         <v>889</v>
       </c>
-      <c r="BS57" t="n">
+      <c r="CI57" t="n">
         <v>905</v>
       </c>
-      <c r="BT57" t="n">
+      <c r="CJ57" t="n">
         <v>906</v>
       </c>
-      <c r="BU57" t="n">
+      <c r="CK57" t="n">
         <v>863</v>
       </c>
-      <c r="BV57" t="n">
+      <c r="CL57" t="n">
         <v>837</v>
       </c>
-      <c r="BW57" t="n">
+      <c r="CM57" t="n">
         <v>873</v>
       </c>
-      <c r="BX57" t="n">
+      <c r="CN57" t="n">
         <v>926</v>
       </c>
-      <c r="BY57" t="n">
+      <c r="CO57" t="n">
         <v>948</v>
       </c>
-      <c r="BZ57" t="n">
+      <c r="CP57" t="n">
         <v>1007</v>
       </c>
-      <c r="CA57" t="n">
+      <c r="CQ57" t="n">
         <v>1051</v>
       </c>
-      <c r="CB57" t="n">
+      <c r="CR57" t="n">
         <v>1046</v>
       </c>
-      <c r="CC57" t="n">
+      <c r="CS57" t="n">
         <v>1008</v>
       </c>
-      <c r="CD57" t="n">
+      <c r="CT57" t="n">
         <v>969</v>
       </c>
-      <c r="CE57" t="n">
+      <c r="CU57" t="n">
         <v>936</v>
       </c>
-      <c r="CF57" t="n">
+      <c r="CV57" t="n">
         <v>938</v>
       </c>
-      <c r="CG57" t="n">
+      <c r="CW57" t="n">
         <v>952</v>
       </c>
-      <c r="CH57" t="n">
+      <c r="CX57" t="n">
         <v>953</v>
       </c>
-      <c r="CI57" t="n">
+      <c r="CY57" t="n">
         <v>882</v>
       </c>
-      <c r="CJ57" t="n">
+      <c r="CZ57" t="n">
         <v>852</v>
       </c>
-      <c r="CK57" t="n">
+      <c r="DA57" t="n">
         <v>831</v>
       </c>
-      <c r="CL57" t="n">
+      <c r="DB57" t="n">
         <v>824</v>
       </c>
-      <c r="CM57" t="n">
+      <c r="DC57" t="n">
         <v>850</v>
       </c>
-      <c r="CN57" t="n">
+      <c r="DD57" t="n">
         <v>892</v>
       </c>
-      <c r="CO57" t="n">
+      <c r="DE57" t="n">
         <v>875</v>
       </c>
-      <c r="CP57" t="n">
+      <c r="DF57" t="n">
         <v>834</v>
       </c>
-      <c r="CQ57" t="n">
+      <c r="DG57" t="n">
         <v>800</v>
       </c>
-      <c r="CR57" t="n">
+      <c r="DH57" t="n">
         <v>751</v>
       </c>
-      <c r="CS57" t="n">
+      <c r="DI57" t="n">
         <v>768</v>
       </c>
-      <c r="CT57" t="n">
+      <c r="DJ57" t="n">
         <v>808</v>
       </c>
-      <c r="CU57" t="n">
+      <c r="DK57" t="n">
         <v>903</v>
       </c>
-      <c r="CV57" t="n">
+      <c r="DL57" t="n">
         <v>922</v>
       </c>
-      <c r="CW57" t="n">
+      <c r="DM57" t="n">
         <v>1008</v>
       </c>
-      <c r="CX57" t="n">
+      <c r="DN57" t="n">
         <v>966</v>
       </c>
-      <c r="CY57" t="n">
+      <c r="DO57" t="n">
         <v>940</v>
       </c>
-      <c r="CZ57" t="n">
+      <c r="DP57" t="n">
         <v>916</v>
       </c>
-      <c r="DA57" t="n">
+      <c r="DQ57" t="n">
         <v>899</v>
       </c>
-      <c r="DB57" t="n">
+      <c r="DR57" t="n">
         <v>866</v>
       </c>
-      <c r="DC57" t="n">
+      <c r="DS57" t="n">
         <v>787</v>
       </c>
-      <c r="DD57" t="n">
+      <c r="DT57" t="n">
         <v>736</v>
       </c>
-      <c r="DE57" t="n">
+      <c r="DU57" t="n">
         <v>768</v>
       </c>
-      <c r="DF57" t="n">
+      <c r="DV57" t="n">
         <v>772</v>
-      </c>
-      <c r="DG57" t="n">
-        <v>844</v>
-      </c>
-      <c r="DH57" t="n">
-        <v>872</v>
-      </c>
-      <c r="DI57" t="n">
-        <v>851</v>
-      </c>
-      <c r="DJ57" t="n">
-        <v>835</v>
-      </c>
-      <c r="DK57" t="n">
-        <v>836</v>
-      </c>
-      <c r="DL57" t="n">
-        <v>883</v>
-      </c>
-      <c r="DM57" t="n">
-        <v>959</v>
-      </c>
-      <c r="DN57" t="n">
-        <v>955</v>
-      </c>
-      <c r="DO57" t="n">
-        <v>879</v>
-      </c>
-      <c r="DP57" t="n">
-        <v>862</v>
-      </c>
-      <c r="DQ57" t="n">
-        <v>896</v>
-      </c>
-      <c r="DR57" t="n">
-        <v>883</v>
-      </c>
-      <c r="DS57" t="n">
-        <v>856</v>
-      </c>
-      <c r="DT57" t="n">
-        <v>873</v>
-      </c>
-      <c r="DU57" t="n">
-        <v>880</v>
-      </c>
-      <c r="DV57" t="n">
-        <v>895</v>
       </c>
       <c r="DW57" t="n">
         <v>844</v>
       </c>
       <c r="DX57" t="n">
+        <v>872</v>
+      </c>
+      <c r="DY57" t="n">
+        <v>851</v>
+      </c>
+      <c r="DZ57" t="n">
+        <v>835</v>
+      </c>
+      <c r="EA57" t="n">
+        <v>836</v>
+      </c>
+      <c r="EB57" t="n">
+        <v>883</v>
+      </c>
+      <c r="EC57" t="n">
+        <v>959</v>
+      </c>
+      <c r="ED57" t="n">
+        <v>955</v>
+      </c>
+      <c r="EE57" t="n">
+        <v>879</v>
+      </c>
+      <c r="EF57" t="n">
+        <v>862</v>
+      </c>
+      <c r="EG57" t="n">
+        <v>896</v>
+      </c>
+      <c r="EH57" t="n">
+        <v>883</v>
+      </c>
+      <c r="EI57" t="n">
+        <v>856</v>
+      </c>
+      <c r="EJ57" t="n">
+        <v>873</v>
+      </c>
+      <c r="EK57" t="n">
+        <v>880</v>
+      </c>
+      <c r="EL57" t="n">
+        <v>895</v>
+      </c>
+      <c r="EM57" t="n">
+        <v>844</v>
+      </c>
+      <c r="EN57" t="n">
         <v>857</v>
       </c>
-      <c r="DY57" t="n">
+      <c r="EO57" t="n">
         <v>853</v>
       </c>
-      <c r="DZ57" t="n">
+      <c r="EP57" t="n">
         <v>896</v>
       </c>
-      <c r="EA57" t="n">
+      <c r="EQ57" t="n">
         <v>875</v>
       </c>
-      <c r="EB57" t="n">
+      <c r="ER57" t="n">
         <v>814</v>
       </c>
-      <c r="EC57" t="n">
+      <c r="ES57" t="n">
         <v>882</v>
       </c>
-      <c r="ED57" t="n">
+      <c r="ET57" t="n">
         <v>903</v>
       </c>
-      <c r="EE57" t="n">
+      <c r="EU57" t="n">
         <v>945</v>
       </c>
-      <c r="EF57" t="n">
+      <c r="EV57" t="n">
         <v>845</v>
       </c>
-      <c r="EG57" t="n">
+      <c r="EW57" t="n">
         <v>829</v>
       </c>
-      <c r="EH57" t="n">
+      <c r="EX57" t="n">
         <v>878</v>
       </c>
-      <c r="EI57" t="n">
+      <c r="EY57" t="n">
         <v>988</v>
       </c>
-      <c r="EJ57" t="n">
+      <c r="EZ57" t="n">
         <v>996</v>
       </c>
-      <c r="EK57" t="n">
+      <c r="FA57" t="n">
         <v>956</v>
       </c>
-      <c r="EL57" t="n">
+      <c r="FB57" t="n">
         <v>841</v>
       </c>
-      <c r="EM57" t="n">
+      <c r="FC57" t="n">
         <v>795</v>
       </c>
-      <c r="EN57" t="n">
+      <c r="FD57" t="n">
         <v>810</v>
       </c>
-      <c r="EO57" t="n">
+      <c r="FE57" t="n">
         <v>830</v>
       </c>
-      <c r="EP57" t="n">
+      <c r="FF57" t="n">
         <v>834</v>
       </c>
-      <c r="EQ57" t="n">
+      <c r="FG57" t="n">
         <v>836</v>
       </c>
-      <c r="ER57" t="n">
+      <c r="FH57" t="n">
         <v>822</v>
       </c>
-      <c r="ES57" t="n">
+      <c r="FI57" t="n">
         <v>800</v>
       </c>
-      <c r="ET57" t="n">
+      <c r="FJ57" t="n">
         <v>869</v>
       </c>
-      <c r="EU57" t="n">
+      <c r="FK57" t="n">
         <v>854</v>
       </c>
-      <c r="EV57" t="n">
+      <c r="FL57" t="n">
         <v>795</v>
       </c>
-      <c r="EW57" t="n">
+      <c r="FM57" t="n">
         <v>761</v>
       </c>
-      <c r="EX57" t="n">
+      <c r="FN57" t="n">
         <v>794</v>
       </c>
-      <c r="EY57" t="n">
+      <c r="FO57" t="n">
         <v>855</v>
       </c>
-      <c r="EZ57" t="n">
+      <c r="FP57" t="n">
         <v>869</v>
       </c>
-      <c r="FA57" t="n">
+      <c r="FQ57" t="n">
         <v>906</v>
       </c>
-      <c r="FB57" t="n">
+      <c r="FR57" t="n">
         <v>838</v>
       </c>
-      <c r="FC57" t="n">
+      <c r="FS57" t="n">
         <v>873</v>
       </c>
-      <c r="FD57" t="n">
+      <c r="FT57" t="n">
         <v>880</v>
       </c>
-      <c r="FE57" t="n">
+      <c r="FU57" t="n">
         <v>882</v>
       </c>
-      <c r="FF57" t="n">
+      <c r="FV57" t="n">
         <v>840</v>
       </c>
-      <c r="FG57" t="n">
+      <c r="FW57" t="n">
         <v>791</v>
       </c>
-      <c r="FH57" t="n">
+      <c r="FX57" t="n">
         <v>765</v>
       </c>
-      <c r="FI57" t="n">
+      <c r="FY57" t="n">
         <v>765</v>
       </c>
-      <c r="FJ57" t="n">
+      <c r="FZ57" t="n">
         <v>744</v>
       </c>
-      <c r="FK57" t="n">
+      <c r="GA57" t="n">
         <v>763</v>
       </c>
-      <c r="FL57" t="n">
+      <c r="GB57" t="n">
         <v>799</v>
       </c>
-      <c r="FM57" t="n">
+      <c r="GC57" t="n">
         <v>850</v>
       </c>
-      <c r="FN57" t="n">
+      <c r="GD57" t="n">
         <v>915</v>
       </c>
-      <c r="FO57" t="n">
+      <c r="GE57" t="n">
         <v>944</v>
       </c>
-      <c r="FP57" t="n">
+      <c r="GF57" t="n">
         <v>984</v>
       </c>
-      <c r="FQ57" t="n">
+      <c r="GG57" t="n">
         <v>976</v>
       </c>
-      <c r="FR57" t="n">
+      <c r="GH57" t="n">
         <v>945</v>
       </c>
-      <c r="FS57" t="n">
+      <c r="GI57" t="n">
         <v>938</v>
       </c>
-      <c r="FT57" t="n">
+      <c r="GJ57" t="n">
         <v>872</v>
       </c>
-      <c r="FU57" t="n">
+      <c r="GK57" t="n">
         <v>795</v>
       </c>
-      <c r="FV57" t="n">
+      <c r="GL57" t="n">
         <v>811</v>
       </c>
-      <c r="FW57" t="n">
+      <c r="GM57" t="n">
         <v>860</v>
       </c>
-      <c r="FX57" t="n">
+      <c r="GN57" t="n">
         <v>916</v>
       </c>
-      <c r="FY57" t="n">
+      <c r="GO57" t="n">
         <v>929</v>
       </c>
-      <c r="FZ57" t="n">
+      <c r="GP57" t="n">
         <v>916</v>
       </c>
-      <c r="GA57" t="n">
+      <c r="GQ57" t="n">
         <v>911</v>
-      </c>
-      <c r="GB57" t="n">
-        <v>852</v>
-      </c>
-      <c r="GC57" t="n">
-        <v>859</v>
-      </c>
-      <c r="GD57" t="n">
-        <v>821</v>
-      </c>
-      <c r="GE57" t="n">
-        <v>779</v>
-      </c>
-      <c r="GF57" t="n">
-        <v>811</v>
-      </c>
-      <c r="GG57" t="n">
-        <v>846</v>
-      </c>
-      <c r="GH57" t="n">
-        <v>837</v>
-      </c>
-      <c r="GI57" t="n">
-        <v>785</v>
-      </c>
-      <c r="GJ57" t="n">
-        <v>809</v>
-      </c>
-      <c r="GK57" t="n">
-        <v>837</v>
-      </c>
-      <c r="GL57" t="n">
-        <v>890</v>
-      </c>
-      <c r="GM57" t="n">
-        <v>903</v>
-      </c>
-      <c r="GN57" t="n">
-        <v>841</v>
-      </c>
-      <c r="GO57" t="n">
-        <v>774</v>
-      </c>
-      <c r="GP57" t="n">
-        <v>767</v>
-      </c>
-      <c r="GQ57" t="n">
-        <v>869</v>
       </c>
       <c r="GR57" t="n">
         <v>852</v>
       </c>
       <c r="GS57" t="n">
+        <v>859</v>
+      </c>
+      <c r="GT57" t="n">
+        <v>821</v>
+      </c>
+      <c r="GU57" t="n">
+        <v>779</v>
+      </c>
+      <c r="GV57" t="n">
+        <v>811</v>
+      </c>
+      <c r="GW57" t="n">
+        <v>846</v>
+      </c>
+      <c r="GX57" t="n">
+        <v>837</v>
+      </c>
+      <c r="GY57" t="n">
+        <v>785</v>
+      </c>
+      <c r="GZ57" t="n">
+        <v>809</v>
+      </c>
+      <c r="HA57" t="n">
+        <v>837</v>
+      </c>
+      <c r="HB57" t="n">
+        <v>890</v>
+      </c>
+      <c r="HC57" t="n">
+        <v>903</v>
+      </c>
+      <c r="HD57" t="n">
+        <v>841</v>
+      </c>
+      <c r="HE57" t="n">
+        <v>774</v>
+      </c>
+      <c r="HF57" t="n">
+        <v>767</v>
+      </c>
+      <c r="HG57" t="n">
+        <v>869</v>
+      </c>
+      <c r="HH57" t="n">
+        <v>852</v>
+      </c>
+      <c r="HI57" t="n">
         <v>917</v>
       </c>
-      <c r="GT57" t="n">
+      <c r="HJ57" t="n">
         <v>847</v>
       </c>
-      <c r="GU57" t="n">
+      <c r="HK57" t="n">
         <v>780</v>
       </c>
-      <c r="GV57" t="n">
+      <c r="HL57" t="n">
         <v>754</v>
       </c>
-      <c r="GW57" t="n">
+      <c r="HM57" t="n">
         <v>744</v>
       </c>
-      <c r="GX57" t="n">
+      <c r="HN57" t="n">
         <v>748</v>
       </c>
-      <c r="GY57" t="n">
+      <c r="HO57" t="n">
         <v>746</v>
       </c>
-      <c r="GZ57" t="n">
+      <c r="HP57" t="n">
         <v>715</v>
       </c>
-      <c r="HA57" t="n">
+      <c r="HQ57" t="n">
         <v>706</v>
       </c>
-      <c r="HB57" t="n">
+      <c r="HR57" t="n">
         <v>693</v>
       </c>
-      <c r="HC57" t="n">
+      <c r="HS57" t="n">
         <v>712</v>
       </c>
-      <c r="HD57" t="n">
+      <c r="HT57" t="n">
         <v>733</v>
       </c>
-      <c r="HE57" t="n">
+      <c r="HU57" t="n">
         <v>768</v>
       </c>
-      <c r="HF57" t="n">
+      <c r="HV57" t="n">
         <v>835</v>
       </c>
-      <c r="HG57" t="n">
+      <c r="HW57" t="n">
         <v>813</v>
       </c>
-      <c r="HH57" t="n">
+      <c r="HX57" t="n">
         <v>826</v>
       </c>
-      <c r="HI57" t="n">
+      <c r="HY57" t="n">
         <v>838</v>
       </c>
-      <c r="HJ57" t="n">
+      <c r="HZ57" t="n">
         <v>803</v>
       </c>
-      <c r="HK57" t="n">
+      <c r="IA57" t="n">
         <v>795</v>
       </c>
-      <c r="HL57" t="n">
+      <c r="IB57" t="n">
         <v>782</v>
       </c>
-      <c r="HM57" t="n">
+      <c r="IC57" t="n">
         <v>757</v>
       </c>
-      <c r="HN57" t="n">
+      <c r="ID57" t="n">
         <v>811</v>
       </c>
-      <c r="HO57" t="n">
+      <c r="IE57" t="n">
         <v>793</v>
       </c>
-      <c r="HP57" t="n">
+      <c r="IF57" t="n">
         <v>802</v>
       </c>
-      <c r="HQ57" t="n">
+      <c r="IG57" t="n">
         <v>823</v>
       </c>
-      <c r="HR57" t="n">
+      <c r="IH57" t="n">
         <v>890</v>
       </c>
-      <c r="HS57" t="n">
+      <c r="II57" t="n">
         <v>927</v>
       </c>
-      <c r="HT57" t="n">
+      <c r="IJ57" t="n">
         <v>894</v>
       </c>
-      <c r="HU57" t="n">
+      <c r="IK57" t="n">
         <v>849</v>
       </c>
-      <c r="HV57" t="n">
+      <c r="IL57" t="n">
         <v>794</v>
       </c>
-      <c r="HW57" t="n">
+      <c r="IM57" t="n">
         <v>793</v>
       </c>
-      <c r="HX57" t="n">
+      <c r="IN57" t="n">
         <v>834</v>
       </c>
-      <c r="HY57" t="n">
+      <c r="IO57" t="n">
         <v>877</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="IP57" t="n">
         <v>1036</v>
       </c>
-      <c r="IA57" t="n">
+      <c r="IQ57" t="n">
         <v>997</v>
       </c>
-      <c r="IB57" t="n">
+      <c r="IR57" t="n">
         <v>916</v>
       </c>
-      <c r="IC57" t="n">
+      <c r="IS57" t="n">
         <v>850</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="IT57" t="n">
         <v>892</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IU57" t="n">
         <v>882</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IV57" t="n">
         <v>833</v>
       </c>
-      <c r="IG57" t="n">
+      <c r="IW57" t="n">
         <v>806</v>
-      </c>
-      <c r="IH57" t="n">
-        <v>802</v>
-      </c>
-      <c r="II57" t="n">
-        <v>751</v>
-      </c>
-      <c r="IJ57" t="n">
-        <v>728</v>
-      </c>
-      <c r="IK57" t="n">
-        <v>708</v>
-      </c>
-      <c r="IL57" t="n">
-        <v>703</v>
-      </c>
-      <c r="IM57" t="n">
-        <v>736</v>
-      </c>
-      <c r="IN57" t="n">
-        <v>824</v>
-      </c>
-      <c r="IO57" t="n">
-        <v>901</v>
-      </c>
-      <c r="IP57" t="n">
-        <v>939</v>
-      </c>
-      <c r="IQ57" t="n">
-        <v>1048</v>
-      </c>
-      <c r="IR57" t="n">
-        <v>982</v>
-      </c>
-      <c r="IS57" t="n">
-        <v>978</v>
-      </c>
-      <c r="IT57" t="n">
-        <v>1005</v>
-      </c>
-      <c r="IU57" t="n">
-        <v>960</v>
-      </c>
-      <c r="IV57" t="n">
-        <v>929</v>
-      </c>
-      <c r="IW57" t="n">
-        <v>922</v>
       </c>
     </row>
     <row r="58">
@@ -48361,772 +48361,772 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>645</v>
+      </c>
+      <c r="C63" t="n">
+        <v>686</v>
+      </c>
+      <c r="D63" t="n">
+        <v>730</v>
+      </c>
+      <c r="E63" t="n">
+        <v>730</v>
+      </c>
+      <c r="F63" t="n">
+        <v>789</v>
+      </c>
+      <c r="G63" t="n">
+        <v>812</v>
+      </c>
+      <c r="H63" t="n">
+        <v>787</v>
+      </c>
+      <c r="I63" t="n">
+        <v>832</v>
+      </c>
+      <c r="J63" t="n">
         <v>839</v>
       </c>
-      <c r="C63" t="n">
+      <c r="K63" t="n">
         <v>775</v>
       </c>
-      <c r="D63" t="n">
+      <c r="L63" t="n">
         <v>762</v>
       </c>
-      <c r="E63" t="n">
+      <c r="M63" t="n">
         <v>762</v>
       </c>
-      <c r="F63" t="n">
+      <c r="N63" t="n">
         <v>753</v>
       </c>
-      <c r="G63" t="n">
+      <c r="O63" t="n">
         <v>759</v>
       </c>
-      <c r="H63" t="n">
+      <c r="P63" t="n">
         <v>701</v>
       </c>
-      <c r="I63" t="n">
+      <c r="Q63" t="n">
         <v>713</v>
-      </c>
-      <c r="J63" t="n">
-        <v>737</v>
-      </c>
-      <c r="K63" t="n">
-        <v>782</v>
-      </c>
-      <c r="L63" t="n">
-        <v>766</v>
-      </c>
-      <c r="M63" t="n">
-        <v>729</v>
-      </c>
-      <c r="N63" t="n">
-        <v>688</v>
-      </c>
-      <c r="O63" t="n">
-        <v>660</v>
-      </c>
-      <c r="P63" t="n">
-        <v>664</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>679</v>
       </c>
       <c r="R63" t="n">
         <v>737</v>
       </c>
       <c r="S63" t="n">
+        <v>782</v>
+      </c>
+      <c r="T63" t="n">
+        <v>766</v>
+      </c>
+      <c r="U63" t="n">
+        <v>729</v>
+      </c>
+      <c r="V63" t="n">
+        <v>688</v>
+      </c>
+      <c r="W63" t="n">
+        <v>660</v>
+      </c>
+      <c r="X63" t="n">
+        <v>664</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>679</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>737</v>
+      </c>
+      <c r="AA63" t="n">
         <v>730</v>
       </c>
-      <c r="T63" t="n">
+      <c r="AB63" t="n">
         <v>664</v>
       </c>
-      <c r="U63" t="n">
+      <c r="AC63" t="n">
         <v>653</v>
       </c>
-      <c r="V63" t="n">
+      <c r="AD63" t="n">
         <v>649</v>
       </c>
-      <c r="W63" t="n">
+      <c r="AE63" t="n">
         <v>659</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AF63" t="n">
         <v>690</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AG63" t="n">
         <v>720</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AH63" t="n">
         <v>708</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AI63" t="n">
         <v>734</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AJ63" t="n">
         <v>758</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AK63" t="n">
         <v>780</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AL63" t="n">
         <v>763</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AM63" t="n">
         <v>782</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AN63" t="n">
         <v>830</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AO63" t="n">
         <v>793</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AP63" t="n">
         <v>811</v>
       </c>
-      <c r="AI63" t="n">
+      <c r="AQ63" t="n">
         <v>807</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AR63" t="n">
         <v>801</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AS63" t="n">
         <v>800</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AT63" t="n">
         <v>798</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AU63" t="n">
         <v>818</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AV63" t="n">
         <v>739</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AW63" t="n">
         <v>705</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AX63" t="n">
         <v>720</v>
       </c>
-      <c r="AQ63" t="n">
+      <c r="AY63" t="n">
         <v>735</v>
       </c>
-      <c r="AR63" t="n">
+      <c r="AZ63" t="n">
         <v>789</v>
       </c>
-      <c r="AS63" t="n">
+      <c r="BA63" t="n">
         <v>770</v>
       </c>
-      <c r="AT63" t="n">
+      <c r="BB63" t="n">
         <v>794</v>
       </c>
-      <c r="AU63" t="n">
+      <c r="BC63" t="n">
         <v>808</v>
       </c>
-      <c r="AV63" t="n">
+      <c r="BD63" t="n">
         <v>808</v>
       </c>
-      <c r="AW63" t="n">
+      <c r="BE63" t="n">
         <v>732</v>
       </c>
-      <c r="AX63" t="n">
+      <c r="BF63" t="n">
         <v>712</v>
       </c>
-      <c r="AY63" t="n">
+      <c r="BG63" t="n">
         <v>687</v>
       </c>
-      <c r="AZ63" t="n">
+      <c r="BH63" t="n">
         <v>679</v>
       </c>
-      <c r="BA63" t="n">
+      <c r="BI63" t="n">
         <v>687</v>
       </c>
-      <c r="BB63" t="n">
+      <c r="BJ63" t="n">
         <v>682</v>
       </c>
-      <c r="BC63" t="n">
+      <c r="BK63" t="n">
         <v>667</v>
       </c>
-      <c r="BD63" t="n">
+      <c r="BL63" t="n">
         <v>713</v>
       </c>
-      <c r="BE63" t="n">
+      <c r="BM63" t="n">
         <v>789</v>
       </c>
-      <c r="BF63" t="n">
+      <c r="BN63" t="n">
         <v>813</v>
       </c>
-      <c r="BG63" t="n">
+      <c r="BO63" t="n">
         <v>770</v>
       </c>
-      <c r="BH63" t="n">
+      <c r="BP63" t="n">
         <v>789</v>
       </c>
-      <c r="BI63" t="n">
+      <c r="BQ63" t="n">
         <v>804</v>
       </c>
-      <c r="BJ63" t="n">
+      <c r="BR63" t="n">
         <v>828</v>
       </c>
-      <c r="BK63" t="n">
+      <c r="BS63" t="n">
         <v>789</v>
       </c>
-      <c r="BL63" t="n">
+      <c r="BT63" t="n">
         <v>717</v>
       </c>
-      <c r="BM63" t="n">
+      <c r="BU63" t="n">
         <v>714</v>
       </c>
-      <c r="BN63" t="n">
+      <c r="BV63" t="n">
         <v>709</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BW63" t="n">
         <v>718</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BX63" t="n">
         <v>674</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BY63" t="n">
         <v>703</v>
       </c>
-      <c r="BR63" t="n">
+      <c r="BZ63" t="n">
         <v>711</v>
       </c>
-      <c r="BS63" t="n">
+      <c r="CA63" t="n">
         <v>736</v>
       </c>
-      <c r="BT63" t="n">
+      <c r="CB63" t="n">
         <v>719</v>
       </c>
-      <c r="BU63" t="n">
+      <c r="CC63" t="n">
         <v>716</v>
       </c>
-      <c r="BV63" t="n">
+      <c r="CD63" t="n">
         <v>735</v>
       </c>
-      <c r="BW63" t="n">
+      <c r="CE63" t="n">
         <v>760</v>
       </c>
-      <c r="BX63" t="n">
+      <c r="CF63" t="n">
         <v>781</v>
       </c>
-      <c r="BY63" t="n">
+      <c r="CG63" t="n">
         <v>784</v>
       </c>
-      <c r="BZ63" t="n">
+      <c r="CH63" t="n">
         <v>737</v>
       </c>
-      <c r="CA63" t="n">
+      <c r="CI63" t="n">
         <v>732</v>
       </c>
-      <c r="CB63" t="n">
+      <c r="CJ63" t="n">
         <v>730</v>
       </c>
-      <c r="CC63" t="n">
+      <c r="CK63" t="n">
         <v>735</v>
       </c>
-      <c r="CD63" t="n">
+      <c r="CL63" t="n">
         <v>699</v>
       </c>
-      <c r="CE63" t="n">
+      <c r="CM63" t="n">
         <v>676</v>
       </c>
-      <c r="CF63" t="n">
+      <c r="CN63" t="n">
         <v>676</v>
       </c>
-      <c r="CG63" t="n">
+      <c r="CO63" t="n">
         <v>692</v>
       </c>
-      <c r="CH63" t="n">
+      <c r="CP63" t="n">
         <v>663</v>
       </c>
-      <c r="CI63" t="n">
+      <c r="CQ63" t="n">
         <v>685</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CR63" t="n">
         <v>711</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CS63" t="n">
         <v>776</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CT63" t="n">
         <v>792</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CU63" t="n">
         <v>864</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CV63" t="n">
         <v>792</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CW63" t="n">
         <v>793</v>
       </c>
-      <c r="CP63" t="n">
+      <c r="CX63" t="n">
         <v>783</v>
       </c>
-      <c r="CQ63" t="n">
+      <c r="CY63" t="n">
         <v>764</v>
       </c>
-      <c r="CR63" t="n">
+      <c r="CZ63" t="n">
         <v>763</v>
       </c>
-      <c r="CS63" t="n">
+      <c r="DA63" t="n">
         <v>759</v>
       </c>
-      <c r="CT63" t="n">
+      <c r="DB63" t="n">
         <v>766</v>
       </c>
-      <c r="CU63" t="n">
+      <c r="DC63" t="n">
         <v>759</v>
       </c>
-      <c r="CV63" t="n">
+      <c r="DD63" t="n">
         <v>758</v>
       </c>
-      <c r="CW63" t="n">
+      <c r="DE63" t="n">
         <v>711</v>
       </c>
-      <c r="CX63" t="n">
+      <c r="DF63" t="n">
         <v>682</v>
       </c>
-      <c r="CY63" t="n">
+      <c r="DG63" t="n">
         <v>679</v>
       </c>
-      <c r="CZ63" t="n">
+      <c r="DH63" t="n">
         <v>680</v>
       </c>
-      <c r="DA63" t="n">
+      <c r="DI63" t="n">
         <v>692</v>
       </c>
-      <c r="DB63" t="n">
+      <c r="DJ63" t="n">
         <v>705</v>
       </c>
-      <c r="DC63" t="n">
+      <c r="DK63" t="n">
         <v>765</v>
       </c>
-      <c r="DD63" t="n">
+      <c r="DL63" t="n">
         <v>793</v>
       </c>
-      <c r="DE63" t="n">
+      <c r="DM63" t="n">
         <v>816</v>
       </c>
-      <c r="DF63" t="n">
+      <c r="DN63" t="n">
         <v>801</v>
       </c>
-      <c r="DG63" t="n">
+      <c r="DO63" t="n">
         <v>755</v>
       </c>
-      <c r="DH63" t="n">
+      <c r="DP63" t="n">
         <v>739</v>
       </c>
-      <c r="DI63" t="n">
+      <c r="DQ63" t="n">
         <v>730</v>
       </c>
-      <c r="DJ63" t="n">
+      <c r="DR63" t="n">
         <v>728</v>
       </c>
-      <c r="DK63" t="n">
+      <c r="DS63" t="n">
         <v>719</v>
       </c>
-      <c r="DL63" t="n">
+      <c r="DT63" t="n">
         <v>711</v>
       </c>
-      <c r="DM63" t="n">
+      <c r="DU63" t="n">
         <v>705</v>
       </c>
-      <c r="DN63" t="n">
+      <c r="DV63" t="n">
         <v>675</v>
       </c>
-      <c r="DO63" t="n">
+      <c r="DW63" t="n">
         <v>646</v>
       </c>
-      <c r="DP63" t="n">
+      <c r="DX63" t="n">
         <v>641</v>
       </c>
-      <c r="DQ63" t="n">
+      <c r="DY63" t="n">
         <v>649</v>
       </c>
-      <c r="DR63" t="n">
+      <c r="DZ63" t="n">
         <v>689</v>
       </c>
-      <c r="DS63" t="n">
+      <c r="EA63" t="n">
         <v>766</v>
       </c>
-      <c r="DT63" t="n">
+      <c r="EB63" t="n">
         <v>758</v>
       </c>
-      <c r="DU63" t="n">
+      <c r="EC63" t="n">
         <v>752</v>
       </c>
-      <c r="DV63" t="n">
+      <c r="ED63" t="n">
         <v>784</v>
       </c>
-      <c r="DW63" t="n">
+      <c r="EE63" t="n">
         <v>739</v>
       </c>
-      <c r="DX63" t="n">
+      <c r="EF63" t="n">
         <v>732</v>
       </c>
-      <c r="DY63" t="n">
+      <c r="EG63" t="n">
         <v>724</v>
       </c>
-      <c r="DZ63" t="n">
+      <c r="EH63" t="n">
         <v>726</v>
       </c>
-      <c r="EA63" t="n">
+      <c r="EI63" t="n">
         <v>736</v>
       </c>
-      <c r="EB63" t="n">
+      <c r="EJ63" t="n">
         <v>728</v>
       </c>
-      <c r="EC63" t="n">
+      <c r="EK63" t="n">
         <v>701</v>
       </c>
-      <c r="ED63" t="n">
+      <c r="EL63" t="n">
         <v>658</v>
       </c>
-      <c r="EE63" t="n">
+      <c r="EM63" t="n">
         <v>659</v>
       </c>
-      <c r="EF63" t="n">
+      <c r="EN63" t="n">
         <v>667</v>
       </c>
-      <c r="EG63" t="n">
+      <c r="EO63" t="n">
         <v>705</v>
       </c>
-      <c r="EH63" t="n">
+      <c r="EP63" t="n">
         <v>784</v>
       </c>
-      <c r="EI63" t="n">
+      <c r="EQ63" t="n">
         <v>831</v>
       </c>
-      <c r="EJ63" t="n">
+      <c r="ER63" t="n">
         <v>701</v>
       </c>
-      <c r="EK63" t="n">
+      <c r="ES63" t="n">
         <v>643</v>
       </c>
-      <c r="EL63" t="n">
+      <c r="ET63" t="n">
         <v>634</v>
       </c>
-      <c r="EM63" t="n">
+      <c r="EU63" t="n">
         <v>656</v>
       </c>
-      <c r="EN63" t="n">
+      <c r="EV63" t="n">
         <v>737</v>
       </c>
-      <c r="EO63" t="n">
+      <c r="EW63" t="n">
         <v>822</v>
       </c>
-      <c r="EP63" t="n">
+      <c r="EX63" t="n">
         <v>859</v>
       </c>
-      <c r="EQ63" t="n">
+      <c r="EY63" t="n">
         <v>846</v>
       </c>
-      <c r="ER63" t="n">
+      <c r="EZ63" t="n">
         <v>787</v>
       </c>
-      <c r="ES63" t="n">
+      <c r="FA63" t="n">
         <v>780</v>
       </c>
-      <c r="ET63" t="n">
+      <c r="FB63" t="n">
         <v>785</v>
       </c>
-      <c r="EU63" t="n">
+      <c r="FC63" t="n">
         <v>789</v>
       </c>
-      <c r="EV63" t="n">
+      <c r="FD63" t="n">
         <v>714</v>
       </c>
-      <c r="EW63" t="n">
+      <c r="FE63" t="n">
         <v>677</v>
       </c>
-      <c r="EX63" t="n">
+      <c r="FF63" t="n">
         <v>652</v>
       </c>
-      <c r="EY63" t="n">
+      <c r="FG63" t="n">
         <v>636</v>
       </c>
-      <c r="EZ63" t="n">
+      <c r="FH63" t="n">
         <v>630</v>
       </c>
-      <c r="FA63" t="n">
+      <c r="FI63" t="n">
         <v>644</v>
       </c>
-      <c r="FB63" t="n">
+      <c r="FJ63" t="n">
         <v>645</v>
       </c>
-      <c r="FC63" t="n">
+      <c r="FK63" t="n">
         <v>663</v>
       </c>
-      <c r="FD63" t="n">
+      <c r="FL63" t="n">
         <v>671</v>
       </c>
-      <c r="FE63" t="n">
+      <c r="FM63" t="n">
         <v>622</v>
       </c>
-      <c r="FF63" t="n">
+      <c r="FN63" t="n">
         <v>619</v>
       </c>
-      <c r="FG63" t="n">
+      <c r="FO63" t="n">
         <v>610</v>
       </c>
-      <c r="FH63" t="n">
+      <c r="FP63" t="n">
         <v>612</v>
       </c>
-      <c r="FI63" t="n">
+      <c r="FQ63" t="n">
         <v>627</v>
       </c>
-      <c r="FJ63" t="n">
+      <c r="FR63" t="n">
         <v>681</v>
       </c>
-      <c r="FK63" t="n">
+      <c r="FS63" t="n">
         <v>767</v>
       </c>
-      <c r="FL63" t="n">
+      <c r="FT63" t="n">
         <v>797</v>
       </c>
-      <c r="FM63" t="n">
+      <c r="FU63" t="n">
         <v>789</v>
       </c>
-      <c r="FN63" t="n">
+      <c r="FV63" t="n">
         <v>820</v>
       </c>
-      <c r="FO63" t="n">
+      <c r="FW63" t="n">
         <v>789</v>
       </c>
-      <c r="FP63" t="n">
+      <c r="FX63" t="n">
         <v>762</v>
       </c>
-      <c r="FQ63" t="n">
+      <c r="FY63" t="n">
         <v>709</v>
       </c>
-      <c r="FR63" t="n">
+      <c r="FZ63" t="n">
         <v>730</v>
       </c>
-      <c r="FS63" t="n">
+      <c r="GA63" t="n">
         <v>724</v>
       </c>
-      <c r="FT63" t="n">
+      <c r="GB63" t="n">
         <v>660</v>
       </c>
-      <c r="FU63" t="n">
+      <c r="GC63" t="n">
         <v>659</v>
       </c>
-      <c r="FV63" t="n">
+      <c r="GD63" t="n">
         <v>653</v>
       </c>
-      <c r="FW63" t="n">
+      <c r="GE63" t="n">
         <v>672</v>
       </c>
-      <c r="FX63" t="n">
+      <c r="GF63" t="n">
         <v>693</v>
       </c>
-      <c r="FY63" t="n">
+      <c r="GG63" t="n">
         <v>658</v>
       </c>
-      <c r="FZ63" t="n">
+      <c r="GH63" t="n">
         <v>658</v>
       </c>
-      <c r="GA63" t="n">
+      <c r="GI63" t="n">
         <v>669</v>
       </c>
-      <c r="GB63" t="n">
+      <c r="GJ63" t="n">
         <v>701</v>
       </c>
-      <c r="GC63" t="n">
+      <c r="GK63" t="n">
         <v>757</v>
       </c>
-      <c r="GD63" t="n">
+      <c r="GL63" t="n">
         <v>790</v>
       </c>
-      <c r="GE63" t="n">
+      <c r="GM63" t="n">
         <v>795</v>
       </c>
-      <c r="GF63" t="n">
+      <c r="GN63" t="n">
         <v>801</v>
       </c>
-      <c r="GG63" t="n">
+      <c r="GO63" t="n">
         <v>786</v>
       </c>
-      <c r="GH63" t="n">
+      <c r="GP63" t="n">
         <v>711</v>
       </c>
-      <c r="GI63" t="n">
+      <c r="GQ63" t="n">
         <v>675</v>
       </c>
-      <c r="GJ63" t="n">
+      <c r="GR63" t="n">
         <v>655</v>
       </c>
-      <c r="GK63" t="n">
+      <c r="GS63" t="n">
         <v>671</v>
       </c>
-      <c r="GL63" t="n">
+      <c r="GT63" t="n">
         <v>660</v>
       </c>
-      <c r="GM63" t="n">
+      <c r="GU63" t="n">
         <v>685</v>
       </c>
-      <c r="GN63" t="n">
+      <c r="GV63" t="n">
         <v>750</v>
       </c>
-      <c r="GO63" t="n">
+      <c r="GW63" t="n">
         <v>827</v>
       </c>
-      <c r="GP63" t="n">
+      <c r="GX63" t="n">
         <v>698</v>
       </c>
-      <c r="GQ63" t="n">
+      <c r="GY63" t="n">
         <v>691</v>
       </c>
-      <c r="GR63" t="n">
+      <c r="GZ63" t="n">
         <v>689</v>
       </c>
-      <c r="GS63" t="n">
+      <c r="HA63" t="n">
         <v>689</v>
       </c>
-      <c r="GT63" t="n">
+      <c r="HB63" t="n">
         <v>690</v>
       </c>
-      <c r="GU63" t="n">
+      <c r="HC63" t="n">
         <v>881</v>
       </c>
-      <c r="GV63" t="n">
+      <c r="HD63" t="n">
         <v>857</v>
       </c>
-      <c r="GW63" t="n">
+      <c r="HE63" t="n">
         <v>834</v>
       </c>
-      <c r="GX63" t="n">
+      <c r="HF63" t="n">
         <v>778</v>
       </c>
-      <c r="GY63" t="n">
+      <c r="HG63" t="n">
         <v>721</v>
       </c>
-      <c r="GZ63" t="n">
+      <c r="HH63" t="n">
         <v>692</v>
       </c>
-      <c r="HA63" t="n">
+      <c r="HI63" t="n">
         <v>691</v>
       </c>
-      <c r="HB63" t="n">
+      <c r="HJ63" t="n">
         <v>687</v>
       </c>
-      <c r="HC63" t="n">
+      <c r="HK63" t="n">
         <v>704</v>
       </c>
-      <c r="HD63" t="n">
+      <c r="HL63" t="n">
         <v>742</v>
       </c>
-      <c r="HE63" t="n">
+      <c r="HM63" t="n">
         <v>739</v>
       </c>
-      <c r="HF63" t="n">
+      <c r="HN63" t="n">
         <v>713</v>
       </c>
-      <c r="HG63" t="n">
+      <c r="HO63" t="n">
         <v>750</v>
       </c>
-      <c r="HH63" t="n">
+      <c r="HP63" t="n">
         <v>763</v>
       </c>
-      <c r="HI63" t="n">
+      <c r="HQ63" t="n">
         <v>733</v>
       </c>
-      <c r="HJ63" t="n">
+      <c r="HR63" t="n">
         <v>756</v>
       </c>
-      <c r="HK63" t="n">
+      <c r="HS63" t="n">
         <v>775</v>
       </c>
-      <c r="HL63" t="n">
+      <c r="HT63" t="n">
         <v>794</v>
       </c>
-      <c r="HM63" t="n">
+      <c r="HU63" t="n">
         <v>801</v>
       </c>
-      <c r="HN63" t="n">
+      <c r="HV63" t="n">
         <v>784</v>
       </c>
-      <c r="HO63" t="n">
+      <c r="HW63" t="n">
         <v>755</v>
       </c>
-      <c r="HP63" t="n">
+      <c r="HX63" t="n">
         <v>732</v>
       </c>
-      <c r="HQ63" t="n">
+      <c r="HY63" t="n">
         <v>695</v>
       </c>
-      <c r="HR63" t="n">
+      <c r="HZ63" t="n">
         <v>688</v>
       </c>
-      <c r="HS63" t="n">
+      <c r="IA63" t="n">
         <v>691</v>
       </c>
-      <c r="HT63" t="n">
+      <c r="IB63" t="n">
         <v>719</v>
       </c>
-      <c r="HU63" t="n">
+      <c r="IC63" t="n">
         <v>773</v>
       </c>
-      <c r="HV63" t="n">
+      <c r="ID63" t="n">
         <v>781</v>
       </c>
-      <c r="HW63" t="n">
+      <c r="IE63" t="n">
         <v>810</v>
       </c>
-      <c r="HX63" t="n">
+      <c r="IF63" t="n">
         <v>868</v>
       </c>
-      <c r="HY63" t="n">
+      <c r="IG63" t="n">
         <v>906</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="IH63" t="n">
         <v>923</v>
       </c>
-      <c r="IA63" t="n">
+      <c r="II63" t="n">
         <v>887</v>
       </c>
-      <c r="IB63" t="n">
+      <c r="IJ63" t="n">
         <v>796</v>
       </c>
-      <c r="IC63" t="n">
+      <c r="IK63" t="n">
         <v>734</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="IL63" t="n">
         <v>706</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IM63" t="n">
         <v>702</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IN63" t="n">
         <v>741</v>
       </c>
-      <c r="IG63" t="n">
+      <c r="IO63" t="n">
         <v>789</v>
       </c>
-      <c r="IH63" t="n">
+      <c r="IP63" t="n">
         <v>841</v>
       </c>
-      <c r="II63" t="n">
+      <c r="IQ63" t="n">
         <v>794</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IR63" t="n">
         <v>800</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IS63" t="n">
         <v>821</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IT63" t="n">
         <v>840</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IU63" t="n">
         <v>814</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IV63" t="n">
         <v>824</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IW63" t="n">
         <v>778</v>
-      </c>
-      <c r="IP63" t="n">
-        <v>747</v>
-      </c>
-      <c r="IQ63" t="n">
-        <v>756</v>
-      </c>
-      <c r="IR63" t="n">
-        <v>769</v>
-      </c>
-      <c r="IS63" t="n">
-        <v>788</v>
-      </c>
-      <c r="IT63" t="n">
-        <v>725</v>
-      </c>
-      <c r="IU63" t="n">
-        <v>706</v>
-      </c>
-      <c r="IV63" t="n">
-        <v>698</v>
-      </c>
-      <c r="IW63" t="n">
-        <v>704</v>
       </c>
     </row>
     <row r="64">
@@ -49134,772 +49134,772 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>747</v>
+      </c>
+      <c r="C64" t="n">
+        <v>756</v>
+      </c>
+      <c r="D64" t="n">
+        <v>769</v>
+      </c>
+      <c r="E64" t="n">
+        <v>788</v>
+      </c>
+      <c r="F64" t="n">
+        <v>725</v>
+      </c>
+      <c r="G64" t="n">
+        <v>706</v>
+      </c>
+      <c r="H64" t="n">
+        <v>698</v>
+      </c>
+      <c r="I64" t="n">
+        <v>704</v>
+      </c>
+      <c r="J64" t="n">
         <v>710</v>
       </c>
-      <c r="C64" t="n">
+      <c r="K64" t="n">
         <v>704</v>
       </c>
-      <c r="D64" t="n">
+      <c r="L64" t="n">
         <v>659</v>
       </c>
-      <c r="E64" t="n">
+      <c r="M64" t="n">
         <v>656</v>
       </c>
-      <c r="F64" t="n">
+      <c r="N64" t="n">
         <v>824</v>
       </c>
-      <c r="G64" t="n">
+      <c r="O64" t="n">
         <v>844</v>
       </c>
-      <c r="H64" t="n">
+      <c r="P64" t="n">
         <v>839</v>
       </c>
-      <c r="I64" t="n">
+      <c r="Q64" t="n">
         <v>804</v>
       </c>
-      <c r="J64" t="n">
+      <c r="R64" t="n">
         <v>799</v>
       </c>
-      <c r="K64" t="n">
+      <c r="S64" t="n">
         <v>780</v>
       </c>
-      <c r="L64" t="n">
+      <c r="T64" t="n">
         <v>720</v>
       </c>
-      <c r="M64" t="n">
+      <c r="U64" t="n">
         <v>680</v>
       </c>
-      <c r="N64" t="n">
+      <c r="V64" t="n">
         <v>660</v>
       </c>
-      <c r="O64" t="n">
+      <c r="W64" t="n">
         <v>652</v>
       </c>
-      <c r="P64" t="n">
+      <c r="X64" t="n">
         <v>668</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Y64" t="n">
         <v>710</v>
       </c>
-      <c r="R64" t="n">
+      <c r="Z64" t="n">
         <v>779</v>
       </c>
-      <c r="S64" t="n">
+      <c r="AA64" t="n">
         <v>811</v>
       </c>
-      <c r="T64" t="n">
+      <c r="AB64" t="n">
         <v>839</v>
       </c>
-      <c r="U64" t="n">
+      <c r="AC64" t="n">
         <v>838</v>
       </c>
-      <c r="V64" t="n">
+      <c r="AD64" t="n">
         <v>804</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AE64" t="n">
         <v>719</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AF64" t="n">
         <v>687</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AG64" t="n">
         <v>671</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AH64" t="n">
         <v>675</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AI64" t="n">
         <v>674</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AJ64" t="n">
         <v>679</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AK64" t="n">
         <v>638</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AL64" t="n">
         <v>648</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AM64" t="n">
         <v>640</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AN64" t="n">
         <v>681</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AO64" t="n">
         <v>719</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AP64" t="n">
         <v>742</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AQ64" t="n">
         <v>755</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AR64" t="n">
         <v>762</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AS64" t="n">
         <v>701</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AT64" t="n">
         <v>702</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AU64" t="n">
         <v>692</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AV64" t="n">
         <v>703</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AW64" t="n">
         <v>685</v>
       </c>
-      <c r="AP64" t="n">
+      <c r="AX64" t="n">
         <v>693</v>
       </c>
-      <c r="AQ64" t="n">
+      <c r="AY64" t="n">
         <v>677</v>
       </c>
-      <c r="AR64" t="n">
+      <c r="AZ64" t="n">
         <v>667</v>
       </c>
-      <c r="AS64" t="n">
+      <c r="BA64" t="n">
         <v>632</v>
       </c>
-      <c r="AT64" t="n">
+      <c r="BB64" t="n">
         <v>616</v>
       </c>
-      <c r="AU64" t="n">
+      <c r="BC64" t="n">
         <v>613</v>
       </c>
-      <c r="AV64" t="n">
+      <c r="BD64" t="n">
         <v>614</v>
       </c>
-      <c r="AW64" t="n">
+      <c r="BE64" t="n">
         <v>626</v>
       </c>
-      <c r="AX64" t="n">
+      <c r="BF64" t="n">
         <v>664</v>
       </c>
-      <c r="AY64" t="n">
+      <c r="BG64" t="n">
         <v>694</v>
       </c>
-      <c r="AZ64" t="n">
+      <c r="BH64" t="n">
         <v>681</v>
       </c>
-      <c r="BA64" t="n">
+      <c r="BI64" t="n">
         <v>681</v>
       </c>
-      <c r="BB64" t="n">
+      <c r="BJ64" t="n">
         <v>627</v>
       </c>
-      <c r="BC64" t="n">
+      <c r="BK64" t="n">
         <v>601</v>
       </c>
-      <c r="BD64" t="n">
+      <c r="BL64" t="n">
         <v>591</v>
       </c>
-      <c r="BE64" t="n">
+      <c r="BM64" t="n">
         <v>594</v>
       </c>
-      <c r="BF64" t="n">
+      <c r="BN64" t="n">
         <v>624</v>
       </c>
-      <c r="BG64" t="n">
+      <c r="BO64" t="n">
         <v>691</v>
       </c>
-      <c r="BH64" t="n">
+      <c r="BP64" t="n">
         <v>769</v>
       </c>
-      <c r="BI64" t="n">
+      <c r="BQ64" t="n">
         <v>822</v>
       </c>
-      <c r="BJ64" t="n">
+      <c r="BR64" t="n">
         <v>746</v>
       </c>
-      <c r="BK64" t="n">
+      <c r="BS64" t="n">
         <v>742</v>
       </c>
-      <c r="BL64" t="n">
+      <c r="BT64" t="n">
         <v>738</v>
       </c>
-      <c r="BM64" t="n">
+      <c r="BU64" t="n">
         <v>746</v>
       </c>
-      <c r="BN64" t="n">
+      <c r="BV64" t="n">
         <v>776</v>
       </c>
-      <c r="BO64" t="n">
+      <c r="BW64" t="n">
         <v>747</v>
       </c>
-      <c r="BP64" t="n">
+      <c r="BX64" t="n">
         <v>718</v>
       </c>
-      <c r="BQ64" t="n">
+      <c r="BY64" t="n">
         <v>640</v>
       </c>
-      <c r="BR64" t="n">
+      <c r="BZ64" t="n">
         <v>624</v>
       </c>
-      <c r="BS64" t="n">
+      <c r="CA64" t="n">
         <v>607</v>
       </c>
-      <c r="BT64" t="n">
+      <c r="CB64" t="n">
         <v>592</v>
       </c>
-      <c r="BU64" t="n">
+      <c r="CC64" t="n">
         <v>589</v>
       </c>
-      <c r="BV64" t="n">
+      <c r="CD64" t="n">
         <v>585</v>
       </c>
-      <c r="BW64" t="n">
+      <c r="CE64" t="n">
         <v>588</v>
       </c>
-      <c r="BX64" t="n">
+      <c r="CF64" t="n">
         <v>597</v>
       </c>
-      <c r="BY64" t="n">
+      <c r="CG64" t="n">
         <v>609</v>
       </c>
-      <c r="BZ64" t="n">
+      <c r="CH64" t="n">
         <v>636</v>
       </c>
-      <c r="CA64" t="n">
+      <c r="CI64" t="n">
         <v>665</v>
       </c>
-      <c r="CB64" t="n">
+      <c r="CJ64" t="n">
         <v>688</v>
       </c>
-      <c r="CC64" t="n">
+      <c r="CK64" t="n">
         <v>716</v>
       </c>
-      <c r="CD64" t="n">
+      <c r="CL64" t="n">
         <v>684</v>
       </c>
-      <c r="CE64" t="n">
+      <c r="CM64" t="n">
         <v>641</v>
       </c>
-      <c r="CF64" t="n">
+      <c r="CN64" t="n">
         <v>634</v>
       </c>
-      <c r="CG64" t="n">
+      <c r="CO64" t="n">
         <v>632</v>
       </c>
-      <c r="CH64" t="n">
+      <c r="CP64" t="n">
         <v>647</v>
       </c>
-      <c r="CI64" t="n">
+      <c r="CQ64" t="n">
         <v>687</v>
       </c>
-      <c r="CJ64" t="n">
+      <c r="CR64" t="n">
         <v>731</v>
       </c>
-      <c r="CK64" t="n">
+      <c r="CS64" t="n">
         <v>728</v>
       </c>
-      <c r="CL64" t="n">
+      <c r="CT64" t="n">
         <v>791</v>
       </c>
-      <c r="CM64" t="n">
+      <c r="CU64" t="n">
         <v>813</v>
       </c>
-      <c r="CN64" t="n">
+      <c r="CV64" t="n">
         <v>787</v>
       </c>
-      <c r="CO64" t="n">
+      <c r="CW64" t="n">
         <v>830</v>
       </c>
-      <c r="CP64" t="n">
+      <c r="CX64" t="n">
         <v>837</v>
       </c>
-      <c r="CQ64" t="n">
+      <c r="CY64" t="n">
         <v>777</v>
       </c>
-      <c r="CR64" t="n">
+      <c r="CZ64" t="n">
         <v>760</v>
       </c>
-      <c r="CS64" t="n">
+      <c r="DA64" t="n">
         <v>763</v>
       </c>
-      <c r="CT64" t="n">
+      <c r="DB64" t="n">
         <v>752</v>
       </c>
-      <c r="CU64" t="n">
+      <c r="DC64" t="n">
         <v>759</v>
       </c>
-      <c r="CV64" t="n">
+      <c r="DD64" t="n">
         <v>701</v>
       </c>
-      <c r="CW64" t="n">
+      <c r="DE64" t="n">
         <v>713</v>
       </c>
-      <c r="CX64" t="n">
+      <c r="DF64" t="n">
         <v>737</v>
       </c>
-      <c r="CY64" t="n">
+      <c r="DG64" t="n">
         <v>780</v>
       </c>
-      <c r="CZ64" t="n">
+      <c r="DH64" t="n">
         <v>765</v>
       </c>
-      <c r="DA64" t="n">
+      <c r="DI64" t="n">
         <v>731</v>
       </c>
-      <c r="DB64" t="n">
+      <c r="DJ64" t="n">
         <v>687</v>
       </c>
-      <c r="DC64" t="n">
+      <c r="DK64" t="n">
         <v>660</v>
       </c>
-      <c r="DD64" t="n">
+      <c r="DL64" t="n">
         <v>662</v>
       </c>
-      <c r="DE64" t="n">
+      <c r="DM64" t="n">
         <v>679</v>
       </c>
-      <c r="DF64" t="n">
+      <c r="DN64" t="n">
         <v>736</v>
       </c>
-      <c r="DG64" t="n">
+      <c r="DO64" t="n">
         <v>729</v>
       </c>
-      <c r="DH64" t="n">
+      <c r="DP64" t="n">
         <v>663</v>
       </c>
-      <c r="DI64" t="n">
+      <c r="DQ64" t="n">
         <v>652</v>
       </c>
-      <c r="DJ64" t="n">
+      <c r="DR64" t="n">
         <v>647</v>
       </c>
-      <c r="DK64" t="n">
+      <c r="DS64" t="n">
         <v>659</v>
       </c>
-      <c r="DL64" t="n">
+      <c r="DT64" t="n">
         <v>690</v>
       </c>
-      <c r="DM64" t="n">
+      <c r="DU64" t="n">
         <v>722</v>
       </c>
-      <c r="DN64" t="n">
+      <c r="DV64" t="n">
         <v>709</v>
       </c>
-      <c r="DO64" t="n">
+      <c r="DW64" t="n">
         <v>734</v>
       </c>
-      <c r="DP64" t="n">
+      <c r="DX64" t="n">
         <v>759</v>
       </c>
-      <c r="DQ64" t="n">
+      <c r="DY64" t="n">
         <v>780</v>
       </c>
-      <c r="DR64" t="n">
+      <c r="DZ64" t="n">
         <v>763</v>
       </c>
-      <c r="DS64" t="n">
+      <c r="EA64" t="n">
         <v>784</v>
       </c>
-      <c r="DT64" t="n">
+      <c r="EB64" t="n">
         <v>829</v>
       </c>
-      <c r="DU64" t="n">
+      <c r="EC64" t="n">
         <v>792</v>
       </c>
-      <c r="DV64" t="n">
+      <c r="ED64" t="n">
         <v>809</v>
       </c>
-      <c r="DW64" t="n">
+      <c r="EE64" t="n">
         <v>807</v>
       </c>
-      <c r="DX64" t="n">
+      <c r="EF64" t="n">
         <v>801</v>
       </c>
-      <c r="DY64" t="n">
+      <c r="EG64" t="n">
         <v>800</v>
       </c>
-      <c r="DZ64" t="n">
+      <c r="EH64" t="n">
         <v>799</v>
       </c>
-      <c r="EA64" t="n">
+      <c r="EI64" t="n">
         <v>818</v>
       </c>
-      <c r="EB64" t="n">
+      <c r="EJ64" t="n">
         <v>740</v>
       </c>
-      <c r="EC64" t="n">
+      <c r="EK64" t="n">
         <v>705</v>
       </c>
-      <c r="ED64" t="n">
+      <c r="EL64" t="n">
         <v>720</v>
       </c>
-      <c r="EE64" t="n">
+      <c r="EM64" t="n">
         <v>737</v>
       </c>
-      <c r="EF64" t="n">
+      <c r="EN64" t="n">
         <v>787</v>
       </c>
-      <c r="EG64" t="n">
+      <c r="EO64" t="n">
         <v>768</v>
       </c>
-      <c r="EH64" t="n">
+      <c r="EP64" t="n">
         <v>794</v>
       </c>
-      <c r="EI64" t="n">
+      <c r="EQ64" t="n">
         <v>809</v>
       </c>
-      <c r="EJ64" t="n">
+      <c r="ER64" t="n">
         <v>806</v>
       </c>
-      <c r="EK64" t="n">
+      <c r="ES64" t="n">
         <v>731</v>
       </c>
-      <c r="EL64" t="n">
+      <c r="ET64" t="n">
         <v>713</v>
       </c>
-      <c r="EM64" t="n">
+      <c r="EU64" t="n">
         <v>687</v>
       </c>
-      <c r="EN64" t="n">
+      <c r="EV64" t="n">
         <v>679</v>
       </c>
-      <c r="EO64" t="n">
+      <c r="EW64" t="n">
         <v>687</v>
       </c>
-      <c r="EP64" t="n">
+      <c r="EX64" t="n">
         <v>682</v>
       </c>
-      <c r="EQ64" t="n">
+      <c r="EY64" t="n">
         <v>669</v>
       </c>
-      <c r="ER64" t="n">
+      <c r="EZ64" t="n">
         <v>712</v>
       </c>
-      <c r="ES64" t="n">
+      <c r="FA64" t="n">
         <v>789</v>
       </c>
-      <c r="ET64" t="n">
+      <c r="FB64" t="n">
         <v>813</v>
       </c>
-      <c r="EU64" t="n">
+      <c r="FC64" t="n">
         <v>772</v>
       </c>
-      <c r="EV64" t="n">
+      <c r="FD64" t="n">
         <v>789</v>
       </c>
-      <c r="EW64" t="n">
+      <c r="FE64" t="n">
         <v>803</v>
       </c>
-      <c r="EX64" t="n">
+      <c r="FF64" t="n">
         <v>829</v>
       </c>
-      <c r="EY64" t="n">
+      <c r="FG64" t="n">
         <v>789</v>
       </c>
-      <c r="EZ64" t="n">
+      <c r="FH64" t="n">
         <v>717</v>
-      </c>
-      <c r="FA64" t="n">
-        <v>715</v>
-      </c>
-      <c r="FB64" t="n">
-        <v>710</v>
-      </c>
-      <c r="FC64" t="n">
-        <v>718</v>
-      </c>
-      <c r="FD64" t="n">
-        <v>676</v>
-      </c>
-      <c r="FE64" t="n">
-        <v>703</v>
-      </c>
-      <c r="FF64" t="n">
-        <v>712</v>
-      </c>
-      <c r="FG64" t="n">
-        <v>736</v>
-      </c>
-      <c r="FH64" t="n">
-        <v>718</v>
       </c>
       <c r="FI64" t="n">
         <v>715</v>
       </c>
       <c r="FJ64" t="n">
+        <v>710</v>
+      </c>
+      <c r="FK64" t="n">
+        <v>718</v>
+      </c>
+      <c r="FL64" t="n">
+        <v>676</v>
+      </c>
+      <c r="FM64" t="n">
+        <v>703</v>
+      </c>
+      <c r="FN64" t="n">
+        <v>712</v>
+      </c>
+      <c r="FO64" t="n">
+        <v>736</v>
+      </c>
+      <c r="FP64" t="n">
+        <v>718</v>
+      </c>
+      <c r="FQ64" t="n">
+        <v>715</v>
+      </c>
+      <c r="FR64" t="n">
         <v>734</v>
       </c>
-      <c r="FK64" t="n">
+      <c r="FS64" t="n">
         <v>760</v>
       </c>
-      <c r="FL64" t="n">
+      <c r="FT64" t="n">
         <v>780</v>
       </c>
-      <c r="FM64" t="n">
+      <c r="FU64" t="n">
         <v>786</v>
       </c>
-      <c r="FN64" t="n">
+      <c r="FV64" t="n">
         <v>738</v>
       </c>
-      <c r="FO64" t="n">
+      <c r="FW64" t="n">
         <v>733</v>
       </c>
-      <c r="FP64" t="n">
+      <c r="FX64" t="n">
         <v>729</v>
       </c>
-      <c r="FQ64" t="n">
+      <c r="FY64" t="n">
         <v>734</v>
       </c>
-      <c r="FR64" t="n">
+      <c r="FZ64" t="n">
         <v>697</v>
       </c>
-      <c r="FS64" t="n">
+      <c r="GA64" t="n">
         <v>675</v>
       </c>
-      <c r="FT64" t="n">
+      <c r="GB64" t="n">
         <v>676</v>
       </c>
-      <c r="FU64" t="n">
+      <c r="GC64" t="n">
         <v>691</v>
       </c>
-      <c r="FV64" t="n">
+      <c r="GD64" t="n">
         <v>663</v>
       </c>
-      <c r="FW64" t="n">
+      <c r="GE64" t="n">
         <v>685</v>
       </c>
-      <c r="FX64" t="n">
+      <c r="GF64" t="n">
         <v>713</v>
       </c>
-      <c r="FY64" t="n">
+      <c r="GG64" t="n">
         <v>778</v>
       </c>
-      <c r="FZ64" t="n">
+      <c r="GH64" t="n">
         <v>792</v>
       </c>
-      <c r="GA64" t="n">
+      <c r="GI64" t="n">
         <v>864</v>
       </c>
-      <c r="GB64" t="n">
+      <c r="GJ64" t="n">
         <v>794</v>
       </c>
-      <c r="GC64" t="n">
+      <c r="GK64" t="n">
         <v>791</v>
       </c>
-      <c r="GD64" t="n">
+      <c r="GL64" t="n">
         <v>783</v>
       </c>
-      <c r="GE64" t="n">
+      <c r="GM64" t="n">
         <v>766</v>
       </c>
-      <c r="GF64" t="n">
+      <c r="GN64" t="n">
         <v>765</v>
       </c>
-      <c r="GG64" t="n">
+      <c r="GO64" t="n">
         <v>757</v>
       </c>
-      <c r="GH64" t="n">
+      <c r="GP64" t="n">
         <v>765</v>
       </c>
-      <c r="GI64" t="n">
+      <c r="GQ64" t="n">
         <v>761</v>
       </c>
-      <c r="GJ64" t="n">
+      <c r="GR64" t="n">
         <v>760</v>
       </c>
-      <c r="GK64" t="n">
+      <c r="GS64" t="n">
         <v>709</v>
       </c>
-      <c r="GL64" t="n">
+      <c r="GT64" t="n">
         <v>683</v>
       </c>
-      <c r="GM64" t="n">
+      <c r="GU64" t="n">
         <v>678</v>
       </c>
-      <c r="GN64" t="n">
+      <c r="GV64" t="n">
         <v>680</v>
       </c>
-      <c r="GO64" t="n">
+      <c r="GW64" t="n">
         <v>693</v>
       </c>
-      <c r="GP64" t="n">
+      <c r="GX64" t="n">
         <v>704</v>
       </c>
-      <c r="GQ64" t="n">
+      <c r="GY64" t="n">
         <v>766</v>
       </c>
-      <c r="GR64" t="n">
+      <c r="GZ64" t="n">
         <v>792</v>
       </c>
-      <c r="GS64" t="n">
+      <c r="HA64" t="n">
         <v>815</v>
       </c>
-      <c r="GT64" t="n">
+      <c r="HB64" t="n">
         <v>803</v>
       </c>
-      <c r="GU64" t="n">
+      <c r="HC64" t="n">
         <v>754</v>
       </c>
-      <c r="GV64" t="n">
+      <c r="HD64" t="n">
         <v>740</v>
       </c>
-      <c r="GW64" t="n">
+      <c r="HE64" t="n">
         <v>730</v>
       </c>
-      <c r="GX64" t="n">
+      <c r="HF64" t="n">
         <v>728</v>
       </c>
-      <c r="GY64" t="n">
+      <c r="HG64" t="n">
         <v>718</v>
       </c>
-      <c r="GZ64" t="n">
+      <c r="HH64" t="n">
         <v>713</v>
       </c>
-      <c r="HA64" t="n">
+      <c r="HI64" t="n">
         <v>705</v>
       </c>
-      <c r="HB64" t="n">
+      <c r="HJ64" t="n">
         <v>675</v>
       </c>
-      <c r="HC64" t="n">
+      <c r="HK64" t="n">
         <v>645</v>
       </c>
-      <c r="HD64" t="n">
+      <c r="HL64" t="n">
         <v>641</v>
       </c>
-      <c r="HE64" t="n">
+      <c r="HM64" t="n">
         <v>649</v>
       </c>
-      <c r="HF64" t="n">
+      <c r="HN64" t="n">
         <v>690</v>
       </c>
-      <c r="HG64" t="n">
+      <c r="HO64" t="n">
         <v>768</v>
       </c>
-      <c r="HH64" t="n">
+      <c r="HP64" t="n">
         <v>758</v>
       </c>
-      <c r="HI64" t="n">
+      <c r="HQ64" t="n">
         <v>753</v>
       </c>
-      <c r="HJ64" t="n">
+      <c r="HR64" t="n">
         <v>785</v>
       </c>
-      <c r="HK64" t="n">
+      <c r="HS64" t="n">
         <v>740</v>
       </c>
-      <c r="HL64" t="n">
+      <c r="HT64" t="n">
         <v>730</v>
       </c>
-      <c r="HM64" t="n">
+      <c r="HU64" t="n">
         <v>726</v>
       </c>
-      <c r="HN64" t="n">
+      <c r="HV64" t="n">
         <v>728</v>
       </c>
-      <c r="HO64" t="n">
+      <c r="HW64" t="n">
         <v>735</v>
       </c>
-      <c r="HP64" t="n">
+      <c r="HX64" t="n">
         <v>728</v>
       </c>
-      <c r="HQ64" t="n">
+      <c r="HY64" t="n">
         <v>701</v>
       </c>
-      <c r="HR64" t="n">
+      <c r="HZ64" t="n">
         <v>660</v>
       </c>
-      <c r="HS64" t="n">
+      <c r="IA64" t="n">
         <v>658</v>
       </c>
-      <c r="HT64" t="n">
+      <c r="IB64" t="n">
         <v>669</v>
       </c>
-      <c r="HU64" t="n">
+      <c r="IC64" t="n">
         <v>704</v>
       </c>
-      <c r="HV64" t="n">
+      <c r="ID64" t="n">
         <v>782</v>
       </c>
-      <c r="HW64" t="n">
+      <c r="IE64" t="n">
         <v>832</v>
       </c>
-      <c r="HX64" t="n">
+      <c r="IF64" t="n">
         <v>702</v>
       </c>
-      <c r="HY64" t="n">
+      <c r="IG64" t="n">
         <v>642</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="IH64" t="n">
         <v>634</v>
       </c>
-      <c r="IA64" t="n">
+      <c r="II64" t="n">
         <v>654</v>
       </c>
-      <c r="IB64" t="n">
+      <c r="IJ64" t="n">
         <v>735</v>
       </c>
-      <c r="IC64" t="n">
+      <c r="IK64" t="n">
         <v>821</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="IL64" t="n">
         <v>860</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IM64" t="n">
         <v>844</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IN64" t="n">
         <v>787</v>
       </c>
-      <c r="IG64" t="n">
+      <c r="IO64" t="n">
         <v>778</v>
       </c>
-      <c r="IH64" t="n">
+      <c r="IP64" t="n">
         <v>783</v>
       </c>
-      <c r="II64" t="n">
+      <c r="IQ64" t="n">
         <v>791</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IR64" t="n">
         <v>714</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IS64" t="n">
         <v>676</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IT64" t="n">
         <v>653</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IU64" t="n">
         <v>637</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IV64" t="n">
         <v>628</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IW64" t="n">
         <v>646</v>
-      </c>
-      <c r="IP64" t="n">
-        <v>646</v>
-      </c>
-      <c r="IQ64" t="n">
-        <v>663</v>
-      </c>
-      <c r="IR64" t="n">
-        <v>671</v>
-      </c>
-      <c r="IS64" t="n">
-        <v>624</v>
-      </c>
-      <c r="IT64" t="n">
-        <v>618</v>
-      </c>
-      <c r="IU64" t="n">
-        <v>610</v>
-      </c>
-      <c r="IV64" t="n">
-        <v>612</v>
-      </c>
-      <c r="IW64" t="n">
-        <v>627</v>
       </c>
     </row>
     <row r="65">
@@ -49907,772 +49907,772 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>646</v>
+      </c>
+      <c r="C65" t="n">
+        <v>663</v>
+      </c>
+      <c r="D65" t="n">
+        <v>671</v>
+      </c>
+      <c r="E65" t="n">
+        <v>624</v>
+      </c>
+      <c r="F65" t="n">
+        <v>618</v>
+      </c>
+      <c r="G65" t="n">
+        <v>610</v>
+      </c>
+      <c r="H65" t="n">
+        <v>612</v>
+      </c>
+      <c r="I65" t="n">
+        <v>627</v>
+      </c>
+      <c r="J65" t="n">
+        <v>679</v>
+      </c>
+      <c r="K65" t="n">
+        <v>768</v>
+      </c>
+      <c r="L65" t="n">
+        <v>796</v>
+      </c>
+      <c r="M65" t="n">
+        <v>789</v>
+      </c>
+      <c r="N65" t="n">
+        <v>820</v>
+      </c>
+      <c r="O65" t="n">
+        <v>791</v>
+      </c>
+      <c r="P65" t="n">
+        <v>763</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>710</v>
+      </c>
+      <c r="R65" t="n">
         <v>732</v>
       </c>
-      <c r="C65" t="n">
+      <c r="S65" t="n">
         <v>726</v>
       </c>
-      <c r="D65" t="n">
+      <c r="T65" t="n">
         <v>662</v>
       </c>
-      <c r="E65" t="n">
+      <c r="U65" t="n">
         <v>660</v>
       </c>
-      <c r="F65" t="n">
+      <c r="V65" t="n">
         <v>651</v>
       </c>
-      <c r="G65" t="n">
+      <c r="W65" t="n">
         <v>670</v>
       </c>
-      <c r="H65" t="n">
+      <c r="X65" t="n">
         <v>693</v>
       </c>
-      <c r="I65" t="n">
+      <c r="Y65" t="n">
         <v>657</v>
       </c>
-      <c r="J65" t="n">
+      <c r="Z65" t="n">
         <v>658</v>
       </c>
-      <c r="K65" t="n">
+      <c r="AA65" t="n">
         <v>667</v>
       </c>
-      <c r="L65" t="n">
+      <c r="AB65" t="n">
         <v>701</v>
       </c>
-      <c r="M65" t="n">
+      <c r="AC65" t="n">
         <v>757</v>
       </c>
-      <c r="N65" t="n">
+      <c r="AD65" t="n">
         <v>789</v>
       </c>
-      <c r="O65" t="n">
+      <c r="AE65" t="n">
         <v>797</v>
       </c>
-      <c r="P65" t="n">
+      <c r="AF65" t="n">
         <v>801</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="AG65" t="n">
         <v>785</v>
       </c>
-      <c r="R65" t="n">
+      <c r="AH65" t="n">
         <v>710</v>
       </c>
-      <c r="S65" t="n">
+      <c r="AI65" t="n">
         <v>674</v>
       </c>
-      <c r="T65" t="n">
+      <c r="AJ65" t="n">
         <v>657</v>
       </c>
-      <c r="U65" t="n">
+      <c r="AK65" t="n">
         <v>670</v>
       </c>
-      <c r="V65" t="n">
+      <c r="AL65" t="n">
         <v>660</v>
       </c>
-      <c r="W65" t="n">
+      <c r="AM65" t="n">
         <v>687</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AN65" t="n">
         <v>750</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AO65" t="n">
         <v>827</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AP65" t="n">
         <v>697</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AQ65" t="n">
         <v>691</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AR65" t="n">
         <v>689</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AS65" t="n">
         <v>691</v>
       </c>
-      <c r="AD65" t="n">
+      <c r="AT65" t="n">
         <v>692</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AU65" t="n">
         <v>882</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AV65" t="n">
         <v>856</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AW65" t="n">
         <v>835</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AX65" t="n">
         <v>776</v>
       </c>
-      <c r="AI65" t="n">
+      <c r="AY65" t="n">
         <v>721</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AZ65" t="n">
         <v>692</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="BA65" t="n">
         <v>692</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="BB65" t="n">
         <v>688</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="BC65" t="n">
         <v>703</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="BD65" t="n">
         <v>742</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="BE65" t="n">
         <v>739</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="BF65" t="n">
         <v>714</v>
       </c>
-      <c r="AQ65" t="n">
+      <c r="BG65" t="n">
         <v>748</v>
       </c>
-      <c r="AR65" t="n">
+      <c r="BH65" t="n">
         <v>762</v>
       </c>
-      <c r="AS65" t="n">
+      <c r="BI65" t="n">
         <v>733</v>
       </c>
-      <c r="AT65" t="n">
+      <c r="BJ65" t="n">
         <v>755</v>
       </c>
-      <c r="AU65" t="n">
+      <c r="BK65" t="n">
         <v>775</v>
       </c>
-      <c r="AV65" t="n">
+      <c r="BL65" t="n">
         <v>792</v>
       </c>
-      <c r="AW65" t="n">
+      <c r="BM65" t="n">
         <v>801</v>
       </c>
-      <c r="AX65" t="n">
+      <c r="BN65" t="n">
         <v>783</v>
       </c>
-      <c r="AY65" t="n">
+      <c r="BO65" t="n">
         <v>755</v>
       </c>
-      <c r="AZ65" t="n">
+      <c r="BP65" t="n">
         <v>730</v>
       </c>
-      <c r="BA65" t="n">
+      <c r="BQ65" t="n">
         <v>695</v>
       </c>
-      <c r="BB65" t="n">
+      <c r="BR65" t="n">
         <v>687</v>
       </c>
-      <c r="BC65" t="n">
+      <c r="BS65" t="n">
         <v>691</v>
       </c>
-      <c r="BD65" t="n">
+      <c r="BT65" t="n">
         <v>719</v>
       </c>
-      <c r="BE65" t="n">
+      <c r="BU65" t="n">
         <v>773</v>
       </c>
-      <c r="BF65" t="n">
+      <c r="BV65" t="n">
         <v>783</v>
       </c>
-      <c r="BG65" t="n">
+      <c r="BW65" t="n">
         <v>810</v>
       </c>
-      <c r="BH65" t="n">
+      <c r="BX65" t="n">
         <v>870</v>
       </c>
-      <c r="BI65" t="n">
+      <c r="BY65" t="n">
         <v>906</v>
       </c>
-      <c r="BJ65" t="n">
+      <c r="BZ65" t="n">
         <v>923</v>
       </c>
-      <c r="BK65" t="n">
+      <c r="CA65" t="n">
         <v>887</v>
       </c>
-      <c r="BL65" t="n">
+      <c r="CB65" t="n">
         <v>794</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="CC65" t="n">
         <v>733</v>
       </c>
-      <c r="BN65" t="n">
+      <c r="CD65" t="n">
         <v>708</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="CE65" t="n">
         <v>701</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="CF65" t="n">
         <v>741</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="CG65" t="n">
         <v>788</v>
       </c>
-      <c r="BR65" t="n">
+      <c r="CH65" t="n">
         <v>840</v>
       </c>
-      <c r="BS65" t="n">
+      <c r="CI65" t="n">
         <v>793</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="CJ65" t="n">
         <v>801</v>
       </c>
-      <c r="BU65" t="n">
+      <c r="CK65" t="n">
         <v>823</v>
       </c>
-      <c r="BV65" t="n">
+      <c r="CL65" t="n">
         <v>841</v>
       </c>
-      <c r="BW65" t="n">
+      <c r="CM65" t="n">
         <v>816</v>
       </c>
-      <c r="BX65" t="n">
+      <c r="CN65" t="n">
         <v>824</v>
       </c>
-      <c r="BY65" t="n">
+      <c r="CO65" t="n">
         <v>778</v>
       </c>
-      <c r="BZ65" t="n">
+      <c r="CP65" t="n">
         <v>749</v>
       </c>
-      <c r="CA65" t="n">
+      <c r="CQ65" t="n">
         <v>756</v>
       </c>
-      <c r="CB65" t="n">
+      <c r="CR65" t="n">
         <v>769</v>
       </c>
-      <c r="CC65" t="n">
+      <c r="CS65" t="n">
         <v>787</v>
       </c>
-      <c r="CD65" t="n">
+      <c r="CT65" t="n">
         <v>724</v>
       </c>
-      <c r="CE65" t="n">
+      <c r="CU65" t="n">
         <v>707</v>
       </c>
-      <c r="CF65" t="n">
+      <c r="CV65" t="n">
         <v>699</v>
       </c>
-      <c r="CG65" t="n">
+      <c r="CW65" t="n">
         <v>705</v>
       </c>
-      <c r="CH65" t="n">
+      <c r="CX65" t="n">
         <v>709</v>
       </c>
-      <c r="CI65" t="n">
+      <c r="CY65" t="n">
         <v>704</v>
       </c>
-      <c r="CJ65" t="n">
+      <c r="CZ65" t="n">
         <v>658</v>
       </c>
-      <c r="CK65" t="n">
+      <c r="DA65" t="n">
         <v>656</v>
       </c>
-      <c r="CL65" t="n">
+      <c r="DB65" t="n">
         <v>825</v>
       </c>
-      <c r="CM65" t="n">
+      <c r="DC65" t="n">
         <v>842</v>
       </c>
-      <c r="CN65" t="n">
+      <c r="DD65" t="n">
         <v>837</v>
       </c>
-      <c r="CO65" t="n">
+      <c r="DE65" t="n">
         <v>802</v>
       </c>
-      <c r="CP65" t="n">
+      <c r="DF65" t="n">
         <v>797</v>
       </c>
-      <c r="CQ65" t="n">
+      <c r="DG65" t="n">
         <v>782</v>
       </c>
-      <c r="CR65" t="n">
+      <c r="DH65" t="n">
         <v>720</v>
       </c>
-      <c r="CS65" t="n">
+      <c r="DI65" t="n">
         <v>681</v>
       </c>
-      <c r="CT65" t="n">
+      <c r="DJ65" t="n">
         <v>661</v>
       </c>
-      <c r="CU65" t="n">
+      <c r="DK65" t="n">
         <v>651</v>
       </c>
-      <c r="CV65" t="n">
+      <c r="DL65" t="n">
         <v>667</v>
       </c>
-      <c r="CW65" t="n">
+      <c r="DM65" t="n">
         <v>709</v>
       </c>
-      <c r="CX65" t="n">
+      <c r="DN65" t="n">
         <v>779</v>
       </c>
-      <c r="CY65" t="n">
+      <c r="DO65" t="n">
         <v>811</v>
       </c>
-      <c r="CZ65" t="n">
+      <c r="DP65" t="n">
         <v>840</v>
       </c>
-      <c r="DA65" t="n">
+      <c r="DQ65" t="n">
         <v>837</v>
       </c>
-      <c r="DB65" t="n">
+      <c r="DR65" t="n">
         <v>804</v>
       </c>
-      <c r="DC65" t="n">
+      <c r="DS65" t="n">
         <v>721</v>
       </c>
-      <c r="DD65" t="n">
+      <c r="DT65" t="n">
         <v>688</v>
       </c>
-      <c r="DE65" t="n">
+      <c r="DU65" t="n">
         <v>672</v>
       </c>
-      <c r="DF65" t="n">
+      <c r="DV65" t="n">
         <v>675</v>
       </c>
-      <c r="DG65" t="n">
+      <c r="DW65" t="n">
         <v>675</v>
       </c>
-      <c r="DH65" t="n">
+      <c r="DX65" t="n">
         <v>678</v>
       </c>
-      <c r="DI65" t="n">
+      <c r="DY65" t="n">
         <v>638</v>
       </c>
-      <c r="DJ65" t="n">
+      <c r="DZ65" t="n">
         <v>648</v>
       </c>
-      <c r="DK65" t="n">
+      <c r="EA65" t="n">
         <v>640</v>
       </c>
-      <c r="DL65" t="n">
+      <c r="EB65" t="n">
         <v>680</v>
       </c>
-      <c r="DM65" t="n">
+      <c r="EC65" t="n">
         <v>719</v>
       </c>
-      <c r="DN65" t="n">
+      <c r="ED65" t="n">
         <v>743</v>
       </c>
-      <c r="DO65" t="n">
+      <c r="EE65" t="n">
         <v>755</v>
       </c>
-      <c r="DP65" t="n">
+      <c r="EF65" t="n">
         <v>763</v>
       </c>
-      <c r="DQ65" t="n">
+      <c r="EG65" t="n">
         <v>700</v>
       </c>
-      <c r="DR65" t="n">
+      <c r="EH65" t="n">
         <v>701</v>
       </c>
-      <c r="DS65" t="n">
+      <c r="EI65" t="n">
         <v>693</v>
       </c>
-      <c r="DT65" t="n">
+      <c r="EJ65" t="n">
         <v>705</v>
       </c>
-      <c r="DU65" t="n">
+      <c r="EK65" t="n">
         <v>687</v>
       </c>
-      <c r="DV65" t="n">
+      <c r="EL65" t="n">
         <v>693</v>
       </c>
-      <c r="DW65" t="n">
+      <c r="EM65" t="n">
         <v>677</v>
       </c>
-      <c r="DX65" t="n">
+      <c r="EN65" t="n">
         <v>665</v>
       </c>
-      <c r="DY65" t="n">
+      <c r="EO65" t="n">
         <v>632</v>
       </c>
-      <c r="DZ65" t="n">
+      <c r="EP65" t="n">
         <v>618</v>
       </c>
-      <c r="EA65" t="n">
+      <c r="EQ65" t="n">
         <v>614</v>
       </c>
-      <c r="EB65" t="n">
+      <c r="ER65" t="n">
         <v>616</v>
       </c>
-      <c r="EC65" t="n">
+      <c r="ES65" t="n">
         <v>628</v>
       </c>
-      <c r="ED65" t="n">
+      <c r="ET65" t="n">
         <v>664</v>
       </c>
-      <c r="EE65" t="n">
+      <c r="EU65" t="n">
         <v>694</v>
       </c>
-      <c r="EF65" t="n">
+      <c r="EV65" t="n">
         <v>683</v>
       </c>
-      <c r="EG65" t="n">
+      <c r="EW65" t="n">
         <v>681</v>
       </c>
-      <c r="EH65" t="n">
+      <c r="EX65" t="n">
         <v>625</v>
       </c>
-      <c r="EI65" t="n">
+      <c r="EY65" t="n">
         <v>601</v>
       </c>
-      <c r="EJ65" t="n">
+      <c r="EZ65" t="n">
         <v>591</v>
       </c>
-      <c r="EK65" t="n">
+      <c r="FA65" t="n">
         <v>594</v>
       </c>
-      <c r="EL65" t="n">
+      <c r="FB65" t="n">
         <v>623</v>
       </c>
-      <c r="EM65" t="n">
+      <c r="FC65" t="n">
         <v>690</v>
       </c>
-      <c r="EN65" t="n">
+      <c r="FD65" t="n">
         <v>769</v>
       </c>
-      <c r="EO65" t="n">
+      <c r="FE65" t="n">
         <v>822</v>
       </c>
-      <c r="EP65" t="n">
+      <c r="FF65" t="n">
         <v>746</v>
       </c>
-      <c r="EQ65" t="n">
+      <c r="FG65" t="n">
         <v>743</v>
       </c>
-      <c r="ER65" t="n">
+      <c r="FH65" t="n">
         <v>739</v>
       </c>
-      <c r="ES65" t="n">
+      <c r="FI65" t="n">
         <v>746</v>
       </c>
-      <c r="ET65" t="n">
+      <c r="FJ65" t="n">
         <v>776</v>
       </c>
-      <c r="EU65" t="n">
+      <c r="FK65" t="n">
         <v>745</v>
       </c>
-      <c r="EV65" t="n">
+      <c r="FL65" t="n">
         <v>718</v>
       </c>
-      <c r="EW65" t="n">
+      <c r="FM65" t="n">
         <v>640</v>
       </c>
-      <c r="EX65" t="n">
+      <c r="FN65" t="n">
         <v>622</v>
       </c>
-      <c r="EY65" t="n">
+      <c r="FO65" t="n">
         <v>606</v>
       </c>
-      <c r="EZ65" t="n">
+      <c r="FP65" t="n">
         <v>592</v>
       </c>
-      <c r="FA65" t="n">
+      <c r="FQ65" t="n">
         <v>588</v>
       </c>
-      <c r="FB65" t="n">
+      <c r="FR65" t="n">
         <v>585</v>
       </c>
-      <c r="FC65" t="n">
+      <c r="FS65" t="n">
         <v>588</v>
       </c>
-      <c r="FD65" t="n">
+      <c r="FT65" t="n">
         <v>595</v>
       </c>
-      <c r="FE65" t="n">
+      <c r="FU65" t="n">
         <v>609</v>
       </c>
-      <c r="FF65" t="n">
+      <c r="FV65" t="n">
         <v>636</v>
       </c>
-      <c r="FG65" t="n">
+      <c r="FW65" t="n">
         <v>665</v>
       </c>
-      <c r="FH65" t="n">
+      <c r="FX65" t="n">
         <v>687</v>
       </c>
-      <c r="FI65" t="n">
+      <c r="FY65" t="n">
         <v>715</v>
       </c>
-      <c r="FJ65" t="n">
+      <c r="FZ65" t="n">
         <v>685</v>
       </c>
-      <c r="FK65" t="n">
+      <c r="GA65" t="n">
         <v>643</v>
       </c>
-      <c r="FL65" t="n">
+      <c r="GB65" t="n">
         <v>633</v>
       </c>
-      <c r="FM65" t="n">
+      <c r="GC65" t="n">
         <v>634</v>
       </c>
-      <c r="FN65" t="n">
+      <c r="GD65" t="n">
         <v>646</v>
       </c>
-      <c r="FO65" t="n">
+      <c r="GE65" t="n">
         <v>688</v>
       </c>
-      <c r="FP65" t="n">
+      <c r="GF65" t="n">
         <v>732</v>
       </c>
-      <c r="FQ65" t="n">
+      <c r="GG65" t="n">
         <v>729</v>
       </c>
-      <c r="FR65" t="n">
+      <c r="GH65" t="n">
         <v>789</v>
       </c>
-      <c r="FS65" t="n">
+      <c r="GI65" t="n">
         <v>813</v>
       </c>
-      <c r="FT65" t="n">
+      <c r="GJ65" t="n">
         <v>785</v>
       </c>
-      <c r="FU65" t="n">
+      <c r="GK65" t="n">
         <v>832</v>
       </c>
-      <c r="FV65" t="n">
+      <c r="GL65" t="n">
         <v>838</v>
       </c>
-      <c r="FW65" t="n">
+      <c r="GM65" t="n">
         <v>776</v>
       </c>
-      <c r="FX65" t="n">
+      <c r="GN65" t="n">
         <v>760</v>
       </c>
-      <c r="FY65" t="n">
+      <c r="GO65" t="n">
         <v>761</v>
       </c>
-      <c r="FZ65" t="n">
+      <c r="GP65" t="n">
         <v>753</v>
       </c>
-      <c r="GA65" t="n">
+      <c r="GQ65" t="n">
         <v>760</v>
       </c>
-      <c r="GB65" t="n">
+      <c r="GR65" t="n">
         <v>700</v>
       </c>
-      <c r="GC65" t="n">
+      <c r="GS65" t="n">
         <v>715</v>
       </c>
-      <c r="GD65" t="n">
+      <c r="GT65" t="n">
         <v>736</v>
       </c>
-      <c r="GE65" t="n">
+      <c r="GU65" t="n">
         <v>780</v>
       </c>
-      <c r="GF65" t="n">
+      <c r="GV65" t="n">
         <v>766</v>
       </c>
-      <c r="GG65" t="n">
+      <c r="GW65" t="n">
         <v>731</v>
       </c>
-      <c r="GH65" t="n">
+      <c r="GX65" t="n">
         <v>688</v>
       </c>
-      <c r="GI65" t="n">
+      <c r="GY65" t="n">
         <v>659</v>
       </c>
-      <c r="GJ65" t="n">
+      <c r="GZ65" t="n">
         <v>663</v>
       </c>
-      <c r="GK65" t="n">
+      <c r="HA65" t="n">
         <v>680</v>
       </c>
-      <c r="GL65" t="n">
+      <c r="HB65" t="n">
         <v>738</v>
       </c>
-      <c r="GM65" t="n">
+      <c r="HC65" t="n">
         <v>731</v>
       </c>
-      <c r="GN65" t="n">
+      <c r="HD65" t="n">
         <v>664</v>
       </c>
-      <c r="GO65" t="n">
+      <c r="HE65" t="n">
         <v>654</v>
       </c>
-      <c r="GP65" t="n">
+      <c r="HF65" t="n">
         <v>647</v>
       </c>
-      <c r="GQ65" t="n">
+      <c r="HG65" t="n">
         <v>661</v>
       </c>
-      <c r="GR65" t="n">
+      <c r="HH65" t="n">
         <v>692</v>
       </c>
-      <c r="GS65" t="n">
+      <c r="HI65" t="n">
         <v>722</v>
       </c>
-      <c r="GT65" t="n">
+      <c r="HJ65" t="n">
         <v>709</v>
       </c>
-      <c r="GU65" t="n">
+      <c r="HK65" t="n">
         <v>735</v>
       </c>
-      <c r="GV65" t="n">
+      <c r="HL65" t="n">
         <v>760</v>
       </c>
-      <c r="GW65" t="n">
+      <c r="HM65" t="n">
         <v>779</v>
       </c>
-      <c r="GX65" t="n">
+      <c r="HN65" t="n">
         <v>762</v>
       </c>
-      <c r="GY65" t="n">
+      <c r="HO65" t="n">
         <v>783</v>
       </c>
-      <c r="GZ65" t="n">
+      <c r="HP65" t="n">
         <v>829</v>
       </c>
-      <c r="HA65" t="n">
+      <c r="HQ65" t="n">
         <v>792</v>
       </c>
-      <c r="HB65" t="n">
+      <c r="HR65" t="n">
         <v>810</v>
       </c>
-      <c r="HC65" t="n">
+      <c r="HS65" t="n">
         <v>808</v>
       </c>
-      <c r="HD65" t="n">
+      <c r="HT65" t="n">
         <v>801</v>
       </c>
-      <c r="HE65" t="n">
+      <c r="HU65" t="n">
         <v>800</v>
       </c>
-      <c r="HF65" t="n">
+      <c r="HV65" t="n">
         <v>798</v>
       </c>
-      <c r="HG65" t="n">
+      <c r="HW65" t="n">
         <v>816</v>
       </c>
-      <c r="HH65" t="n">
+      <c r="HX65" t="n">
         <v>739</v>
       </c>
-      <c r="HI65" t="n">
+      <c r="HY65" t="n">
         <v>704</v>
       </c>
-      <c r="HJ65" t="n">
+      <c r="HZ65" t="n">
         <v>718</v>
       </c>
-      <c r="HK65" t="n">
+      <c r="IA65" t="n">
         <v>736</v>
       </c>
-      <c r="HL65" t="n">
+      <c r="IB65" t="n">
         <v>787</v>
       </c>
-      <c r="HM65" t="n">
+      <c r="IC65" t="n">
         <v>770</v>
       </c>
-      <c r="HN65" t="n">
+      <c r="ID65" t="n">
         <v>795</v>
       </c>
-      <c r="HO65" t="n">
+      <c r="IE65" t="n">
         <v>809</v>
       </c>
-      <c r="HP65" t="n">
+      <c r="IF65" t="n">
         <v>808</v>
       </c>
-      <c r="HQ65" t="n">
+      <c r="IG65" t="n">
         <v>731</v>
       </c>
-      <c r="HR65" t="n">
+      <c r="IH65" t="n">
         <v>712</v>
       </c>
-      <c r="HS65" t="n">
+      <c r="II65" t="n">
         <v>687</v>
       </c>
-      <c r="HT65" t="n">
+      <c r="IJ65" t="n">
         <v>679</v>
       </c>
-      <c r="HU65" t="n">
+      <c r="IK65" t="n">
         <v>687</v>
       </c>
-      <c r="HV65" t="n">
+      <c r="IL65" t="n">
         <v>681</v>
       </c>
-      <c r="HW65" t="n">
+      <c r="IM65" t="n">
         <v>668</v>
       </c>
-      <c r="HX65" t="n">
+      <c r="IN65" t="n">
         <v>713</v>
       </c>
-      <c r="HY65" t="n">
+      <c r="IO65" t="n">
         <v>789</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="IP65" t="n">
         <v>811</v>
       </c>
-      <c r="IA65" t="n">
+      <c r="IQ65" t="n">
         <v>771</v>
       </c>
-      <c r="IB65" t="n">
+      <c r="IR65" t="n">
         <v>789</v>
       </c>
-      <c r="IC65" t="n">
+      <c r="IS65" t="n">
         <v>804</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="IT65" t="n">
         <v>829</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IU65" t="n">
         <v>788</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IV65" t="n">
         <v>716</v>
       </c>
-      <c r="IG65" t="n">
+      <c r="IW65" t="n">
         <v>715</v>
-      </c>
-      <c r="IH65" t="n">
-        <v>710</v>
-      </c>
-      <c r="II65" t="n">
-        <v>718</v>
-      </c>
-      <c r="IJ65" t="n">
-        <v>674</v>
-      </c>
-      <c r="IK65" t="n">
-        <v>702</v>
-      </c>
-      <c r="IL65" t="n">
-        <v>712</v>
-      </c>
-      <c r="IM65" t="n">
-        <v>737</v>
-      </c>
-      <c r="IN65" t="n">
-        <v>720</v>
-      </c>
-      <c r="IO65" t="n">
-        <v>714</v>
-      </c>
-      <c r="IP65" t="n">
-        <v>735</v>
-      </c>
-      <c r="IQ65" t="n">
-        <v>760</v>
-      </c>
-      <c r="IR65" t="n">
-        <v>781</v>
-      </c>
-      <c r="IS65" t="n">
-        <v>784</v>
-      </c>
-      <c r="IT65" t="n">
-        <v>738</v>
-      </c>
-      <c r="IU65" t="n">
-        <v>731</v>
-      </c>
-      <c r="IV65" t="n">
-        <v>729</v>
-      </c>
-      <c r="IW65" t="n">
-        <v>734</v>
       </c>
     </row>
     <row r="66">
@@ -50680,772 +50680,772 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>645</v>
+      </c>
+      <c r="C66" t="n">
+        <v>686</v>
+      </c>
+      <c r="D66" t="n">
+        <v>730</v>
+      </c>
+      <c r="E66" t="n">
+        <v>730</v>
+      </c>
+      <c r="F66" t="n">
+        <v>789</v>
+      </c>
+      <c r="G66" t="n">
+        <v>812</v>
+      </c>
+      <c r="H66" t="n">
+        <v>787</v>
+      </c>
+      <c r="I66" t="n">
+        <v>832</v>
+      </c>
+      <c r="J66" t="n">
         <v>839</v>
       </c>
-      <c r="C66" t="n">
+      <c r="K66" t="n">
         <v>775</v>
       </c>
-      <c r="D66" t="n">
+      <c r="L66" t="n">
         <v>762</v>
       </c>
-      <c r="E66" t="n">
+      <c r="M66" t="n">
         <v>762</v>
       </c>
-      <c r="F66" t="n">
+      <c r="N66" t="n">
         <v>753</v>
       </c>
-      <c r="G66" t="n">
+      <c r="O66" t="n">
         <v>759</v>
       </c>
-      <c r="H66" t="n">
+      <c r="P66" t="n">
         <v>701</v>
       </c>
-      <c r="I66" t="n">
+      <c r="Q66" t="n">
         <v>713</v>
-      </c>
-      <c r="J66" t="n">
-        <v>737</v>
-      </c>
-      <c r="K66" t="n">
-        <v>782</v>
-      </c>
-      <c r="L66" t="n">
-        <v>766</v>
-      </c>
-      <c r="M66" t="n">
-        <v>729</v>
-      </c>
-      <c r="N66" t="n">
-        <v>688</v>
-      </c>
-      <c r="O66" t="n">
-        <v>660</v>
-      </c>
-      <c r="P66" t="n">
-        <v>664</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>679</v>
       </c>
       <c r="R66" t="n">
         <v>737</v>
       </c>
       <c r="S66" t="n">
+        <v>782</v>
+      </c>
+      <c r="T66" t="n">
+        <v>766</v>
+      </c>
+      <c r="U66" t="n">
+        <v>729</v>
+      </c>
+      <c r="V66" t="n">
+        <v>688</v>
+      </c>
+      <c r="W66" t="n">
+        <v>660</v>
+      </c>
+      <c r="X66" t="n">
+        <v>664</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>679</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>737</v>
+      </c>
+      <c r="AA66" t="n">
         <v>730</v>
       </c>
-      <c r="T66" t="n">
+      <c r="AB66" t="n">
         <v>664</v>
       </c>
-      <c r="U66" t="n">
+      <c r="AC66" t="n">
         <v>653</v>
       </c>
-      <c r="V66" t="n">
+      <c r="AD66" t="n">
         <v>649</v>
       </c>
-      <c r="W66" t="n">
+      <c r="AE66" t="n">
         <v>659</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AF66" t="n">
         <v>690</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AG66" t="n">
         <v>720</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AH66" t="n">
         <v>708</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AI66" t="n">
         <v>734</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AJ66" t="n">
         <v>758</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AK66" t="n">
         <v>780</v>
       </c>
-      <c r="AD66" t="n">
+      <c r="AL66" t="n">
         <v>763</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AM66" t="n">
         <v>782</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AN66" t="n">
         <v>830</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AO66" t="n">
         <v>793</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AP66" t="n">
         <v>811</v>
       </c>
-      <c r="AI66" t="n">
+      <c r="AQ66" t="n">
         <v>807</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AR66" t="n">
         <v>801</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AS66" t="n">
         <v>800</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AT66" t="n">
         <v>798</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AU66" t="n">
         <v>818</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AV66" t="n">
         <v>739</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AW66" t="n">
         <v>705</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AX66" t="n">
         <v>720</v>
       </c>
-      <c r="AQ66" t="n">
+      <c r="AY66" t="n">
         <v>735</v>
       </c>
-      <c r="AR66" t="n">
+      <c r="AZ66" t="n">
         <v>789</v>
       </c>
-      <c r="AS66" t="n">
+      <c r="BA66" t="n">
         <v>770</v>
       </c>
-      <c r="AT66" t="n">
+      <c r="BB66" t="n">
         <v>794</v>
       </c>
-      <c r="AU66" t="n">
+      <c r="BC66" t="n">
         <v>808</v>
       </c>
-      <c r="AV66" t="n">
+      <c r="BD66" t="n">
         <v>808</v>
       </c>
-      <c r="AW66" t="n">
+      <c r="BE66" t="n">
         <v>732</v>
       </c>
-      <c r="AX66" t="n">
+      <c r="BF66" t="n">
         <v>712</v>
       </c>
-      <c r="AY66" t="n">
+      <c r="BG66" t="n">
         <v>687</v>
       </c>
-      <c r="AZ66" t="n">
+      <c r="BH66" t="n">
         <v>679</v>
       </c>
-      <c r="BA66" t="n">
+      <c r="BI66" t="n">
         <v>687</v>
       </c>
-      <c r="BB66" t="n">
+      <c r="BJ66" t="n">
         <v>682</v>
       </c>
-      <c r="BC66" t="n">
+      <c r="BK66" t="n">
         <v>667</v>
       </c>
-      <c r="BD66" t="n">
+      <c r="BL66" t="n">
         <v>713</v>
       </c>
-      <c r="BE66" t="n">
+      <c r="BM66" t="n">
         <v>789</v>
       </c>
-      <c r="BF66" t="n">
+      <c r="BN66" t="n">
         <v>813</v>
       </c>
-      <c r="BG66" t="n">
+      <c r="BO66" t="n">
         <v>770</v>
       </c>
-      <c r="BH66" t="n">
+      <c r="BP66" t="n">
         <v>789</v>
       </c>
-      <c r="BI66" t="n">
+      <c r="BQ66" t="n">
         <v>804</v>
       </c>
-      <c r="BJ66" t="n">
+      <c r="BR66" t="n">
         <v>828</v>
       </c>
-      <c r="BK66" t="n">
+      <c r="BS66" t="n">
         <v>789</v>
       </c>
-      <c r="BL66" t="n">
+      <c r="BT66" t="n">
         <v>717</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BU66" t="n">
         <v>714</v>
       </c>
-      <c r="BN66" t="n">
+      <c r="BV66" t="n">
         <v>709</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BW66" t="n">
         <v>718</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BX66" t="n">
         <v>674</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BY66" t="n">
         <v>703</v>
       </c>
-      <c r="BR66" t="n">
+      <c r="BZ66" t="n">
         <v>711</v>
       </c>
-      <c r="BS66" t="n">
+      <c r="CA66" t="n">
         <v>736</v>
       </c>
-      <c r="BT66" t="n">
+      <c r="CB66" t="n">
         <v>719</v>
       </c>
-      <c r="BU66" t="n">
+      <c r="CC66" t="n">
         <v>716</v>
       </c>
-      <c r="BV66" t="n">
+      <c r="CD66" t="n">
         <v>735</v>
       </c>
-      <c r="BW66" t="n">
+      <c r="CE66" t="n">
         <v>760</v>
       </c>
-      <c r="BX66" t="n">
+      <c r="CF66" t="n">
         <v>781</v>
       </c>
-      <c r="BY66" t="n">
+      <c r="CG66" t="n">
         <v>784</v>
       </c>
-      <c r="BZ66" t="n">
+      <c r="CH66" t="n">
         <v>737</v>
       </c>
-      <c r="CA66" t="n">
+      <c r="CI66" t="n">
         <v>732</v>
       </c>
-      <c r="CB66" t="n">
+      <c r="CJ66" t="n">
         <v>730</v>
       </c>
-      <c r="CC66" t="n">
+      <c r="CK66" t="n">
         <v>735</v>
       </c>
-      <c r="CD66" t="n">
+      <c r="CL66" t="n">
         <v>699</v>
       </c>
-      <c r="CE66" t="n">
+      <c r="CM66" t="n">
         <v>676</v>
       </c>
-      <c r="CF66" t="n">
+      <c r="CN66" t="n">
         <v>676</v>
       </c>
-      <c r="CG66" t="n">
+      <c r="CO66" t="n">
         <v>692</v>
       </c>
-      <c r="CH66" t="n">
+      <c r="CP66" t="n">
         <v>663</v>
       </c>
-      <c r="CI66" t="n">
+      <c r="CQ66" t="n">
         <v>685</v>
       </c>
-      <c r="CJ66" t="n">
+      <c r="CR66" t="n">
         <v>711</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CS66" t="n">
         <v>776</v>
       </c>
-      <c r="CL66" t="n">
+      <c r="CT66" t="n">
         <v>792</v>
       </c>
-      <c r="CM66" t="n">
+      <c r="CU66" t="n">
         <v>864</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CV66" t="n">
         <v>792</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CW66" t="n">
         <v>793</v>
       </c>
-      <c r="CP66" t="n">
+      <c r="CX66" t="n">
         <v>783</v>
       </c>
-      <c r="CQ66" t="n">
+      <c r="CY66" t="n">
         <v>764</v>
       </c>
-      <c r="CR66" t="n">
+      <c r="CZ66" t="n">
         <v>763</v>
       </c>
-      <c r="CS66" t="n">
+      <c r="DA66" t="n">
         <v>759</v>
       </c>
-      <c r="CT66" t="n">
+      <c r="DB66" t="n">
         <v>766</v>
       </c>
-      <c r="CU66" t="n">
+      <c r="DC66" t="n">
         <v>759</v>
       </c>
-      <c r="CV66" t="n">
+      <c r="DD66" t="n">
         <v>758</v>
       </c>
-      <c r="CW66" t="n">
+      <c r="DE66" t="n">
         <v>711</v>
       </c>
-      <c r="CX66" t="n">
+      <c r="DF66" t="n">
         <v>682</v>
       </c>
-      <c r="CY66" t="n">
+      <c r="DG66" t="n">
         <v>679</v>
       </c>
-      <c r="CZ66" t="n">
+      <c r="DH66" t="n">
         <v>680</v>
       </c>
-      <c r="DA66" t="n">
+      <c r="DI66" t="n">
         <v>692</v>
       </c>
-      <c r="DB66" t="n">
+      <c r="DJ66" t="n">
         <v>705</v>
       </c>
-      <c r="DC66" t="n">
+      <c r="DK66" t="n">
         <v>765</v>
       </c>
-      <c r="DD66" t="n">
+      <c r="DL66" t="n">
         <v>793</v>
       </c>
-      <c r="DE66" t="n">
+      <c r="DM66" t="n">
         <v>816</v>
       </c>
-      <c r="DF66" t="n">
+      <c r="DN66" t="n">
         <v>801</v>
       </c>
-      <c r="DG66" t="n">
+      <c r="DO66" t="n">
         <v>755</v>
       </c>
-      <c r="DH66" t="n">
+      <c r="DP66" t="n">
         <v>739</v>
       </c>
-      <c r="DI66" t="n">
+      <c r="DQ66" t="n">
         <v>730</v>
       </c>
-      <c r="DJ66" t="n">
+      <c r="DR66" t="n">
         <v>728</v>
       </c>
-      <c r="DK66" t="n">
+      <c r="DS66" t="n">
         <v>719</v>
       </c>
-      <c r="DL66" t="n">
+      <c r="DT66" t="n">
         <v>711</v>
       </c>
-      <c r="DM66" t="n">
+      <c r="DU66" t="n">
         <v>705</v>
       </c>
-      <c r="DN66" t="n">
+      <c r="DV66" t="n">
         <v>675</v>
       </c>
-      <c r="DO66" t="n">
+      <c r="DW66" t="n">
         <v>646</v>
       </c>
-      <c r="DP66" t="n">
+      <c r="DX66" t="n">
         <v>641</v>
       </c>
-      <c r="DQ66" t="n">
+      <c r="DY66" t="n">
         <v>649</v>
       </c>
-      <c r="DR66" t="n">
+      <c r="DZ66" t="n">
         <v>689</v>
       </c>
-      <c r="DS66" t="n">
+      <c r="EA66" t="n">
         <v>766</v>
       </c>
-      <c r="DT66" t="n">
+      <c r="EB66" t="n">
         <v>758</v>
       </c>
-      <c r="DU66" t="n">
+      <c r="EC66" t="n">
         <v>752</v>
       </c>
-      <c r="DV66" t="n">
+      <c r="ED66" t="n">
         <v>784</v>
       </c>
-      <c r="DW66" t="n">
+      <c r="EE66" t="n">
         <v>739</v>
       </c>
-      <c r="DX66" t="n">
+      <c r="EF66" t="n">
         <v>732</v>
       </c>
-      <c r="DY66" t="n">
+      <c r="EG66" t="n">
         <v>724</v>
       </c>
-      <c r="DZ66" t="n">
+      <c r="EH66" t="n">
         <v>726</v>
       </c>
-      <c r="EA66" t="n">
+      <c r="EI66" t="n">
         <v>736</v>
       </c>
-      <c r="EB66" t="n">
+      <c r="EJ66" t="n">
         <v>728</v>
       </c>
-      <c r="EC66" t="n">
+      <c r="EK66" t="n">
         <v>701</v>
       </c>
-      <c r="ED66" t="n">
+      <c r="EL66" t="n">
         <v>658</v>
       </c>
-      <c r="EE66" t="n">
+      <c r="EM66" t="n">
         <v>659</v>
       </c>
-      <c r="EF66" t="n">
+      <c r="EN66" t="n">
         <v>667</v>
       </c>
-      <c r="EG66" t="n">
+      <c r="EO66" t="n">
         <v>705</v>
       </c>
-      <c r="EH66" t="n">
+      <c r="EP66" t="n">
         <v>784</v>
       </c>
-      <c r="EI66" t="n">
+      <c r="EQ66" t="n">
         <v>831</v>
       </c>
-      <c r="EJ66" t="n">
+      <c r="ER66" t="n">
         <v>701</v>
       </c>
-      <c r="EK66" t="n">
+      <c r="ES66" t="n">
         <v>643</v>
       </c>
-      <c r="EL66" t="n">
+      <c r="ET66" t="n">
         <v>634</v>
       </c>
-      <c r="EM66" t="n">
+      <c r="EU66" t="n">
         <v>656</v>
       </c>
-      <c r="EN66" t="n">
+      <c r="EV66" t="n">
         <v>737</v>
       </c>
-      <c r="EO66" t="n">
+      <c r="EW66" t="n">
         <v>822</v>
       </c>
-      <c r="EP66" t="n">
+      <c r="EX66" t="n">
         <v>859</v>
       </c>
-      <c r="EQ66" t="n">
+      <c r="EY66" t="n">
         <v>846</v>
       </c>
-      <c r="ER66" t="n">
+      <c r="EZ66" t="n">
         <v>787</v>
       </c>
-      <c r="ES66" t="n">
+      <c r="FA66" t="n">
         <v>780</v>
       </c>
-      <c r="ET66" t="n">
+      <c r="FB66" t="n">
         <v>785</v>
       </c>
-      <c r="EU66" t="n">
+      <c r="FC66" t="n">
         <v>789</v>
       </c>
-      <c r="EV66" t="n">
+      <c r="FD66" t="n">
         <v>714</v>
       </c>
-      <c r="EW66" t="n">
+      <c r="FE66" t="n">
         <v>677</v>
       </c>
-      <c r="EX66" t="n">
+      <c r="FF66" t="n">
         <v>652</v>
       </c>
-      <c r="EY66" t="n">
+      <c r="FG66" t="n">
         <v>636</v>
       </c>
-      <c r="EZ66" t="n">
+      <c r="FH66" t="n">
         <v>630</v>
       </c>
-      <c r="FA66" t="n">
+      <c r="FI66" t="n">
         <v>644</v>
       </c>
-      <c r="FB66" t="n">
+      <c r="FJ66" t="n">
         <v>645</v>
       </c>
-      <c r="FC66" t="n">
+      <c r="FK66" t="n">
         <v>663</v>
       </c>
-      <c r="FD66" t="n">
+      <c r="FL66" t="n">
         <v>671</v>
       </c>
-      <c r="FE66" t="n">
+      <c r="FM66" t="n">
         <v>622</v>
       </c>
-      <c r="FF66" t="n">
+      <c r="FN66" t="n">
         <v>619</v>
       </c>
-      <c r="FG66" t="n">
+      <c r="FO66" t="n">
         <v>610</v>
       </c>
-      <c r="FH66" t="n">
+      <c r="FP66" t="n">
         <v>612</v>
       </c>
-      <c r="FI66" t="n">
+      <c r="FQ66" t="n">
         <v>627</v>
       </c>
-      <c r="FJ66" t="n">
+      <c r="FR66" t="n">
         <v>681</v>
       </c>
-      <c r="FK66" t="n">
+      <c r="FS66" t="n">
         <v>767</v>
       </c>
-      <c r="FL66" t="n">
+      <c r="FT66" t="n">
         <v>797</v>
       </c>
-      <c r="FM66" t="n">
+      <c r="FU66" t="n">
         <v>789</v>
       </c>
-      <c r="FN66" t="n">
+      <c r="FV66" t="n">
         <v>820</v>
       </c>
-      <c r="FO66" t="n">
+      <c r="FW66" t="n">
         <v>789</v>
       </c>
-      <c r="FP66" t="n">
+      <c r="FX66" t="n">
         <v>762</v>
       </c>
-      <c r="FQ66" t="n">
+      <c r="FY66" t="n">
         <v>709</v>
       </c>
-      <c r="FR66" t="n">
+      <c r="FZ66" t="n">
         <v>730</v>
       </c>
-      <c r="FS66" t="n">
+      <c r="GA66" t="n">
         <v>724</v>
       </c>
-      <c r="FT66" t="n">
+      <c r="GB66" t="n">
         <v>660</v>
       </c>
-      <c r="FU66" t="n">
+      <c r="GC66" t="n">
         <v>659</v>
       </c>
-      <c r="FV66" t="n">
+      <c r="GD66" t="n">
         <v>653</v>
       </c>
-      <c r="FW66" t="n">
+      <c r="GE66" t="n">
         <v>672</v>
       </c>
-      <c r="FX66" t="n">
+      <c r="GF66" t="n">
         <v>693</v>
       </c>
-      <c r="FY66" t="n">
+      <c r="GG66" t="n">
         <v>658</v>
       </c>
-      <c r="FZ66" t="n">
+      <c r="GH66" t="n">
         <v>658</v>
       </c>
-      <c r="GA66" t="n">
+      <c r="GI66" t="n">
         <v>669</v>
       </c>
-      <c r="GB66" t="n">
+      <c r="GJ66" t="n">
         <v>701</v>
       </c>
-      <c r="GC66" t="n">
+      <c r="GK66" t="n">
         <v>757</v>
       </c>
-      <c r="GD66" t="n">
+      <c r="GL66" t="n">
         <v>790</v>
       </c>
-      <c r="GE66" t="n">
+      <c r="GM66" t="n">
         <v>795</v>
       </c>
-      <c r="GF66" t="n">
+      <c r="GN66" t="n">
         <v>801</v>
       </c>
-      <c r="GG66" t="n">
+      <c r="GO66" t="n">
         <v>786</v>
       </c>
-      <c r="GH66" t="n">
+      <c r="GP66" t="n">
         <v>711</v>
       </c>
-      <c r="GI66" t="n">
+      <c r="GQ66" t="n">
         <v>675</v>
       </c>
-      <c r="GJ66" t="n">
+      <c r="GR66" t="n">
         <v>655</v>
       </c>
-      <c r="GK66" t="n">
+      <c r="GS66" t="n">
         <v>671</v>
       </c>
-      <c r="GL66" t="n">
+      <c r="GT66" t="n">
         <v>660</v>
       </c>
-      <c r="GM66" t="n">
+      <c r="GU66" t="n">
         <v>685</v>
       </c>
-      <c r="GN66" t="n">
+      <c r="GV66" t="n">
         <v>750</v>
       </c>
-      <c r="GO66" t="n">
+      <c r="GW66" t="n">
         <v>827</v>
       </c>
-      <c r="GP66" t="n">
+      <c r="GX66" t="n">
         <v>698</v>
       </c>
-      <c r="GQ66" t="n">
+      <c r="GY66" t="n">
         <v>691</v>
       </c>
-      <c r="GR66" t="n">
+      <c r="GZ66" t="n">
         <v>689</v>
       </c>
-      <c r="GS66" t="n">
+      <c r="HA66" t="n">
         <v>689</v>
       </c>
-      <c r="GT66" t="n">
+      <c r="HB66" t="n">
         <v>690</v>
       </c>
-      <c r="GU66" t="n">
+      <c r="HC66" t="n">
         <v>881</v>
       </c>
-      <c r="GV66" t="n">
+      <c r="HD66" t="n">
         <v>857</v>
       </c>
-      <c r="GW66" t="n">
+      <c r="HE66" t="n">
         <v>834</v>
       </c>
-      <c r="GX66" t="n">
+      <c r="HF66" t="n">
         <v>778</v>
       </c>
-      <c r="GY66" t="n">
+      <c r="HG66" t="n">
         <v>721</v>
       </c>
-      <c r="GZ66" t="n">
+      <c r="HH66" t="n">
         <v>692</v>
       </c>
-      <c r="HA66" t="n">
+      <c r="HI66" t="n">
         <v>691</v>
       </c>
-      <c r="HB66" t="n">
+      <c r="HJ66" t="n">
         <v>687</v>
       </c>
-      <c r="HC66" t="n">
+      <c r="HK66" t="n">
         <v>704</v>
       </c>
-      <c r="HD66" t="n">
+      <c r="HL66" t="n">
         <v>742</v>
       </c>
-      <c r="HE66" t="n">
+      <c r="HM66" t="n">
         <v>739</v>
       </c>
-      <c r="HF66" t="n">
+      <c r="HN66" t="n">
         <v>713</v>
       </c>
-      <c r="HG66" t="n">
+      <c r="HO66" t="n">
         <v>750</v>
       </c>
-      <c r="HH66" t="n">
+      <c r="HP66" t="n">
         <v>763</v>
       </c>
-      <c r="HI66" t="n">
+      <c r="HQ66" t="n">
         <v>733</v>
       </c>
-      <c r="HJ66" t="n">
+      <c r="HR66" t="n">
         <v>756</v>
       </c>
-      <c r="HK66" t="n">
+      <c r="HS66" t="n">
         <v>775</v>
       </c>
-      <c r="HL66" t="n">
+      <c r="HT66" t="n">
         <v>794</v>
       </c>
-      <c r="HM66" t="n">
+      <c r="HU66" t="n">
         <v>801</v>
       </c>
-      <c r="HN66" t="n">
+      <c r="HV66" t="n">
         <v>784</v>
       </c>
-      <c r="HO66" t="n">
+      <c r="HW66" t="n">
         <v>755</v>
       </c>
-      <c r="HP66" t="n">
+      <c r="HX66" t="n">
         <v>732</v>
       </c>
-      <c r="HQ66" t="n">
+      <c r="HY66" t="n">
         <v>695</v>
       </c>
-      <c r="HR66" t="n">
+      <c r="HZ66" t="n">
         <v>688</v>
       </c>
-      <c r="HS66" t="n">
+      <c r="IA66" t="n">
         <v>691</v>
       </c>
-      <c r="HT66" t="n">
+      <c r="IB66" t="n">
         <v>719</v>
       </c>
-      <c r="HU66" t="n">
+      <c r="IC66" t="n">
         <v>773</v>
       </c>
-      <c r="HV66" t="n">
+      <c r="ID66" t="n">
         <v>781</v>
       </c>
-      <c r="HW66" t="n">
+      <c r="IE66" t="n">
         <v>810</v>
       </c>
-      <c r="HX66" t="n">
+      <c r="IF66" t="n">
         <v>868</v>
       </c>
-      <c r="HY66" t="n">
+      <c r="IG66" t="n">
         <v>906</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="IH66" t="n">
         <v>923</v>
       </c>
-      <c r="IA66" t="n">
+      <c r="II66" t="n">
         <v>887</v>
       </c>
-      <c r="IB66" t="n">
+      <c r="IJ66" t="n">
         <v>796</v>
       </c>
-      <c r="IC66" t="n">
+      <c r="IK66" t="n">
         <v>734</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="IL66" t="n">
         <v>706</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IM66" t="n">
         <v>702</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IN66" t="n">
         <v>741</v>
       </c>
-      <c r="IG66" t="n">
+      <c r="IO66" t="n">
         <v>789</v>
       </c>
-      <c r="IH66" t="n">
+      <c r="IP66" t="n">
         <v>841</v>
       </c>
-      <c r="II66" t="n">
+      <c r="IQ66" t="n">
         <v>794</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IR66" t="n">
         <v>800</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IS66" t="n">
         <v>821</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IT66" t="n">
         <v>840</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IU66" t="n">
         <v>814</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IV66" t="n">
         <v>824</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IW66" t="n">
         <v>778</v>
-      </c>
-      <c r="IP66" t="n">
-        <v>747</v>
-      </c>
-      <c r="IQ66" t="n">
-        <v>756</v>
-      </c>
-      <c r="IR66" t="n">
-        <v>769</v>
-      </c>
-      <c r="IS66" t="n">
-        <v>788</v>
-      </c>
-      <c r="IT66" t="n">
-        <v>725</v>
-      </c>
-      <c r="IU66" t="n">
-        <v>706</v>
-      </c>
-      <c r="IV66" t="n">
-        <v>698</v>
-      </c>
-      <c r="IW66" t="n">
-        <v>704</v>
       </c>
     </row>
     <row r="67">
